--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBC5995-CBB5-4642-A509-04241919EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39326EE9-946B-4EF8-AC63-E3EE2305D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="655">
   <si>
     <t>EAN</t>
   </si>
@@ -4301,7 +4301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4379,13 +4379,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4909,8 +4902,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E208" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E208" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E209" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E209" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{988177E9-8B74-4DA8-8D93-E60B539BC797}" name="EAN" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9354D9B3-F652-4D41-B841-C67C7F44B562}" name="descrpcion_es" dataDxfId="3"/>
@@ -5224,8 +5217,8 @@
   </sheetPr>
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6374,19 +6367,19 @@
       </c>
       <c r="D30" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E30" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E30" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 09</v>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 2</v>
+      </c>
+      <c r="G30" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 1</v>
       </c>
       <c r="H30" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -7361,7 +7354,7 @@
       </c>
       <c r="G55" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 1</v>
+        <v>FILA 3</v>
       </c>
       <c r="H55" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -10469,19 +10462,19 @@
       </c>
       <c r="D135" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E135" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F135" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G135" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E135" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 08</v>
+      </c>
+      <c r="F135" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 1</v>
+      </c>
+      <c r="G135" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 5</v>
       </c>
       <c r="H135" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -13744,19 +13737,19 @@
         <v>230</v>
       </c>
       <c r="C222" s="14"/>
-      <c r="D222" s="43" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E222" s="43" t="str">
+      <c r="D222" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E222" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
         <v>RACK 02</v>
       </c>
-      <c r="F222" s="43" t="str">
+      <c r="F222" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
         <v>MODULO 2</v>
       </c>
-      <c r="G222" s="43" t="str">
+      <c r="G222" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>FILA 2</v>
       </c>
@@ -13764,11 +13757,11 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I222" s="44" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J222" s="45" t="e">
+      <c r="I222" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J222" s="13" t="e">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16112,10 +16105,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17777,10 +17770,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="12">
-        <v>5036581089535</v>
+        <v>5036581066345</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>572</v>
@@ -19660,6 +19653,23 @@
       </c>
       <c r="E208" s="27" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75">
+      <c r="A209" s="26">
+        <v>5059340719597</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E209" s="27" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39326EE9-946B-4EF8-AC63-E3EE2305D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B17323-E79F-4247-8337-9AC63EA4A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="655">
   <si>
     <t>EAN</t>
   </si>
@@ -371,7 +371,7 @@
     <t>PAVIMENTO STRUCTURED BEIGE 60X60</t>
   </si>
   <si>
-    <t>PAVIMENTO TORAN 23 X 120 HAYA</t>
+    <t>PAVIMENTO TORAN 23 X 120 HAYA (REEMPLAZADO POR SELVA)</t>
   </si>
   <si>
     <t>PAVIMENTO DAMIÁN 45X45 BEIGE</t>
@@ -1042,6 +1042,9 @@
     <t>SUELO LAMINADO AC4 PINO GRIS 7MM ROCCAPINA 138X19</t>
   </si>
   <si>
+    <t>PAVIMENTO SELVA 23 X 120 HAYA</t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -2067,6 +2070,88 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAVIMENTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> SELVA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAYA</t>
+    </r>
+  </si>
+  <si>
+    <t>24-12-101</t>
+  </si>
+  <si>
+    <r>
       <t>PAVIMENTO</t>
     </r>
     <r>
@@ -2087,7 +2172,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TORAN</t>
+      <t>AMAGA</t>
     </r>
     <r>
       <rPr>
@@ -2107,7 +2192,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>23</t>
+      <t>BEIGE</t>
     </r>
     <r>
       <rPr>
@@ -2127,7 +2212,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>X</t>
+      <t>24X88</t>
+    </r>
+  </si>
+  <si>
+    <t>24-12-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -2147,7 +2240,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>120</t>
+      <t>CERAMICO</t>
     </r>
     <r>
       <rPr>
@@ -2167,15 +2260,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>HAYA</t>
-    </r>
-  </si>
-  <si>
-    <t>24-12-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>FOREST</t>
     </r>
     <r>
       <rPr>
@@ -2195,7 +2280,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AMAGA</t>
+      <t>ROBLE</t>
     </r>
     <r>
       <rPr>
@@ -2215,7 +2300,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BEIGE</t>
+      <t>19X57</t>
+    </r>
+  </si>
+  <si>
+    <t>24-11-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -2235,15 +2328,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>24X88</t>
-    </r>
-  </si>
-  <si>
-    <t>24-12-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>MADINE</t>
     </r>
     <r>
       <rPr>
@@ -2263,7 +2348,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CERAMICO</t>
+      <t>45X45</t>
+    </r>
+  </si>
+  <si>
+    <t>24-11-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -2283,7 +2376,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FOREST</t>
+      <t>COTTO</t>
     </r>
     <r>
       <rPr>
@@ -2303,7 +2396,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ROBLE</t>
+      <t>TERRACOTTA</t>
     </r>
     <r>
       <rPr>
@@ -2323,11 +2416,11 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>19X57</t>
-    </r>
-  </si>
-  <si>
-    <t>24-11-101</t>
+      <t>33X33</t>
+    </r>
+  </si>
+  <si>
+    <t>24-11-103</t>
   </si>
   <si>
     <r>
@@ -2351,7 +2444,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MADINE</t>
+      <t>BELINDA</t>
     </r>
     <r>
       <rPr>
@@ -2373,14 +2466,6 @@
       </rPr>
       <t>45X45</t>
     </r>
-  </si>
-  <si>
-    <t>24-11-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2399,7 +2484,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>COTTO</t>
+      <t>GRIS</t>
+    </r>
+  </si>
+  <si>
+    <t>24-10-101</t>
+  </si>
+  <si>
+    <r>
+      <t>G.</t>
     </r>
     <r>
       <rPr>
@@ -2419,7 +2512,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TERRACOTTA</t>
+      <t>GOLDEN</t>
     </r>
     <r>
       <rPr>
@@ -2439,15 +2532,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>33X33</t>
-    </r>
-  </si>
-  <si>
-    <t>24-11-103</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>HILL</t>
     </r>
     <r>
       <rPr>
@@ -2467,7 +2552,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BELINDA</t>
+      <t>SATINADO</t>
     </r>
     <r>
       <rPr>
@@ -2489,6 +2574,14 @@
       </rPr>
       <t>45X45</t>
     </r>
+  </si>
+  <si>
+    <t>24-10-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2507,15 +2600,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GRIS</t>
-    </r>
-  </si>
-  <si>
-    <t>24-10-101</t>
-  </si>
-  <si>
-    <r>
-      <t>G.</t>
+      <t>SALINAS</t>
     </r>
     <r>
       <rPr>
@@ -2535,7 +2620,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GOLDEN</t>
+      <t>GOLD</t>
     </r>
     <r>
       <rPr>
@@ -2555,7 +2640,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>HILL</t>
+      <t>60X120</t>
+    </r>
+  </si>
+  <si>
+    <t>24-10-103</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -2575,7 +2668,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SATINADO</t>
+      <t>DAMIAN</t>
     </r>
     <r>
       <rPr>
@@ -2597,14 +2690,6 @@
       </rPr>
       <t>45X45</t>
     </r>
-  </si>
-  <si>
-    <t>24-10-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2623,7 +2708,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SALINAS</t>
+      <t>GRIS</t>
+    </r>
+  </si>
+  <si>
+    <t>24-01-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -2643,7 +2736,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GOLD</t>
+      <t>CIMENTI</t>
     </r>
     <r>
       <rPr>
@@ -2663,15 +2756,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>60X120</t>
-    </r>
-  </si>
-  <si>
-    <t>24-10-103</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
+      <t>GREY</t>
     </r>
     <r>
       <rPr>
@@ -2691,7 +2776,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DAMIAN</t>
+      <t>60X60</t>
+    </r>
+  </si>
+  <si>
+    <t>24-01-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -2711,7 +2804,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>45X45</t>
+      <t>ZICATELA</t>
     </r>
     <r>
       <rPr>
@@ -2731,15 +2824,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GRIS</t>
-    </r>
-  </si>
-  <si>
-    <t>24-01-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>BLANCO</t>
     </r>
     <r>
       <rPr>
@@ -2759,7 +2844,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CIMENTI</t>
+      <t>60X120</t>
+    </r>
+  </si>
+  <si>
+    <t>24-01-103</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -2779,7 +2872,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GREY</t>
+      <t>LIMO</t>
     </r>
     <r>
       <rPr>
@@ -2799,15 +2892,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>60X60</t>
-    </r>
-  </si>
-  <si>
-    <t>24-01-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>45X45</t>
     </r>
     <r>
       <rPr>
@@ -2827,7 +2912,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ZICATELA</t>
+      <t>LIGHT</t>
     </r>
     <r>
       <rPr>
@@ -2847,7 +2932,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BLANCO</t>
+      <t>GREY</t>
+    </r>
+  </si>
+  <si>
+    <t>24-02-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV</t>
     </r>
     <r>
       <rPr>
@@ -2867,15 +2960,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>60X120</t>
-    </r>
-  </si>
-  <si>
-    <t>24-01-103</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>NATURAL</t>
     </r>
     <r>
       <rPr>
@@ -2895,7 +2980,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LIMO</t>
+      <t>ANTRACITA</t>
     </r>
     <r>
       <rPr>
@@ -2915,7 +3000,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>45X45</t>
+      <t>30X60</t>
+    </r>
+  </si>
+  <si>
+    <t>24-02-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PLAQUETA</t>
     </r>
     <r>
       <rPr>
@@ -2935,7 +3028,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LIGHT</t>
+      <t>DANY</t>
     </r>
     <r>
       <rPr>
@@ -2955,15 +3048,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GREY</t>
-    </r>
-  </si>
-  <si>
-    <t>24-02-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV</t>
+      <t>25X40</t>
     </r>
     <r>
       <rPr>
@@ -2983,7 +3068,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NATURAL</t>
+      <t>BEIGE</t>
+    </r>
+  </si>
+  <si>
+    <t>26-05-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -3003,7 +3096,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ANTRACITA</t>
+      <t>CARYO</t>
     </r>
     <r>
       <rPr>
@@ -3023,15 +3116,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30X60</t>
-    </r>
-  </si>
-  <si>
-    <t>24-02-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PLAQUETA</t>
+      <t>SALIDA</t>
     </r>
     <r>
       <rPr>
@@ -3051,7 +3136,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DANY</t>
+      <t>33X33</t>
     </r>
     <r>
       <rPr>
@@ -3071,7 +3156,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>25X40</t>
+      <t>MARRÓN</t>
+    </r>
+  </si>
+  <si>
+    <t>24-04-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -3091,15 +3184,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BEIGE</t>
-    </r>
-  </si>
-  <si>
-    <t>26-05-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
+      <t>CAMELIO</t>
     </r>
     <r>
       <rPr>
@@ -3119,7 +3204,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CARYO</t>
+      <t>SALIDA</t>
     </r>
     <r>
       <rPr>
@@ -3139,7 +3224,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SALIDA</t>
+      <t>33X33</t>
     </r>
     <r>
       <rPr>
@@ -3159,7 +3244,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>33X33</t>
+      <t>BEIGE</t>
+    </r>
+  </si>
+  <si>
+    <t>24-04-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -3179,15 +3272,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MARRÓN</t>
-    </r>
-  </si>
-  <si>
-    <t>24-04-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
+      <t>C3</t>
     </r>
     <r>
       <rPr>
@@ -3207,7 +3292,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CAMELIO</t>
+      <t>ASPEN</t>
     </r>
     <r>
       <rPr>
@@ -3227,7 +3312,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SALIDA</t>
+      <t>BLUE</t>
     </r>
     <r>
       <rPr>
@@ -3247,7 +3332,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>33X33</t>
+      <t>30X60</t>
+    </r>
+  </si>
+  <si>
+    <t>24-04-103</t>
+  </si>
+  <si>
+    <r>
+      <t>PAVIMENTO</t>
     </r>
     <r>
       <rPr>
@@ -3267,15 +3360,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BEIGE</t>
-    </r>
-  </si>
-  <si>
-    <t>24-04-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
+      <t>ASPEN</t>
     </r>
     <r>
       <rPr>
@@ -3295,7 +3380,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C3</t>
+      <t>TIERRA</t>
     </r>
     <r>
       <rPr>
@@ -3315,7 +3400,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASPEN</t>
+      <t>30X60</t>
+    </r>
+  </si>
+  <si>
+    <t>24-03-101</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -3335,7 +3428,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BLUE</t>
+      <t>VOLFY</t>
     </r>
     <r>
       <rPr>
@@ -3357,14 +3450,6 @@
       </rPr>
       <t>30X60</t>
     </r>
-  </si>
-  <si>
-    <t>24-04-103</t>
-  </si>
-  <si>
-    <r>
-      <t>PAVIMENTO</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3383,7 +3468,15 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASPEN</t>
+      <t>BEIGE</t>
+    </r>
+  </si>
+  <si>
+    <t>24-03-102</t>
+  </si>
+  <si>
+    <r>
+      <t>PAV.</t>
     </r>
     <r>
       <rPr>
@@ -3403,7 +3496,7 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TIERRA</t>
+      <t>VOLFY</t>
     </r>
     <r>
       <rPr>
@@ -3425,14 +3518,6 @@
       </rPr>
       <t>30X60</t>
     </r>
-  </si>
-  <si>
-    <t>24-03-101</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3451,114 +3536,6 @@
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>VOLFY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30X60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEIGE</t>
-    </r>
-  </si>
-  <si>
-    <t>24-03-102</t>
-  </si>
-  <si>
-    <r>
-      <t>PAV.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VOLFY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30X60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>GRIS</t>
     </r>
   </si>
@@ -3657,9 +3634,6 @@
   </si>
   <si>
     <t>CLIZI GRIS 24X88</t>
-  </si>
-  <si>
-    <t>TORAN HAYA</t>
   </si>
   <si>
     <t>JANO BLANCO 23X120</t>
@@ -4110,7 +4084,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4228,6 +4202,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4301,7 +4286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4379,6 +4364,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4845,8 +4838,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J222" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J222" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J223" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J223" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5215,15 +5208,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="11" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="22.42578125" style="11" customWidth="1"/>
@@ -9175,19 +9168,19 @@
       </c>
       <c r="D102" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E102" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>RACK 13</v>
-      </c>
-      <c r="F102" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>MODULO 1</v>
-      </c>
-      <c r="G102" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 4</v>
+        <v>NO</v>
+      </c>
+      <c r="E102" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H102" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -9195,11 +9188,11 @@
       </c>
       <c r="I102" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J102" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-12-101</v>
+        <v>NO</v>
+      </c>
+      <c r="J102" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75">
@@ -13764,6 +13757,43 @@
       <c r="J222" s="13" t="e">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="18.75">
+      <c r="A223" s="33">
+        <v>8435609380802</v>
+      </c>
+      <c r="B223" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="43" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E223" s="43" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 13</v>
+      </c>
+      <c r="F223" s="43" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 1</v>
+      </c>
+      <c r="G223" s="43" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 4</v>
+      </c>
+      <c r="H223" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I223" s="44" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J223" s="45" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-12-101</v>
       </c>
     </row>
   </sheetData>
@@ -13797,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13805,10 +13835,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13819,7 +13849,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13830,7 +13860,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13841,7 +13871,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13852,7 +13882,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13863,7 +13893,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13874,7 +13904,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13885,7 +13915,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13893,10 +13923,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13907,7 +13937,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13918,7 +13948,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13926,10 +13956,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13940,7 +13970,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13951,7 +13981,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13962,7 +13992,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13973,7 +14003,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13984,7 +14014,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13995,7 +14025,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14006,7 +14036,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14017,7 +14047,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14028,7 +14058,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14036,10 +14066,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14050,7 +14080,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14061,7 +14091,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14072,7 +14102,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14083,7 +14113,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14094,7 +14124,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14102,10 +14132,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14116,7 +14146,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14124,10 +14154,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14138,7 +14168,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14149,7 +14179,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14160,7 +14190,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14171,7 +14201,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14182,7 +14212,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14193,7 +14223,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14204,7 +14234,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14215,7 +14245,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14226,7 +14256,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -14234,10 +14264,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -14248,7 +14278,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -14259,7 +14289,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -14270,7 +14300,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14281,7 +14311,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -14292,7 +14322,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14303,7 +14333,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -14314,7 +14344,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -14325,7 +14355,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -14336,7 +14366,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -14347,7 +14377,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -14358,7 +14388,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -14369,7 +14399,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -14380,7 +14410,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14391,7 +14421,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14399,10 +14429,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -14410,10 +14440,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14421,10 +14451,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -14432,10 +14462,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -14443,10 +14473,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -14457,7 +14487,7 @@
         <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -14468,7 +14498,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -14479,7 +14509,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -14490,7 +14520,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -14501,7 +14531,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -14509,10 +14539,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -14520,10 +14550,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -14531,10 +14561,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -14545,7 +14575,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -14556,7 +14586,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14567,7 +14597,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14578,7 +14608,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -14589,7 +14619,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14600,7 +14630,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -14611,7 +14641,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -14622,7 +14652,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14633,7 +14663,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -14644,7 +14674,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -14652,10 +14682,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -14666,7 +14696,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -14677,7 +14707,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -14688,7 +14718,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -14699,7 +14729,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -14707,10 +14737,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -14718,10 +14748,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -14729,10 +14759,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -14740,10 +14770,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -14754,7 +14784,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -14765,7 +14795,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -14776,7 +14806,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -14787,7 +14817,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -14798,7 +14828,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -14809,7 +14839,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -14820,7 +14850,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14831,7 +14861,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14842,7 +14872,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -14853,7 +14883,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -14864,7 +14894,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -14875,7 +14905,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -14886,7 +14916,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -14897,7 +14927,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -14908,7 +14938,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -14919,7 +14949,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -14930,7 +14960,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -14941,7 +14971,7 @@
         <v>180</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -14952,7 +14982,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -14963,7 +14993,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -14974,7 +15004,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -14985,7 +15015,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -14996,7 +15026,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -15007,7 +15037,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -15018,7 +15048,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -15029,7 +15059,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -15040,7 +15070,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -15051,7 +15081,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -15062,7 +15092,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -15073,7 +15103,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -15084,7 +15114,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -15095,7 +15125,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -15106,7 +15136,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -15117,7 +15147,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -15128,7 +15158,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -15139,7 +15169,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -15150,7 +15180,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -15161,7 +15191,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -15172,7 +15202,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -15183,7 +15213,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -15194,7 +15224,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -15205,7 +15235,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -15216,7 +15246,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -15227,7 +15257,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -15238,7 +15268,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -15249,7 +15279,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -15260,7 +15290,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -15271,7 +15301,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -15282,7 +15312,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -15293,7 +15323,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -15304,7 +15334,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -15315,7 +15345,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -15326,7 +15356,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -15337,7 +15367,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -15348,7 +15378,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -15359,7 +15389,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -15370,7 +15400,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -15381,7 +15411,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -15392,7 +15422,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -15403,7 +15433,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -15414,7 +15444,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -15425,7 +15455,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -15441,8 +15471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24194B37-EADF-445E-ADDF-4E32977FA578}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B43"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15462,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -15470,13 +15500,13 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -15484,10 +15514,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15498,7 +15528,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15509,7 +15539,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15517,10 +15547,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15531,7 +15561,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15539,10 +15569,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15550,10 +15580,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15564,7 +15594,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15575,7 +15605,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -15583,10 +15613,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -15597,7 +15627,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15605,10 +15635,10 @@
         <v>3663602848349</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15616,10 +15646,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15627,10 +15657,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -15638,10 +15668,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -15649,10 +15679,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -15660,10 +15690,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -15671,10 +15701,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -15682,21 +15712,21 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="8">
-        <v>8435609333952</v>
+        <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -15704,10 +15734,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -15715,10 +15745,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -15726,10 +15756,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -15737,10 +15767,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -15748,10 +15778,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15759,10 +15789,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15770,10 +15800,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15781,10 +15811,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -15792,10 +15822,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -15803,10 +15833,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15814,10 +15844,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15825,10 +15855,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15836,10 +15866,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15847,10 +15877,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15858,10 +15888,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15869,10 +15899,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15880,10 +15910,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15891,10 +15921,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15902,10 +15932,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15916,7 +15946,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15927,7 +15957,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15938,7 +15968,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -15949,7 +15979,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15960,7 +15990,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15971,7 +16001,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15982,7 +16012,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15993,7 +16023,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16004,7 +16034,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16015,7 +16045,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16026,7 +16056,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16037,7 +16067,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16048,7 +16078,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16059,7 +16089,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16070,7 +16100,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16081,7 +16111,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -16092,7 +16122,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -16107,8 +16137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16141,16 +16171,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16158,16 +16188,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -16175,16 +16205,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16192,16 +16222,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>501</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16209,16 +16239,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -16226,16 +16256,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>504</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -16243,33 +16273,33 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75">
+      <c r="A9" s="33">
+        <v>8435609380802</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24">
-        <v>8435609333952</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>493</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -16280,10 +16310,10 @@
         <v>507</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>508</v>
@@ -16297,10 +16327,10 @@
         <v>509</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>508</v>
@@ -16314,13 +16344,13 @@
         <v>510</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16331,13 +16361,13 @@
         <v>511</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16348,13 +16378,13 @@
         <v>512</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -16365,13 +16395,13 @@
         <v>513</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -16382,13 +16412,13 @@
         <v>514</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -16399,13 +16429,13 @@
         <v>515</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -16416,13 +16446,13 @@
         <v>516</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -16433,13 +16463,13 @@
         <v>517</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16450,10 +16480,10 @@
         <v>518</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>508</v>
@@ -16467,10 +16497,10 @@
         <v>519</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>508</v>
@@ -16487,10 +16517,10 @@
         <v>521</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16504,10 +16534,10 @@
         <v>521</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -16521,10 +16551,10 @@
         <v>521</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -16538,10 +16568,10 @@
         <v>521</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -16555,10 +16585,10 @@
         <v>521</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -16572,10 +16602,10 @@
         <v>521</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -16589,10 +16619,10 @@
         <v>521</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -16606,10 +16636,10 @@
         <v>521</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -16623,10 +16653,10 @@
         <v>521</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -16640,10 +16670,10 @@
         <v>521</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -16657,10 +16687,10 @@
         <v>521</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -16674,10 +16704,10 @@
         <v>521</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -16691,10 +16721,10 @@
         <v>521</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -16708,10 +16738,10 @@
         <v>534</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -16725,10 +16755,10 @@
         <v>521</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -16742,10 +16772,10 @@
         <v>521</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -16759,10 +16789,10 @@
         <v>521</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -16776,10 +16806,10 @@
         <v>521</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -16793,10 +16823,10 @@
         <v>521</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -16810,10 +16840,10 @@
         <v>541</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -16827,10 +16857,10 @@
         <v>541</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -16844,10 +16874,10 @@
         <v>541</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -16861,10 +16891,10 @@
         <v>541</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -16878,10 +16908,10 @@
         <v>541</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -16895,10 +16925,10 @@
         <v>541</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -16912,10 +16942,10 @@
         <v>541</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -16929,10 +16959,10 @@
         <v>541</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -16946,10 +16976,10 @@
         <v>541</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -16963,10 +16993,10 @@
         <v>541</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -16980,10 +17010,10 @@
         <v>541</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -16997,10 +17027,10 @@
         <v>541</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -17014,10 +17044,10 @@
         <v>541</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -17031,10 +17061,10 @@
         <v>541</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -17048,10 +17078,10 @@
         <v>541</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -17065,10 +17095,10 @@
         <v>534</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -17082,10 +17112,10 @@
         <v>534</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -17099,10 +17129,10 @@
         <v>534</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -17116,10 +17146,10 @@
         <v>534</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -17133,10 +17163,10 @@
         <v>534</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -17150,10 +17180,10 @@
         <v>534</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -17167,10 +17197,10 @@
         <v>534</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -17184,10 +17214,10 @@
         <v>534</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -17195,16 +17225,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>534</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -17218,10 +17248,10 @@
         <v>534</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -17235,10 +17265,10 @@
         <v>534</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -17252,10 +17282,10 @@
         <v>534</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -17269,10 +17299,10 @@
         <v>534</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -17286,10 +17316,10 @@
         <v>534</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -17303,10 +17333,10 @@
         <v>534</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -17320,10 +17350,10 @@
         <v>534</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -17337,10 +17367,10 @@
         <v>534</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -17354,10 +17384,10 @@
         <v>534</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -17371,10 +17401,10 @@
         <v>572</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -17388,10 +17418,10 @@
         <v>572</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -17405,10 +17435,10 @@
         <v>572</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -17422,10 +17452,10 @@
         <v>572</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -17439,10 +17469,10 @@
         <v>572</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -17456,10 +17486,10 @@
         <v>572</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -17473,10 +17503,10 @@
         <v>572</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -17490,10 +17520,10 @@
         <v>572</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -17507,10 +17537,10 @@
         <v>572</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -17524,10 +17554,10 @@
         <v>572</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -17541,10 +17571,10 @@
         <v>572</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -17558,7 +17588,7 @@
         <v>572</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>508</v>
@@ -17575,7 +17605,7 @@
         <v>572</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>508</v>
@@ -17592,7 +17622,7 @@
         <v>572</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>508</v>
@@ -17609,7 +17639,7 @@
         <v>572</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>508</v>
@@ -17626,7 +17656,7 @@
         <v>572</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>508</v>
@@ -17643,7 +17673,7 @@
         <v>572</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>508</v>
@@ -17660,7 +17690,7 @@
         <v>572</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>508</v>
@@ -17677,7 +17707,7 @@
         <v>572</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>508</v>
@@ -17694,10 +17724,10 @@
         <v>572</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -17711,10 +17741,10 @@
         <v>572</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -17728,10 +17758,10 @@
         <v>572</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -17745,10 +17775,10 @@
         <v>572</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -17762,10 +17792,10 @@
         <v>572</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -17779,10 +17809,10 @@
         <v>572</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -17796,10 +17826,10 @@
         <v>572</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -17813,10 +17843,10 @@
         <v>572</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -17830,10 +17860,10 @@
         <v>572</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -17847,10 +17877,10 @@
         <v>572</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -17864,10 +17894,10 @@
         <v>572</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -17881,10 +17911,10 @@
         <v>572</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -17898,10 +17928,10 @@
         <v>572</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -17915,10 +17945,10 @@
         <v>572</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -17932,10 +17962,10 @@
         <v>572</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -17949,10 +17979,10 @@
         <v>572</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -17966,10 +17996,10 @@
         <v>572</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -17983,10 +18013,10 @@
         <v>572</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -18000,10 +18030,10 @@
         <v>572</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -18017,10 +18047,10 @@
         <v>572</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -18034,10 +18064,10 @@
         <v>572</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -18051,10 +18081,10 @@
         <v>572</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -18068,10 +18098,10 @@
         <v>572</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -18085,7 +18115,7 @@
         <v>572</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>508</v>
@@ -18102,7 +18132,7 @@
         <v>572</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>508</v>
@@ -18119,7 +18149,7 @@
         <v>572</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>508</v>
@@ -18136,7 +18166,7 @@
         <v>572</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>508</v>
@@ -18153,10 +18183,10 @@
         <v>608</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -18170,10 +18200,10 @@
         <v>608</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -18187,10 +18217,10 @@
         <v>608</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -18204,10 +18234,10 @@
         <v>608</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -18221,10 +18251,10 @@
         <v>608</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -18238,10 +18268,10 @@
         <v>608</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -18255,10 +18285,10 @@
         <v>608</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -18272,10 +18302,10 @@
         <v>608</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -18289,10 +18319,10 @@
         <v>608</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -18306,10 +18336,10 @@
         <v>608</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -18323,10 +18353,10 @@
         <v>608</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -18340,10 +18370,10 @@
         <v>608</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -18357,10 +18387,10 @@
         <v>608</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -18374,10 +18404,10 @@
         <v>608</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -18391,10 +18421,10 @@
         <v>608</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -18402,16 +18432,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>608</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -18425,10 +18455,10 @@
         <v>608</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -18442,7 +18472,7 @@
         <v>608</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>508</v>
@@ -18459,7 +18489,7 @@
         <v>608</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>508</v>
@@ -18476,7 +18506,7 @@
         <v>608</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>508</v>
@@ -18493,7 +18523,7 @@
         <v>608</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>508</v>
@@ -18510,7 +18540,7 @@
         <v>608</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E141" s="25" t="s">
         <v>508</v>
@@ -18527,10 +18557,10 @@
         <v>608</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -18544,10 +18574,10 @@
         <v>608</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -18561,10 +18591,10 @@
         <v>608</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -18572,16 +18602,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C145" s="25" t="s">
         <v>608</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -18595,10 +18625,10 @@
         <v>608</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -18612,10 +18642,10 @@
         <v>608</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -18623,16 +18653,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C148" s="25" t="s">
         <v>608</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -18646,10 +18676,10 @@
         <v>608</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -18663,10 +18693,10 @@
         <v>608</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -18680,10 +18710,10 @@
         <v>608</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -18697,10 +18727,10 @@
         <v>608</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -18714,10 +18744,10 @@
         <v>608</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -18725,16 +18755,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>608</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -18748,7 +18778,7 @@
         <v>608</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>508</v>
@@ -18765,7 +18795,7 @@
         <v>608</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>508</v>
@@ -18782,7 +18812,7 @@
         <v>608</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>508</v>
@@ -18799,7 +18829,7 @@
         <v>608</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>508</v>
@@ -18816,7 +18846,7 @@
         <v>608</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E159" s="25" t="s">
         <v>508</v>
@@ -18833,10 +18863,10 @@
         <v>633</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -18850,10 +18880,10 @@
         <v>633</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -18867,10 +18897,10 @@
         <v>633</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -18884,10 +18914,10 @@
         <v>633</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -18901,10 +18931,10 @@
         <v>633</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -18918,10 +18948,10 @@
         <v>633</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -18935,10 +18965,10 @@
         <v>633</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -18952,10 +18982,10 @@
         <v>633</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -18969,10 +18999,10 @@
         <v>633</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -18986,10 +19016,10 @@
         <v>633</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -19003,10 +19033,10 @@
         <v>633</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -19020,7 +19050,7 @@
         <v>633</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E171" s="25" t="s">
         <v>508</v>
@@ -19037,7 +19067,7 @@
         <v>633</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E172" s="25" t="s">
         <v>508</v>
@@ -19054,7 +19084,7 @@
         <v>633</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E173" s="25" t="s">
         <v>508</v>
@@ -19071,10 +19101,10 @@
         <v>633</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -19088,10 +19118,10 @@
         <v>633</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -19105,10 +19135,10 @@
         <v>633</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -19122,10 +19152,10 @@
         <v>633</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -19139,10 +19169,10 @@
         <v>633</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -19156,7 +19186,7 @@
         <v>633</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>508</v>
@@ -19173,7 +19203,7 @@
         <v>633</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>508</v>
@@ -19190,7 +19220,7 @@
         <v>633</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E181" s="25" t="s">
         <v>508</v>
@@ -19207,10 +19237,10 @@
         <v>643</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -19224,10 +19254,10 @@
         <v>643</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -19241,10 +19271,10 @@
         <v>643</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -19258,10 +19288,10 @@
         <v>643</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -19275,10 +19305,10 @@
         <v>643</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -19292,10 +19322,10 @@
         <v>643</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19309,10 +19339,10 @@
         <v>643</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -19326,10 +19356,10 @@
         <v>643</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -19343,10 +19373,10 @@
         <v>643</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -19360,10 +19390,10 @@
         <v>643</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -19377,10 +19407,10 @@
         <v>643</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -19394,10 +19424,10 @@
         <v>643</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -19411,7 +19441,7 @@
         <v>643</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>508</v>
@@ -19428,7 +19458,7 @@
         <v>643</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E195" s="25" t="s">
         <v>508</v>
@@ -19445,10 +19475,10 @@
         <v>643</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -19462,10 +19492,10 @@
         <v>643</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -19479,10 +19509,10 @@
         <v>643</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -19496,10 +19526,10 @@
         <v>643</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -19513,10 +19543,10 @@
         <v>643</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -19530,10 +19560,10 @@
         <v>643</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -19547,10 +19577,10 @@
         <v>643</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -19564,10 +19594,10 @@
         <v>643</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -19581,10 +19611,10 @@
         <v>643</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -19598,7 +19628,7 @@
         <v>643</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>508</v>
@@ -19615,7 +19645,7 @@
         <v>643</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>508</v>
@@ -19632,7 +19662,7 @@
         <v>643</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E207" s="25" t="s">
         <v>508</v>
@@ -19649,10 +19679,10 @@
         <v>643</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75">
@@ -19666,7 +19696,7 @@
         <v>608</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E209" s="27" t="s">
         <v>508</v>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B17323-E79F-4247-8337-9AC63EA4A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B42B04C-BCA3-4B69-8FA6-4D91235076C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="766">
   <si>
     <t>EAN</t>
   </si>
@@ -1045,6 +1045,165 @@
     <t>PAVIMENTO SELVA 23 X 120 HAYA</t>
   </si>
   <si>
+    <t>RODAPIE COTTO TERRACOTA 7.5X30</t>
+  </si>
+  <si>
+    <t>ROAPIE DAMIAN 7.45X45 GRIS</t>
+  </si>
+  <si>
+    <t>RODAPIE CIMENTI GREY 8X60 1UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CHELSEA GRIS 7.5X45 4 PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE G. GOLDEN HILL 7.5X45X6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE NISIDA SLIM 8X60 6UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SALINAS GOLD 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ZICATELA BLANCO 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE LIMO 7.5X45 5UND</t>
+  </si>
+  <si>
+    <t>RODAPIE NATURAL BLANCO 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE NATURAL ANTRACITA 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE BARSAN 10X60 GRIS (6u)</t>
+  </si>
+  <si>
+    <t>RODAPIE UCLES GRIS 8X45 5UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE MADINE 8X45</t>
+  </si>
+  <si>
+    <t>RODAPIECONCORDE NATURAL MATE 7.5X60-6 UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE AMAGA BEIGE MATE 8X60 4PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE UCLES NATURAL 8X45 5UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE COLTON HAYA MATE 7,3X60 6PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE CARTAGO HAYA 8X60 4 UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CARTAGO MIEL 8X60 4 UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA CAOBA MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE ASPEN TIERRA 7,5X60 5U</t>
+  </si>
+  <si>
+    <t>RODAPIE ASPEN BLUE 7,5X60 5UND</t>
+  </si>
+  <si>
+    <t>RODAPIE NORWEGIO GRIS 7,5X30</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ GRIS 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ ROBLE 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ BLANCO 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CLIZI GRIS 8X60 1UND</t>
+  </si>
+  <si>
+    <t>RODAPIE MONACO 8X45 (5UDS)</t>
+  </si>
+  <si>
+    <t>RODAPIE FABRE 8X60 MARRON (6u)</t>
+  </si>
+  <si>
+    <t>RODAPIE WOODPROJECT 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA HAYA MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA GRIS MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE DAMIAN 7.45X45 BEIGE</t>
+  </si>
+  <si>
+    <t>RODAPIE PLAIN WHITE 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN MUD 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE STRUCTURED BG 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE ASSEN GREY MATE 7.5X45 6UD</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN GRIS 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN MARENGO 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ENORA ANTRACITA 9X60.8 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CHELSEA CORAL 7.5X45 4 PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE BELINDA BEIGE 7,5X45 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE TRAVERTINA LIGHT BEIGE 8X45 6UND</t>
+  </si>
+  <si>
+    <t>ROD SHADED SLATE 8X60 BEIGE</t>
+  </si>
+  <si>
+    <t>ROD SHADED SLATE 8X60 GRIS</t>
+  </si>
+  <si>
+    <t>RODAPIE NEW PORT SILVER 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE HARIS 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE HARIAS ANTRACITA 7.5X45 1UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SHADED SLATE 8X60 ANTRACITA</t>
+  </si>
+  <si>
+    <t>RODAPIE ASPEN BEIGE 7,5 X60 5PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE ARAS TERRA 8X33 4 U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODAPIE ARAS COTTO 8X33 4 U </t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -1556,9 +1715,6 @@
   </si>
   <si>
     <t>26-05-102</t>
-  </si>
-  <si>
-    <t>=si(EXISTENCIA[@[en_self]]=VERDADERO(BUSCARV(EXISTENCIA[@EAN],SELF,3,FALSO))</t>
   </si>
   <si>
     <t>AZ. PABLO 30X90 BEIGE PIEDRA</t>
@@ -3540,7 +3696,7 @@
     </r>
   </si>
   <si>
-    <t>24-03103</t>
+    <t>24-03-103</t>
   </si>
   <si>
     <t>24-02-103</t>
@@ -3592,6 +3748,183 @@
   </si>
   <si>
     <t>22-15-103</t>
+  </si>
+  <si>
+    <t>24-05-101</t>
+  </si>
+  <si>
+    <t>24-05-102</t>
+  </si>
+  <si>
+    <t>24-05-103</t>
+  </si>
+  <si>
+    <t>24-05-104</t>
+  </si>
+  <si>
+    <t>24-05-105</t>
+  </si>
+  <si>
+    <t>24-05-106</t>
+  </si>
+  <si>
+    <t>24-05-107</t>
+  </si>
+  <si>
+    <t>24-05-108</t>
+  </si>
+  <si>
+    <t>24-05-109</t>
+  </si>
+  <si>
+    <t>24-05-110</t>
+  </si>
+  <si>
+    <t>24-05-111</t>
+  </si>
+  <si>
+    <t>24-05-201</t>
+  </si>
+  <si>
+    <t>24-05-202</t>
+  </si>
+  <si>
+    <t>24-05-203</t>
+  </si>
+  <si>
+    <t>24-05-204</t>
+  </si>
+  <si>
+    <t>24-05-205</t>
+  </si>
+  <si>
+    <t>24-05-206</t>
+  </si>
+  <si>
+    <t>24-05-207</t>
+  </si>
+  <si>
+    <t>24-05-301</t>
+  </si>
+  <si>
+    <t>24-05-302</t>
+  </si>
+  <si>
+    <t>24-05-303</t>
+  </si>
+  <si>
+    <t>24-05-304</t>
+  </si>
+  <si>
+    <t>24-05-305</t>
+  </si>
+  <si>
+    <t>36-05-101</t>
+  </si>
+  <si>
+    <t>36-05-102</t>
+  </si>
+  <si>
+    <t>36-05-103</t>
+  </si>
+  <si>
+    <t>36-05-104</t>
+  </si>
+  <si>
+    <t>36-05-105</t>
+  </si>
+  <si>
+    <t>36-05-106</t>
+  </si>
+  <si>
+    <t>36-05-107</t>
+  </si>
+  <si>
+    <t>36-05-201</t>
+  </si>
+  <si>
+    <t>36-05-202</t>
+  </si>
+  <si>
+    <t>36-05-203</t>
+  </si>
+  <si>
+    <t>36-05-204</t>
+  </si>
+  <si>
+    <t>36-05-205</t>
+  </si>
+  <si>
+    <t>36-05-206</t>
+  </si>
+  <si>
+    <t>36-05-301</t>
+  </si>
+  <si>
+    <t>36-05-302</t>
+  </si>
+  <si>
+    <t>36-05-303</t>
+  </si>
+  <si>
+    <t>36-05-304</t>
+  </si>
+  <si>
+    <t>36-05-305</t>
+  </si>
+  <si>
+    <t>36-05-306</t>
+  </si>
+  <si>
+    <t>36-05-307</t>
+  </si>
+  <si>
+    <t>36-05-308</t>
+  </si>
+  <si>
+    <t>36-05-401</t>
+  </si>
+  <si>
+    <t>36-05-402</t>
+  </si>
+  <si>
+    <t>36-05-403</t>
+  </si>
+  <si>
+    <t>36-05-404</t>
+  </si>
+  <si>
+    <t>36-05-405</t>
+  </si>
+  <si>
+    <t>36-05-406</t>
+  </si>
+  <si>
+    <t>36-05-407</t>
+  </si>
+  <si>
+    <t>36-05-408</t>
+  </si>
+  <si>
+    <t>36-05-501</t>
+  </si>
+  <si>
+    <t>36-05-502</t>
+  </si>
+  <si>
+    <t>36-05-503</t>
+  </si>
+  <si>
+    <t>36-05-504</t>
+  </si>
+  <si>
+    <t>36-05-505</t>
+  </si>
+  <si>
+    <t>36-05-506</t>
+  </si>
+  <si>
+    <t>36-05-507</t>
   </si>
   <si>
     <t>FOREST 19X57</t>
@@ -4214,7 +4547,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4225,6 +4558,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -4286,7 +4625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4364,6 +4703,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4371,7 +4722,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4838,8 +5188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J223" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J223" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J282" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J282" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -4883,8 +5233,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C58" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="A1:C58" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C117" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:C117" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D54CE6D5-6B76-45A2-B172-C1221D6E1C19}" name="EAN" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{373C3AE8-423B-402A-96BE-FCD9A215BAE7}" name="descrpcion_es" dataDxfId="9"/>
@@ -4895,8 +5245,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E209" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E209" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E210" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E210" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{988177E9-8B74-4DA8-8D93-E60B539BC797}" name="EAN" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9354D9B3-F652-4D41-B841-C67C7F44B562}" name="descrpcion_es" dataDxfId="3"/>
@@ -5208,10 +5558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224:B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5268,19 +5618,19 @@
       </c>
       <c r="D2" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E2" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 09</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 1</v>
+      </c>
+      <c r="G2" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 1</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -10908,7 +11258,7 @@
       </c>
       <c r="J146" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-03103</v>
+        <v>24-03-103</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75">
@@ -12612,7 +12962,7 @@
         <v>28-02-401</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="30">
+    <row r="192" spans="1:10" ht="15.75">
       <c r="A192" s="39">
         <v>5063022606525</v>
       </c>
@@ -13759,27 +14109,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="18.75">
+    <row r="223" spans="1:10" ht="15.75">
       <c r="A223" s="33">
         <v>8435609380802</v>
       </c>
-      <c r="B223" s="46" t="s">
+      <c r="B223" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C223" s="14"/>
-      <c r="D223" s="43" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E223" s="43" t="str">
+      <c r="D223" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E223" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
         <v>RACK 13</v>
       </c>
-      <c r="F223" s="43" t="str">
+      <c r="F223" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
         <v>MODULO 1</v>
       </c>
-      <c r="G223" s="43" t="str">
+      <c r="G223" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>FILA 4</v>
       </c>
@@ -13787,13 +14137,2196 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I223" s="44" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J223" s="45" t="str">
+      <c r="I223" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J223" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>24-12-101</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15.75">
+      <c r="A224" s="8">
+        <v>5059340459837</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E224" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F224" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G224" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H224" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I224" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J224" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15.75">
+      <c r="A225" s="8">
+        <v>5059340721064</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E225" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F225" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G225" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H225" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I225" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J225" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-102</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15.75">
+      <c r="A226" s="8">
+        <v>5063022645296</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E226" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F226" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G226" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H226" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I226" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J226" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-103</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15.75">
+      <c r="A227" s="8">
+        <v>8435609345634</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E227" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F227" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G227" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H227" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I227" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J227" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15.75">
+      <c r="A228" s="8">
+        <v>8435609347652</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C228" s="14"/>
+      <c r="D228" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E228" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F228" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G228" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H228" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I228" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J228" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="15.75">
+      <c r="A229" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E229" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F229" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G229" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H229" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I229" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J229" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="15.75">
+      <c r="A230" s="8">
+        <v>8429991918248</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E230" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F230" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G230" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H230" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I230" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J230" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15.75">
+      <c r="A231" s="8">
+        <v>8429991957162</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E231" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F231" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G231" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H231" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I231" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J231" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-108</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15.75">
+      <c r="A232" s="8">
+        <v>5059340870724</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C232" s="14"/>
+      <c r="D232" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E232" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F232" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G232" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H232" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I232" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J232" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15.75">
+      <c r="A233" s="8">
+        <v>3663602678311</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C233" s="14"/>
+      <c r="D233" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E233" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F233" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G233" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H233" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I233" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J233" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-110</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="15.75">
+      <c r="A234" s="9">
+        <v>3663602678397</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E234" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F234" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G234" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H234" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I234" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J234" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15.75">
+      <c r="A235" s="8">
+        <v>5059340460246</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C235" s="14"/>
+      <c r="D235" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E235" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F235" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G235" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H235" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I235" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J235" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15.75">
+      <c r="A236" s="8">
+        <v>8435414127852</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E236" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F236" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G236" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H236" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I236" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J236" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-202</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15.75">
+      <c r="A237" s="8">
+        <v>5059340460260</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C237" s="14"/>
+      <c r="D237" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E237" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F237" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G237" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H237" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I237" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J237" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-203</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15.75">
+      <c r="A238" s="8">
+        <v>8435609378526</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C238" s="14"/>
+      <c r="D238" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E238" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F238" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G238" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H238" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I238" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J238" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-204</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15.75">
+      <c r="A239" s="8">
+        <v>8429178842496</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C239" s="14"/>
+      <c r="D239" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E239" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F239" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G239" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H239" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I239" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J239" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-205</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15.75">
+      <c r="A240" s="8">
+        <v>8435414127869</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C240" s="14"/>
+      <c r="D240" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E240" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F240" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G240" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H240" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I240" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J240" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-206</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15.75">
+      <c r="A241" s="9">
+        <v>8435609373194</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E241" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F241" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G241" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H241" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I241" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J241" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15.75">
+      <c r="A242" s="8">
+        <v>8429178398481</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E242" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F242" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G242" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H242" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I242" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J242" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-301</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15.75">
+      <c r="A243" s="8">
+        <v>8429178988972</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E243" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F243" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G243" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H243" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I243" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J243" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-302</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15.75">
+      <c r="A244" s="8">
+        <v>8435609383827</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E244" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F244" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G244" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H244" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I244" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J244" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-303</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15.75">
+      <c r="A245" s="8">
+        <v>8435414101784</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" s="14"/>
+      <c r="D245" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E245" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F245" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G245" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H245" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I245" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J245" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-304</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15.75">
+      <c r="A246" s="9">
+        <v>8435414126558</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C246" s="14"/>
+      <c r="D246" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E246" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F246" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G246" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H246" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I246" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J246" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15.75">
+      <c r="A247" s="8">
+        <v>3663602678311</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C247" s="14"/>
+      <c r="D247" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E247" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F247" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G247" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H247" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I247" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J247" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-110</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15.75">
+      <c r="A248" s="8">
+        <v>3663602679349</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C248" s="14"/>
+      <c r="D248" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E248" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F248" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G248" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H248" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I248" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J248" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-102</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15.75">
+      <c r="A249" s="8">
+        <v>8429991917562</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C249" s="14"/>
+      <c r="D249" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E249" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F249" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G249" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H249" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I249" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J249" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-103</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15.75">
+      <c r="A250" s="8">
+        <v>8429991917852</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C250" s="14"/>
+      <c r="D250" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E250" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F250" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G250" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H250" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I250" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J250" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-104</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="15.75">
+      <c r="A251" s="8">
+        <v>8429991917845</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C251" s="14"/>
+      <c r="D251" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E251" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F251" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G251" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H251" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I251" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J251" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-105</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15.75">
+      <c r="A252" s="8">
+        <v>5059340192154</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C252" s="14"/>
+      <c r="D252" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E252" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F252" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G252" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H252" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I252" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J252" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-106</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="15.75">
+      <c r="A253" s="9">
+        <v>8435414113497</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C253" s="14"/>
+      <c r="D253" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E253" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F253" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G253" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H253" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I253" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J253" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="15.75">
+      <c r="A254" s="8">
+        <v>5059340460253</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C254" s="14"/>
+      <c r="D254" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E254" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F254" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G254" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H254" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I254" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J254" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-201</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15.75">
+      <c r="A255" s="8">
+        <v>3663602676713</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C255" s="14"/>
+      <c r="D255" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E255" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F255" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G255" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H255" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I255" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J255" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-202</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15.75">
+      <c r="A256" s="8">
+        <v>8435609373194</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E256" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F256" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G256" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H256" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I256" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J256" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-207</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="15.75">
+      <c r="A257" s="8">
+        <v>8435609383810</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E257" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F257" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G257" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H257" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I257" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J257" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-204</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="15.75">
+      <c r="A258" s="8">
+        <v>8435609383827</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C258" s="14"/>
+      <c r="D258" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E258" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F258" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G258" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H258" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I258" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J258" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-303</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="15.75">
+      <c r="A259" s="9">
+        <v>8435609383834</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C259" s="14"/>
+      <c r="D259" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E259" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F259" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G259" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H259" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I259" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J259" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="15.75">
+      <c r="A260" s="8">
+        <v>5059340721019</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C260" s="14"/>
+      <c r="D260" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E260" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F260" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G260" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H260" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I260" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J260" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="15.75">
+      <c r="A261" s="8">
+        <v>5059340346304</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C261" s="14"/>
+      <c r="D261" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E261" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F261" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G261" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H261" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I261" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J261" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-302</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15.75">
+      <c r="A262" s="8">
+        <v>8429991917890</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" s="14"/>
+      <c r="D262" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E262" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F262" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G262" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H262" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I262" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J262" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15.75">
+      <c r="A263" s="8">
+        <v>3663602677420</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C263" s="14"/>
+      <c r="D263" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E263" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F263" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G263" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H263" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I263" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J263" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-304</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15.75">
+      <c r="A264" s="8">
+        <v>8435609366134</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C264" s="14"/>
+      <c r="D264" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E264" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F264" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G264" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H264" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I264" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J264" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-305</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="15.75">
+      <c r="A265" s="8">
+        <v>8429991917876</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C265" s="14"/>
+      <c r="D265" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E265" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F265" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G265" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H265" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I265" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J265" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-306</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="15.75">
+      <c r="A266" s="8">
+        <v>8429991917883</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C266" s="14"/>
+      <c r="D266" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E266" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F266" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G266" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H266" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I266" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J266" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-307</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="15.75">
+      <c r="A267" s="9">
+        <v>5059340875026</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C267" s="14"/>
+      <c r="D267" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E267" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F267" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G267" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H267" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I267" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J267" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-308</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="15.75">
+      <c r="A268" s="8">
+        <v>8435609363508</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C268" s="14"/>
+      <c r="D268" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E268" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F268" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G268" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H268" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I268" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J268" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="15.75">
+      <c r="A269" s="8">
+        <v>5063022553409</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C269" s="14"/>
+      <c r="D269" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E269" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F269" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G269" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H269" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I269" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J269" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-402</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="15.75">
+      <c r="A270" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C270" s="14"/>
+      <c r="D270" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E270" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F270" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G270" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H270" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I270" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J270" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="15.75">
+      <c r="A271" s="8">
+        <v>5063022553416</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271" s="14"/>
+      <c r="D271" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E271" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F271" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G271" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H271" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I271" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J271" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-404</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="15.75">
+      <c r="A272" s="8">
+        <v>5059340854274</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272" s="14"/>
+      <c r="D272" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E272" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F272" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G272" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H272" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I272" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J272" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-405</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="15.75">
+      <c r="A273" s="8">
+        <v>5059340854243</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E273" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F273" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G273" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H273" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I273" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J273" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-406</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="15.75">
+      <c r="A274" s="8">
+        <v>8429991918231</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E274" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F274" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G274" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H274" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I274" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J274" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="15.75">
+      <c r="A275" s="9">
+        <v>5063022655653</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275" s="14"/>
+      <c r="D275" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E275" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F275" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G275" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H275" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I275" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J275" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-408</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="15.75">
+      <c r="A276" s="46">
+        <v>5059340459929</v>
+      </c>
+      <c r="B276" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E276" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F276" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G276" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H276" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I276" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J276" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-501</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15.75">
+      <c r="A277" s="46">
+        <v>5059340854250</v>
+      </c>
+      <c r="B277" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E277" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F277" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G277" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H277" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I277" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J277" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-502</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="15.75">
+      <c r="A278" s="46">
+        <v>8435414103009</v>
+      </c>
+      <c r="B278" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E278" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F278" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G278" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H278" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I278" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J278" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-503</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15.75">
+      <c r="A279" s="46">
+        <v>8435414101784</v>
+      </c>
+      <c r="B279" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E279" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F279" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G279" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H279" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I279" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J279" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-304</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15.75">
+      <c r="A280" s="46">
+        <v>8435414126558</v>
+      </c>
+      <c r="B280" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E280" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F280" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G280" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H280" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I280" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J280" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-305</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15.75">
+      <c r="A281" s="46">
+        <v>8435609365960</v>
+      </c>
+      <c r="B281" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" s="14"/>
+      <c r="D281" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E281" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F281" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G281" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H281" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I281" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J281" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-506</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15.75">
+      <c r="A282" s="48">
+        <v>8435609365977</v>
+      </c>
+      <c r="B282" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="51" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E282" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F282" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G282" s="51" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H282" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I282" s="52" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J282" s="53" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-507</v>
       </c>
     </row>
   </sheetData>
@@ -13827,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13835,10 +16368,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13849,7 +16382,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13860,7 +16393,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13871,7 +16404,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13882,7 +16415,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13893,7 +16426,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13904,7 +16437,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13915,7 +16448,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13923,10 +16456,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13937,7 +16470,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13948,7 +16481,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13956,10 +16489,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13970,7 +16503,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13981,7 +16514,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13992,7 +16525,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14003,7 +16536,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14014,7 +16547,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14025,7 +16558,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14036,7 +16569,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14047,7 +16580,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14058,7 +16591,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14066,10 +16599,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14080,7 +16613,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14091,7 +16624,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14102,7 +16635,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14113,7 +16646,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14124,7 +16657,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14132,10 +16665,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14146,7 +16679,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14154,10 +16687,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14168,7 +16701,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14179,7 +16712,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14190,7 +16723,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14201,7 +16734,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14212,7 +16745,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14223,7 +16756,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14234,7 +16767,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14245,7 +16778,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14256,7 +16789,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -14264,10 +16797,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -14278,7 +16811,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -14289,7 +16822,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -14300,7 +16833,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14311,7 +16844,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -14322,7 +16855,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14333,7 +16866,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -14344,7 +16877,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -14355,7 +16888,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -14366,7 +16899,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -14377,7 +16910,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -14388,7 +16921,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -14399,7 +16932,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -14410,7 +16943,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14421,7 +16954,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14429,10 +16962,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -14440,10 +16973,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14451,10 +16984,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -14462,10 +16995,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -14473,10 +17006,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -14487,7 +17020,7 @@
         <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -14498,7 +17031,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -14509,7 +17042,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -14520,7 +17053,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -14531,7 +17064,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -14539,10 +17072,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -14550,10 +17083,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -14561,10 +17094,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -14575,7 +17108,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -14586,7 +17119,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14597,7 +17130,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14608,7 +17141,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -14619,7 +17152,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14630,7 +17163,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -14641,7 +17174,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -14652,7 +17185,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14663,7 +17196,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -14674,7 +17207,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -14682,10 +17215,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -14696,7 +17229,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -14707,7 +17240,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -14718,7 +17251,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -14729,7 +17262,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -14737,10 +17270,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -14748,10 +17281,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -14759,10 +17292,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -14770,10 +17303,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -14784,7 +17317,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -14795,7 +17328,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -14806,7 +17339,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -14817,7 +17350,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -14828,7 +17361,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -14839,7 +17372,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -14850,7 +17383,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14861,7 +17394,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14872,7 +17405,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -14883,7 +17416,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -14894,7 +17427,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -14905,7 +17438,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -14916,7 +17449,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -14927,7 +17460,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -14938,7 +17471,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -14949,7 +17482,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -14960,7 +17493,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -14971,7 +17504,7 @@
         <v>180</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -14982,7 +17515,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -14993,7 +17526,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -15004,7 +17537,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -15015,7 +17548,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -15026,7 +17559,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -15037,7 +17570,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -15048,7 +17581,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -15059,7 +17592,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -15070,7 +17603,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -15081,7 +17614,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -15092,7 +17625,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -15103,7 +17636,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -15114,7 +17647,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -15125,7 +17658,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -15136,7 +17669,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -15147,7 +17680,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -15158,7 +17691,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -15169,7 +17702,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -15180,7 +17713,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -15191,7 +17724,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -15202,7 +17735,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -15213,7 +17746,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -15224,7 +17757,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -15235,7 +17768,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -15246,7 +17779,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -15257,7 +17790,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -15268,7 +17801,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -15279,7 +17812,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -15290,7 +17823,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -15301,7 +17834,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -15312,7 +17845,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -15323,7 +17856,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -15334,7 +17867,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -15345,7 +17878,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -15356,7 +17889,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -15367,7 +17900,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -15378,7 +17911,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -15389,7 +17922,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -15400,7 +17933,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -15411,7 +17944,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -15422,7 +17955,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -15433,7 +17966,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -15444,7 +17977,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -15455,7 +17988,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -15469,10 +18002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24194B37-EADF-445E-ADDF-4E32977FA578}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15484,7 +18017,7 @@
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15492,35 +18025,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="8">
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="8">
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="8">
         <v>5059340460208</v>
       </c>
@@ -15528,10 +18058,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="8">
         <v>5059340781969</v>
       </c>
@@ -15539,21 +18069,21 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="8">
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="8">
         <v>5059340719542</v>
       </c>
@@ -15561,32 +18091,32 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="8">
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="8">
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="8">
         <v>5059340719559</v>
       </c>
@@ -15594,10 +18124,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="8">
         <v>5059340269535</v>
       </c>
@@ -15605,21 +18135,21 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="8">
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="8">
         <v>5036581063887</v>
       </c>
@@ -15627,95 +18157,95 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="8">
         <v>3663602848349</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="8">
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="8">
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="8">
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="8">
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="8">
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="8">
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="8">
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -15723,222 +18253,222 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="8">
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="8">
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="8">
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="8">
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="8">
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="8">
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="8">
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="8">
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="8">
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="8">
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="8">
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="8">
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="9">
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="8">
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="8">
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="8">
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="8">
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="8">
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="9">
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="9">
         <v>8435609317396</v>
       </c>
@@ -15946,10 +18476,10 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="22">
         <v>8435609378458</v>
       </c>
@@ -15957,10 +18487,10 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="9">
         <v>5059340194042</v>
       </c>
@@ -15968,10 +18498,10 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="9">
         <v>5063022085641</v>
       </c>
@@ -15979,10 +18509,10 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="9">
         <v>5063022047830</v>
       </c>
@@ -15990,10 +18520,10 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="9">
         <v>3663602997436</v>
       </c>
@@ -16001,10 +18531,10 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="9">
         <v>5063022047847</v>
       </c>
@@ -16012,10 +18542,10 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="9">
         <v>5059340391441</v>
       </c>
@@ -16023,10 +18553,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="9">
         <v>5063022611239</v>
       </c>
@@ -16034,10 +18564,10 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="9">
         <v>5059340221700</v>
       </c>
@@ -16045,10 +18575,10 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="9">
         <v>5059340969626</v>
       </c>
@@ -16056,10 +18586,10 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="9">
         <v>5059340357461</v>
       </c>
@@ -16067,10 +18597,10 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="9">
         <v>5059340969664</v>
       </c>
@@ -16078,10 +18608,10 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="9">
         <v>5059340969633</v>
       </c>
@@ -16089,10 +18619,10 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="9">
         <v>5059340357454</v>
       </c>
@@ -16100,10 +18630,10 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="9">
         <v>5059340969640</v>
       </c>
@@ -16111,10 +18641,10 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="9">
         <v>5059340969657</v>
       </c>
@@ -16122,7 +18652,656 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>492</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="8">
+        <v>5059340459837</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="8">
+        <v>5059340721064</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75">
+      <c r="A61" s="8">
+        <v>5063022645296</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75">
+      <c r="A62" s="8">
+        <v>8435609345634</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75">
+      <c r="A63" s="8">
+        <v>8435609347652</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75">
+      <c r="A64" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="8">
+        <v>8429991918248</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75">
+      <c r="A66" s="8">
+        <v>8429991957162</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75">
+      <c r="A67" s="8">
+        <v>5059340870724</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75">
+      <c r="A68" s="8">
+        <v>3663602678311</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75">
+      <c r="A69" s="9">
+        <v>3663602678397</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75">
+      <c r="A70" s="8">
+        <v>5059340460246</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75">
+      <c r="A71" s="8">
+        <v>8435414127852</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75">
+      <c r="A72" s="8">
+        <v>5059340460260</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75">
+      <c r="A73" s="8">
+        <v>8435609378526</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75">
+      <c r="A74" s="8">
+        <v>8429178842496</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75">
+      <c r="A75" s="8">
+        <v>8435414127869</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75">
+      <c r="A76" s="9">
+        <v>8435609373194</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75">
+      <c r="A77" s="8">
+        <v>8429178398481</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75">
+      <c r="A78" s="8">
+        <v>8429178988972</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75">
+      <c r="A79" s="8">
+        <v>8435609383827</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75">
+      <c r="A80" s="8">
+        <v>8435414101784</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75">
+      <c r="A81" s="9">
+        <v>8435414126558</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75">
+      <c r="A82" s="8">
+        <v>3663602678311</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75">
+      <c r="A83" s="8">
+        <v>3663602679349</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75">
+      <c r="A84" s="8">
+        <v>8429991917562</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75">
+      <c r="A85" s="8">
+        <v>8429991917852</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75">
+      <c r="A86" s="8">
+        <v>8429991917845</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75">
+      <c r="A87" s="8">
+        <v>5059340192154</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75">
+      <c r="A88" s="9">
+        <v>8435414113497</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75">
+      <c r="A89" s="8">
+        <v>5059340460253</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75">
+      <c r="A90" s="8">
+        <v>3663602676713</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75">
+      <c r="A91" s="8">
+        <v>8435609373194</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75">
+      <c r="A92" s="8">
+        <v>8435609383810</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75">
+      <c r="A93" s="8">
+        <v>8435609383827</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75">
+      <c r="A94" s="9">
+        <v>8435609383834</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75">
+      <c r="A95" s="8">
+        <v>5059340721019</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75">
+      <c r="A96" s="8">
+        <v>5059340346304</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75">
+      <c r="A97" s="8">
+        <v>8429991917890</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75">
+      <c r="A98" s="8">
+        <v>3663602677420</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75">
+      <c r="A99" s="8">
+        <v>8435609366134</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75">
+      <c r="A100" s="8">
+        <v>8429991917876</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75">
+      <c r="A101" s="8">
+        <v>8429991917883</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75">
+      <c r="A102" s="9">
+        <v>5059340875026</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75">
+      <c r="A103" s="8">
+        <v>8435609363508</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75">
+      <c r="A104" s="8">
+        <v>5063022553409</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75">
+      <c r="A105" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75">
+      <c r="A106" s="8">
+        <v>5063022553416</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75">
+      <c r="A107" s="8">
+        <v>5059340854274</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75">
+      <c r="A108" s="8">
+        <v>5059340854243</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75">
+      <c r="A109" s="8">
+        <v>8429991918231</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75">
+      <c r="A110" s="9">
+        <v>5063022655653</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75">
+      <c r="A111" s="46">
+        <v>5059340459929</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75">
+      <c r="A112" s="46">
+        <v>5059340854250</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75">
+      <c r="A113" s="46">
+        <v>8435414103009</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75">
+      <c r="A114" s="46">
+        <v>8435414101784</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75">
+      <c r="A115" s="46">
+        <v>8435414126558</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75">
+      <c r="A116" s="46">
+        <v>8435609365960</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75">
+      <c r="A117" s="48">
+        <v>8435609365977</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -16135,10 +19314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210:E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16171,16 +19350,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>493</v>
+        <v>604</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16188,16 +19367,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>497</v>
+        <v>608</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -16205,16 +19384,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16222,16 +19401,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>502</v>
+        <v>613</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16239,16 +19418,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -16256,16 +19435,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -16273,33 +19452,33 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="33">
         <v>8435609380802</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -16307,16 +19486,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -16324,16 +19503,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>509</v>
+        <v>620</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -16341,16 +19520,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>510</v>
+        <v>621</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16358,16 +19537,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16375,16 +19554,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -16392,16 +19571,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -16409,16 +19588,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -16426,16 +19605,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -16443,16 +19622,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -16460,16 +19639,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16477,16 +19656,16 @@
         <v>8435414109278</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -16494,16 +19673,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -16511,16 +19690,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>520</v>
+        <v>631</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16528,16 +19707,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>522</v>
+        <v>633</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -16545,16 +19724,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>523</v>
+        <v>634</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -16562,16 +19741,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>524</v>
+        <v>635</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -16579,16 +19758,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -16596,16 +19775,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>526</v>
+        <v>637</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -16613,16 +19792,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>527</v>
+        <v>638</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -16630,16 +19809,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -16647,16 +19826,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>529</v>
+        <v>640</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -16667,13 +19846,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -16681,16 +19860,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>530</v>
+        <v>641</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -16698,16 +19877,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -16715,16 +19894,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>532</v>
+        <v>643</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -16732,16 +19911,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -16749,16 +19928,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>535</v>
+        <v>646</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -16766,16 +19945,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -16783,16 +19962,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>537</v>
+        <v>648</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -16800,16 +19979,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>538</v>
+        <v>649</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -16817,16 +19996,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>539</v>
+        <v>650</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -16834,16 +20013,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>540</v>
+        <v>651</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -16851,16 +20030,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -16868,16 +20047,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>543</v>
+        <v>654</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -16885,16 +20064,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -16902,16 +20081,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>545</v>
+        <v>656</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -16919,16 +20098,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>546</v>
+        <v>657</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -16936,16 +20115,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>547</v>
+        <v>658</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -16953,16 +20132,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>548</v>
+        <v>659</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -16970,16 +20149,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -16987,16 +20166,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>550</v>
+        <v>661</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -17004,16 +20183,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -17021,16 +20200,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>552</v>
+        <v>663</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -17038,16 +20217,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -17055,16 +20234,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>554</v>
+        <v>665</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -17072,16 +20251,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -17089,16 +20268,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -17106,16 +20285,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>557</v>
+        <v>668</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -17123,16 +20302,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>558</v>
+        <v>669</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -17140,16 +20319,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>559</v>
+        <v>670</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -17157,16 +20336,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>560</v>
+        <v>671</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -17174,16 +20353,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>561</v>
+        <v>672</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -17194,13 +20373,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -17208,16 +20387,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>562</v>
+        <v>673</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -17225,16 +20404,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -17242,16 +20421,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>563</v>
+        <v>674</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -17259,16 +20438,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>564</v>
+        <v>675</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -17276,16 +20455,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>565</v>
+        <v>676</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -17293,16 +20472,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>566</v>
+        <v>677</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -17310,16 +20489,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>567</v>
+        <v>678</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -17327,16 +20506,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>568</v>
+        <v>679</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -17344,16 +20523,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -17361,16 +20540,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>570</v>
+        <v>681</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -17381,13 +20560,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -17395,16 +20574,16 @@
         <v>3663602848349</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>571</v>
+        <v>682</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -17415,13 +20594,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -17432,13 +20611,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -17446,16 +20625,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>573</v>
+        <v>684</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -17463,16 +20642,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>574</v>
+        <v>685</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -17480,16 +20659,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>575</v>
+        <v>686</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -17497,16 +20676,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>576</v>
+        <v>687</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -17517,13 +20696,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -17531,16 +20710,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>577</v>
+        <v>688</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -17548,16 +20727,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -17565,16 +20744,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>579</v>
+        <v>690</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -17582,16 +20761,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -17599,16 +20778,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>581</v>
+        <v>692</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -17616,16 +20795,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>582</v>
+        <v>693</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -17633,16 +20812,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -17650,16 +20829,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>584</v>
+        <v>695</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -17667,16 +20846,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>585</v>
+        <v>696</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -17684,16 +20863,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -17701,16 +20880,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>587</v>
+        <v>698</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -17718,16 +20897,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>588</v>
+        <v>699</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -17735,16 +20914,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>589</v>
+        <v>700</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -17752,16 +20931,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>590</v>
+        <v>701</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -17769,16 +20948,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>591</v>
+        <v>702</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -17786,16 +20965,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>592</v>
+        <v>703</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -17806,13 +20985,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -17823,13 +21002,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -17840,13 +21019,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -17857,13 +21036,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -17871,16 +21050,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>593</v>
+        <v>704</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -17888,16 +21067,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>594</v>
+        <v>705</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -17905,16 +21084,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>595</v>
+        <v>706</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -17922,16 +21101,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -17939,16 +21118,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -17956,16 +21135,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>598</v>
+        <v>709</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -17973,16 +21152,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>599</v>
+        <v>710</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -17990,16 +21169,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -18007,16 +21186,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>601</v>
+        <v>712</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -18024,16 +21203,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>602</v>
+        <v>713</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -18041,16 +21220,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>603</v>
+        <v>714</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -18058,16 +21237,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>604</v>
+        <v>715</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -18075,16 +21254,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>605</v>
+        <v>716</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -18092,16 +21271,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>606</v>
+        <v>717</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -18112,13 +21291,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -18129,13 +21308,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -18146,13 +21325,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -18163,13 +21342,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -18177,16 +21356,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="E120" s="25" t="s">
         <v>607</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -18194,16 +21373,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>609</v>
+        <v>720</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -18211,16 +21390,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>610</v>
+        <v>721</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -18228,16 +21407,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -18248,13 +21427,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -18265,13 +21444,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -18282,13 +21461,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -18299,13 +21478,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -18313,16 +21492,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>612</v>
+        <v>723</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -18330,16 +21509,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>613</v>
+        <v>724</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -18347,16 +21526,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>614</v>
+        <v>725</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -18367,13 +21546,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -18381,16 +21560,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>615</v>
+        <v>726</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -18401,13 +21580,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -18418,13 +21597,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -18432,16 +21611,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -18452,13 +21631,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -18466,16 +21645,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>616</v>
+        <v>727</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -18483,16 +21662,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>617</v>
+        <v>728</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -18500,16 +21679,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>618</v>
+        <v>729</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -18517,16 +21696,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="E140" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -18534,16 +21713,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>620</v>
+        <v>731</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -18554,13 +21733,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -18568,16 +21747,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>621</v>
+        <v>732</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -18585,16 +21764,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -18602,16 +21781,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -18619,16 +21798,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -18636,16 +21815,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>624</v>
+        <v>735</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -18653,16 +21832,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -18670,16 +21849,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -18690,13 +21869,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -18707,13 +21886,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -18724,13 +21903,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -18738,16 +21917,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>626</v>
+        <v>737</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -18755,16 +21934,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -18772,16 +21951,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>627</v>
+        <v>738</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -18789,16 +21968,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>628</v>
+        <v>739</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -18806,16 +21985,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>629</v>
+        <v>740</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -18823,16 +22002,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>630</v>
+        <v>741</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -18840,16 +22019,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>631</v>
+        <v>742</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -18857,16 +22036,16 @@
         <v>5059340221700</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>632</v>
+        <v>743</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -18874,16 +22053,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>634</v>
+        <v>745</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -18894,13 +22073,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -18908,16 +22087,16 @@
         <v>5059340357454</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>635</v>
+        <v>746</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -18925,16 +22104,16 @@
         <v>5059340357461</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>636</v>
+        <v>747</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -18945,13 +22124,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -18962,13 +22141,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -18979,13 +22158,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -18996,13 +22175,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -19013,13 +22192,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -19030,13 +22209,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -19047,13 +22226,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -19064,13 +22243,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -19081,13 +22260,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -19095,16 +22274,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>637</v>
+        <v>748</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -19112,16 +22291,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>638</v>
+        <v>749</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -19129,16 +22308,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -19146,16 +22325,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>640</v>
+        <v>751</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -19163,16 +22342,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>641</v>
+        <v>752</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -19183,13 +22362,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -19200,13 +22379,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -19217,13 +22396,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -19231,16 +22410,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>642</v>
+        <v>753</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -19251,13 +22430,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -19265,16 +22444,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>644</v>
+        <v>755</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -19282,16 +22461,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>645</v>
+        <v>756</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -19302,13 +22481,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -19316,16 +22495,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>646</v>
+        <v>757</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19336,13 +22515,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -19350,16 +22529,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>647</v>
+        <v>758</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -19367,16 +22546,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>648</v>
+        <v>759</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -19387,13 +22566,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -19404,13 +22583,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -19421,13 +22600,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -19438,13 +22617,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -19455,13 +22634,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -19472,13 +22651,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -19486,16 +22665,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>649</v>
+        <v>760</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -19503,16 +22682,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>650</v>
+        <v>761</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -19523,13 +22702,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -19537,16 +22716,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>651</v>
+        <v>762</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -19554,16 +22733,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>652</v>
+        <v>763</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -19571,16 +22750,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>653</v>
+        <v>764</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -19591,13 +22770,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -19608,13 +22787,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -19625,13 +22804,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -19639,16 +22818,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>654</v>
+        <v>765</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -19659,16 +22838,16 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="24">
         <v>5063022034496</v>
       </c>
@@ -19676,16 +22855,16 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="26">
         <v>5059340719597</v>
       </c>
@@ -19693,13 +22872,30 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>508</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75">
+      <c r="A210" s="44">
+        <v>5059340460222</v>
+      </c>
+      <c r="B210" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D210" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="E210" s="45" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B42B04C-BCA3-4B69-8FA6-4D91235076C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{134AFF1C-03DD-48AD-9416-54B8A0D536ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="753">
   <si>
     <t>EAN</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>RODAPIE COTTO TERRACOTA 7.5X30</t>
   </si>
   <si>
-    <t>ROAPIE DAMIAN 7.45X45 GRIS</t>
+    <t>RODAPIE DAMIAN 7.45X45 GRIS</t>
   </si>
   <si>
     <t>RODAPIE CIMENTI GREY 8X60 1UND</t>
@@ -1072,130 +1072,130 @@
     <t>RODAPIE LIMO 7.5X45 5UND</t>
   </si>
   <si>
+    <t>RODAPIE NATURAL ANTRACITA 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE BARSAN 10X60 GRIS (6u)</t>
+  </si>
+  <si>
+    <t>RODAPIE UCLES GRIS 8X45 5UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE MADINE 8X45</t>
+  </si>
+  <si>
+    <t>RODAPIE CONCORDE NATURAL MATE 7.5X60-6 UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE AMAGA BEIGE MATE 8X60 4PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE UCLES NATURAL 8X45 5UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE COLTON HAYA MATE 7,3X60 6PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE CARTAGO HAYA 8X60 4 UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CARTAGO MIEL 8X60 4 UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA CAOBA MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
     <t>RODAPIE NATURAL BLANCO 8X60</t>
   </si>
   <si>
-    <t>RODAPIE NATURAL ANTRACITA 8X60</t>
-  </si>
-  <si>
-    <t>RODAPIE BARSAN 10X60 GRIS (6u)</t>
-  </si>
-  <si>
-    <t>RODAPIE UCLES GRIS 8X45 5UDS</t>
-  </si>
-  <si>
-    <t>RODAPIE MADINE 8X45</t>
-  </si>
-  <si>
-    <t>RODAPIECONCORDE NATURAL MATE 7.5X60-6 UDS</t>
-  </si>
-  <si>
-    <t>RODAPIE AMAGA BEIGE MATE 8X60 4PZ</t>
-  </si>
-  <si>
-    <t>RODAPIE UCLES NATURAL 8X45 5UDS</t>
-  </si>
-  <si>
-    <t>RODAPIE COLTON HAYA MATE 7,3X60 6PZ</t>
-  </si>
-  <si>
-    <t>RODAPIE CARTAGO HAYA 8X60 4 UND</t>
-  </si>
-  <si>
-    <t>RODAPIE CARTAGO MIEL 8X60 4 UND</t>
-  </si>
-  <si>
-    <t>RODAPIE SELVA CAOBA MATE 7,5X60-6UDS</t>
+    <t>RODAPIE NORWEGIO GRIS 7,5X30</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ GRIS 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ ROBLE 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ZARAUTZ BLANCO 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CLIZI GRIS 8X60 1UND</t>
+  </si>
+  <si>
+    <t>RODAPIE MONACO 8X45 (5UDS)</t>
+  </si>
+  <si>
+    <t>RODAPIE FABRE 8X60 MARRON (6u)</t>
+  </si>
+  <si>
+    <t>RODAPIE WOODPROJECT 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA HAYA MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE SELVA GRIS MATE 7,5X60-6UDS</t>
+  </si>
+  <si>
+    <t>RODAPIE DAMIAN 7.45X45 BEIGE</t>
+  </si>
+  <si>
+    <t>RODAPIE PLAIN WHITE 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN MUD 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE STRUCTURED BG 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE ASSEN GREY MATE 7.5X45 6UD</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN GRIS 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE PANTIN MARENGO 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE ENORA ANTRACITA 9X60.8 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE CHELSEA CORAL 7.5X45 4 PZ</t>
+  </si>
+  <si>
+    <t>RODAPIE BELINDA BEIGE 7,5X45 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE TRAVERTINA LIGHT BEIGE 8X45 6UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SHADED SLATE 8X60 BEIGE</t>
+  </si>
+  <si>
+    <t>RODAPIE SHADED SLATE 8X60 GRIS</t>
+  </si>
+  <si>
+    <t>RODAPIE NEW PORT SILVER 8X60 4UND</t>
+  </si>
+  <si>
+    <t>RODAPIE HARIS 8X60</t>
+  </si>
+  <si>
+    <t>RODAPIE HARIAS ANTRACITA 7.5X45 1UND</t>
+  </si>
+  <si>
+    <t>RODAPIE SHADED SLATE 8X60 ANTRACITA</t>
+  </si>
+  <si>
+    <t>RODAPIE ASPEN BEIGE 7,5 X60 5PZ</t>
   </si>
   <si>
     <t>RODAPIE ASPEN TIERRA 7,5X60 5U</t>
   </si>
   <si>
     <t>RODAPIE ASPEN BLUE 7,5X60 5UND</t>
-  </si>
-  <si>
-    <t>RODAPIE NORWEGIO GRIS 7,5X30</t>
-  </si>
-  <si>
-    <t>RODAPIE ZARAUTZ GRIS 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE ZARAUTZ ROBLE 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE ZARAUTZ BLANCO 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE CLIZI GRIS 8X60 1UND</t>
-  </si>
-  <si>
-    <t>RODAPIE MONACO 8X45 (5UDS)</t>
-  </si>
-  <si>
-    <t>RODAPIE FABRE 8X60 MARRON (6u)</t>
-  </si>
-  <si>
-    <t>RODAPIE WOODPROJECT 8X60</t>
-  </si>
-  <si>
-    <t>RODAPIE SELVA HAYA MATE 7,5X60-6UDS</t>
-  </si>
-  <si>
-    <t>RODAPIE SELVA GRIS MATE 7,5X60-6UDS</t>
-  </si>
-  <si>
-    <t>RODAPIE DAMIAN 7.45X45 BEIGE</t>
-  </si>
-  <si>
-    <t>RODAPIE PLAIN WHITE 8X60</t>
-  </si>
-  <si>
-    <t>RODAPIE PANTIN MUD 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE STRUCTURED BG 8X60</t>
-  </si>
-  <si>
-    <t>RODAPIE ASSEN GREY MATE 7.5X45 6UD</t>
-  </si>
-  <si>
-    <t>RODAPIE PANTIN GRIS 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE PANTIN MARENGO 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE ENORA ANTRACITA 9X60.8 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE CHELSEA CORAL 7.5X45 4 PZ</t>
-  </si>
-  <si>
-    <t>RODAPIE BELINDA BEIGE 7,5X45 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE TRAVERTINA LIGHT BEIGE 8X45 6UND</t>
-  </si>
-  <si>
-    <t>ROD SHADED SLATE 8X60 BEIGE</t>
-  </si>
-  <si>
-    <t>ROD SHADED SLATE 8X60 GRIS</t>
-  </si>
-  <si>
-    <t>RODAPIE NEW PORT SILVER 8X60 4UND</t>
-  </si>
-  <si>
-    <t>RODAPIE HARIS 8X60</t>
-  </si>
-  <si>
-    <t>RODAPIE HARIAS ANTRACITA 7.5X45 1UND</t>
-  </si>
-  <si>
-    <t>RODAPIE SHADED SLATE 8X60 ANTRACITA</t>
-  </si>
-  <si>
-    <t>RODAPIE ASPEN BEIGE 7,5 X60 5PZ</t>
   </si>
   <si>
     <t>RODAPIE ARAS TERRA 8X33 4 U</t>
@@ -3750,181 +3750,142 @@
     <t>22-15-103</t>
   </si>
   <si>
-    <t>24-05-101</t>
-  </si>
-  <si>
-    <t>24-05-102</t>
-  </si>
-  <si>
-    <t>24-05-103</t>
-  </si>
-  <si>
-    <t>24-05-104</t>
-  </si>
-  <si>
-    <t>24-05-105</t>
-  </si>
-  <si>
-    <t>24-05-106</t>
-  </si>
-  <si>
-    <t>24-05-107</t>
-  </si>
-  <si>
-    <t>24-05-108</t>
-  </si>
-  <si>
-    <t>24-05-109</t>
-  </si>
-  <si>
-    <t>24-05-110</t>
-  </si>
-  <si>
-    <t>24-05-111</t>
-  </si>
-  <si>
-    <t>24-05-201</t>
-  </si>
-  <si>
-    <t>24-05-202</t>
-  </si>
-  <si>
-    <t>24-05-203</t>
-  </si>
-  <si>
-    <t>24-05-204</t>
-  </si>
-  <si>
-    <t>24-05-205</t>
-  </si>
-  <si>
-    <t>24-05-206</t>
-  </si>
-  <si>
-    <t>24-05-207</t>
-  </si>
-  <si>
-    <t>24-05-301</t>
-  </si>
-  <si>
-    <t>24-05-302</t>
-  </si>
-  <si>
-    <t>24-05-303</t>
-  </si>
-  <si>
-    <t>24-05-304</t>
-  </si>
-  <si>
-    <t>24-05-305</t>
-  </si>
-  <si>
-    <t>36-05-101</t>
-  </si>
-  <si>
-    <t>36-05-102</t>
-  </si>
-  <si>
-    <t>36-05-103</t>
-  </si>
-  <si>
-    <t>36-05-104</t>
-  </si>
-  <si>
-    <t>36-05-105</t>
-  </si>
-  <si>
-    <t>36-05-106</t>
-  </si>
-  <si>
-    <t>36-05-107</t>
-  </si>
-  <si>
-    <t>36-05-201</t>
-  </si>
-  <si>
-    <t>36-05-202</t>
-  </si>
-  <si>
-    <t>36-05-203</t>
-  </si>
-  <si>
-    <t>36-05-204</t>
-  </si>
-  <si>
-    <t>36-05-205</t>
-  </si>
-  <si>
-    <t>36-05-206</t>
-  </si>
-  <si>
-    <t>36-05-301</t>
-  </si>
-  <si>
-    <t>36-05-302</t>
-  </si>
-  <si>
-    <t>36-05-303</t>
-  </si>
-  <si>
-    <t>36-05-304</t>
-  </si>
-  <si>
-    <t>36-05-305</t>
-  </si>
-  <si>
-    <t>36-05-306</t>
-  </si>
-  <si>
-    <t>36-05-307</t>
-  </si>
-  <si>
-    <t>36-05-308</t>
-  </si>
-  <si>
-    <t>36-05-401</t>
-  </si>
-  <si>
-    <t>36-05-402</t>
-  </si>
-  <si>
-    <t>36-05-403</t>
-  </si>
-  <si>
-    <t>36-05-404</t>
-  </si>
-  <si>
-    <t>36-05-405</t>
-  </si>
-  <si>
-    <t>36-05-406</t>
-  </si>
-  <si>
-    <t>36-05-407</t>
-  </si>
-  <si>
-    <t>36-05-408</t>
-  </si>
-  <si>
-    <t>36-05-501</t>
-  </si>
-  <si>
-    <t>36-05-502</t>
-  </si>
-  <si>
-    <t>36-05-503</t>
-  </si>
-  <si>
-    <t>36-05-504</t>
-  </si>
-  <si>
-    <t>36-05-505</t>
-  </si>
-  <si>
-    <t>36-05-506</t>
-  </si>
-  <si>
-    <t>36-05-507</t>
+    <t>24-05-204 (11)</t>
+  </si>
+  <si>
+    <t>24-05-302 (15)</t>
+  </si>
+  <si>
+    <t>24-05-303 (16)</t>
+  </si>
+  <si>
+    <t>24-05-205 (12)</t>
+  </si>
+  <si>
+    <t>24-05-206 (13)</t>
+  </si>
+  <si>
+    <t>24-05-301 (14)</t>
+  </si>
+  <si>
+    <t>24-05-304 (17)</t>
+  </si>
+  <si>
+    <t>24-05-305 (18)</t>
+  </si>
+  <si>
+    <t>24-05-306 (19)</t>
+  </si>
+  <si>
+    <t>24-05-101 (1)</t>
+  </si>
+  <si>
+    <t>24-05-102 (2)</t>
+  </si>
+  <si>
+    <t>24-05-203 (10)</t>
+  </si>
+  <si>
+    <t>24-05-201 (8)</t>
+  </si>
+  <si>
+    <t>24-05-104 (4)</t>
+  </si>
+  <si>
+    <t>24-05-106 (6)</t>
+  </si>
+  <si>
+    <t>24-05-105 (5)</t>
+  </si>
+  <si>
+    <t>36-05-502 (48)</t>
+  </si>
+  <si>
+    <t>24-05-103 (3)</t>
+  </si>
+  <si>
+    <t>36-05-307 (40)</t>
+  </si>
+  <si>
+    <t>36-05-306 (39)</t>
+  </si>
+  <si>
+    <t>36-05-303 (36)</t>
+  </si>
+  <si>
+    <t>36-05-302 (35)</t>
+  </si>
+  <si>
+    <t>36-05-301 (34)</t>
+  </si>
+  <si>
+    <t>36-05-304 (37)</t>
+  </si>
+  <si>
+    <t>36-05-102 (22)</t>
+  </si>
+  <si>
+    <t>36-05-107 (27)</t>
+  </si>
+  <si>
+    <t>36-05-105 (25)</t>
+  </si>
+  <si>
+    <t>36-05-101 (21)</t>
+  </si>
+  <si>
+    <t>36-05-106 (26)</t>
+  </si>
+  <si>
+    <t>36-05-103 (23)</t>
+  </si>
+  <si>
+    <t>36-05-104 (24)</t>
+  </si>
+  <si>
+    <t>36-05-201 (28)</t>
+  </si>
+  <si>
+    <t>36-05-204 (31)</t>
+  </si>
+  <si>
+    <t>36-05-202 (29)</t>
+  </si>
+  <si>
+    <t>36-05-203 (30)</t>
+  </si>
+  <si>
+    <t>36-05-405 (45)</t>
+  </si>
+  <si>
+    <t>36-05-506 (52)</t>
+  </si>
+  <si>
+    <t>36-05-504 (50)</t>
+  </si>
+  <si>
+    <t>36-05-401 (41)</t>
+  </si>
+  <si>
+    <t>36-05-503 (49)</t>
+  </si>
+  <si>
+    <t>36-05-505 (51)</t>
+  </si>
+  <si>
+    <t>36-05-402 (42)</t>
+  </si>
+  <si>
+    <t>36-05-403 (43)</t>
+  </si>
+  <si>
+    <t>36-05-404 (44)</t>
+  </si>
+  <si>
+    <t>36-05-406 (46)</t>
+  </si>
+  <si>
+    <t>36-05-501 (47)</t>
   </si>
   <si>
     <t>FOREST 19X57</t>
@@ -4625,7 +4586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4710,18 +4671,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5188,8 +5137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J282" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J282" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J279" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J279" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5233,8 +5182,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C117" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="A1:C117" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C114" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:C114" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*RODAPIE*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D54CE6D5-6B76-45A2-B172-C1221D6E1C19}" name="EAN" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{373C3AE8-423B-402A-96BE-FCD9A215BAE7}" name="descrpcion_es" dataDxfId="9"/>
@@ -5558,10 +5513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224:B282"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233:XFD233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5572,6 +5527,7 @@
     <col min="4" max="7" width="22.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -14154,19 +14110,19 @@
         <v>232</v>
       </c>
       <c r="C224" s="14"/>
-      <c r="D224" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E224" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F224" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G224" s="51" t="e">
+      <c r="D224" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E224" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F224" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G224" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14174,13 +14130,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I224" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J224" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-101</v>
+      <c r="I224" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J224" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-204 (11)</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15.75">
@@ -14191,19 +14147,19 @@
         <v>233</v>
       </c>
       <c r="C225" s="14"/>
-      <c r="D225" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E225" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F225" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G225" s="51" t="e">
+      <c r="D225" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E225" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F225" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G225" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14211,13 +14167,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I225" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J225" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-102</v>
+      <c r="I225" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J225" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-302 (15)</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="15.75">
@@ -14228,19 +14184,19 @@
         <v>234</v>
       </c>
       <c r="C226" s="14"/>
-      <c r="D226" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E226" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F226" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G226" s="51" t="e">
+      <c r="D226" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E226" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F226" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G226" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14248,13 +14204,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I226" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J226" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-103</v>
+      <c r="I226" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J226" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-303 (16)</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="15.75">
@@ -14265,19 +14221,19 @@
         <v>235</v>
       </c>
       <c r="C227" s="14"/>
-      <c r="D227" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E227" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F227" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G227" s="51" t="e">
+      <c r="D227" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E227" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F227" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G227" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14285,13 +14241,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I227" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J227" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-104</v>
+      <c r="I227" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J227" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-205 (12)</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="15.75">
@@ -14302,19 +14258,19 @@
         <v>236</v>
       </c>
       <c r="C228" s="14"/>
-      <c r="D228" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E228" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F228" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G228" s="51" t="e">
+      <c r="D228" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E228" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F228" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G228" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14322,13 +14278,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I228" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J228" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-105</v>
+      <c r="I228" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J228" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-206 (13)</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15.75">
@@ -14339,19 +14295,19 @@
         <v>237</v>
       </c>
       <c r="C229" s="14"/>
-      <c r="D229" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E229" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F229" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G229" s="51" t="e">
+      <c r="D229" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E229" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F229" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G229" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14359,13 +14315,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I229" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J229" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-106</v>
+      <c r="I229" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J229" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15.75">
@@ -14376,19 +14332,19 @@
         <v>238</v>
       </c>
       <c r="C230" s="14"/>
-      <c r="D230" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E230" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F230" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G230" s="51" t="e">
+      <c r="D230" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E230" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F230" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G230" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14396,13 +14352,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I230" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J230" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-107</v>
+      <c r="I230" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J230" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-301 (14)</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15.75">
@@ -14413,19 +14369,19 @@
         <v>239</v>
       </c>
       <c r="C231" s="14"/>
-      <c r="D231" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E231" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F231" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G231" s="51" t="e">
+      <c r="D231" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E231" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F231" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G231" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14433,13 +14389,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I231" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J231" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-108</v>
+      <c r="I231" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J231" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-304 (17)</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="15.75">
@@ -14450,19 +14406,19 @@
         <v>240</v>
       </c>
       <c r="C232" s="14"/>
-      <c r="D232" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E232" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F232" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G232" s="51" t="e">
+      <c r="D232" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E232" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F232" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G232" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14470,36 +14426,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I232" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J232" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-109</v>
+      <c r="I232" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J232" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-305 (18)</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15.75">
-      <c r="A233" s="8">
-        <v>3663602678311</v>
-      </c>
-      <c r="B233" s="7" t="s">
+      <c r="A233" s="9">
+        <v>3663602678397</v>
+      </c>
+      <c r="B233" s="10" t="s">
         <v>241</v>
       </c>
       <c r="C233" s="14"/>
-      <c r="D233" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E233" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F233" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G233" s="51" t="e">
+      <c r="D233" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E233" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F233" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G233" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14507,36 +14463,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I233" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J233" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-110</v>
+      <c r="I233" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J233" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-306 (19)</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15.75">
-      <c r="A234" s="9">
-        <v>3663602678397</v>
-      </c>
-      <c r="B234" s="10" t="s">
+      <c r="A234" s="8">
+        <v>5059340460246</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C234" s="14"/>
-      <c r="D234" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E234" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F234" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G234" s="51" t="e">
+      <c r="D234" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E234" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F234" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G234" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14544,36 +14500,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I234" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J234" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-111</v>
+      <c r="I234" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J234" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-101 (1)</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15.75">
       <c r="A235" s="8">
-        <v>5059340460246</v>
+        <v>8435414127852</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C235" s="14"/>
-      <c r="D235" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E235" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F235" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G235" s="51" t="e">
+      <c r="D235" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E235" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F235" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G235" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14581,36 +14537,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I235" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J235" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-201</v>
+      <c r="I235" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J235" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-102 (2)</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15.75">
       <c r="A236" s="8">
-        <v>8435414127852</v>
+        <v>5059340460260</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C236" s="14"/>
-      <c r="D236" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E236" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F236" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G236" s="51" t="e">
+      <c r="D236" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E236" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F236" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G236" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14618,36 +14574,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I236" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J236" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-202</v>
+      <c r="I236" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J236" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-203 (10)</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15.75">
       <c r="A237" s="8">
-        <v>5059340460260</v>
+        <v>8435609378526</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>245</v>
       </c>
       <c r="C237" s="14"/>
-      <c r="D237" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E237" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F237" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G237" s="51" t="e">
+      <c r="D237" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E237" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F237" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G237" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14655,36 +14611,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I237" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J237" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-203</v>
+      <c r="I237" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J237" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15.75">
       <c r="A238" s="8">
-        <v>8435609378526</v>
+        <v>8429178842496</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C238" s="14"/>
-      <c r="D238" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E238" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F238" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G238" s="51" t="e">
+      <c r="D238" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E238" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F238" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G238" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14692,36 +14648,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I238" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J238" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-204</v>
+      <c r="I238" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J238" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-201 (8)</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15.75">
       <c r="A239" s="8">
-        <v>8429178842496</v>
+        <v>8435414127869</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>247</v>
       </c>
       <c r="C239" s="14"/>
-      <c r="D239" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E239" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F239" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G239" s="51" t="e">
+      <c r="D239" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E239" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F239" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G239" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14729,36 +14685,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I239" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J239" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-205</v>
+      <c r="I239" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J239" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-104 (4)</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15.75">
-      <c r="A240" s="8">
-        <v>8435414127869</v>
-      </c>
-      <c r="B240" s="7" t="s">
+      <c r="A240" s="9">
+        <v>8435609373194</v>
+      </c>
+      <c r="B240" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C240" s="14"/>
-      <c r="D240" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E240" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F240" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G240" s="51" t="e">
+      <c r="D240" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E240" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F240" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G240" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14766,36 +14722,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I240" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J240" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-206</v>
+      <c r="I240" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J240" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15.75">
-      <c r="A241" s="9">
-        <v>8435609373194</v>
-      </c>
-      <c r="B241" s="10" t="s">
+      <c r="A241" s="8">
+        <v>8429178398481</v>
+      </c>
+      <c r="B241" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C241" s="14"/>
-      <c r="D241" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E241" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F241" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G241" s="51" t="e">
+      <c r="D241" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E241" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F241" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G241" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14803,36 +14759,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I241" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J241" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-207</v>
+      <c r="I241" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J241" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-106 (6)</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15.75">
       <c r="A242" s="8">
-        <v>8429178398481</v>
+        <v>8429178988972</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C242" s="14"/>
-      <c r="D242" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E242" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F242" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G242" s="51" t="e">
+      <c r="D242" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E242" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F242" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G242" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14840,36 +14796,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I242" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J242" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-301</v>
+      <c r="I242" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J242" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-105 (5)</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="15.75">
       <c r="A243" s="8">
-        <v>8429178988972</v>
+        <v>8435609383827</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C243" s="14"/>
-      <c r="D243" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E243" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F243" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G243" s="51" t="e">
+      <c r="D243" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E243" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F243" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G243" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14877,36 +14833,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I243" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J243" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-302</v>
+      <c r="I243" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J243" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15.75">
       <c r="A244" s="8">
-        <v>8435609383827</v>
+        <v>3663602678311</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C244" s="14"/>
-      <c r="D244" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E244" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F244" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G244" s="51" t="e">
+      <c r="D244" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E244" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F244" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G244" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14914,36 +14870,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I244" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J244" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-303</v>
+      <c r="I244" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J244" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-502 (48)</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15.75">
       <c r="A245" s="8">
-        <v>8435414101784</v>
+        <v>3663602679349</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C245" s="14"/>
-      <c r="D245" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E245" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F245" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G245" s="51" t="e">
+      <c r="D245" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E245" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F245" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G245" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14951,36 +14907,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I245" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J245" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-304</v>
+      <c r="I245" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J245" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-103 (3)</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="15.75">
-      <c r="A246" s="9">
-        <v>8435414126558</v>
-      </c>
-      <c r="B246" s="10" t="s">
+      <c r="A246" s="8">
+        <v>8429991917562</v>
+      </c>
+      <c r="B246" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C246" s="14"/>
-      <c r="D246" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E246" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F246" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G246" s="51" t="e">
+      <c r="D246" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E246" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F246" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G246" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14988,36 +14944,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I246" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J246" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-305</v>
+      <c r="I246" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J246" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.75">
       <c r="A247" s="8">
-        <v>3663602678311</v>
+        <v>8429991917852</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C247" s="14"/>
-      <c r="D247" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E247" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F247" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G247" s="51" t="e">
+      <c r="D247" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E247" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F247" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G247" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15025,36 +14981,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I247" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J247" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-110</v>
+      <c r="I247" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J247" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-307 (40)</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15.75">
       <c r="A248" s="8">
-        <v>3663602679349</v>
+        <v>8429991917845</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C248" s="14"/>
-      <c r="D248" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E248" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F248" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G248" s="51" t="e">
+      <c r="D248" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E248" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F248" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G248" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15062,36 +15018,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I248" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J248" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-102</v>
+      <c r="I248" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J248" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-306 (39)</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15.75">
       <c r="A249" s="8">
-        <v>8429991917562</v>
+        <v>5059340192154</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C249" s="14"/>
-      <c r="D249" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E249" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F249" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G249" s="51" t="e">
+      <c r="D249" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E249" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F249" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G249" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15099,36 +15055,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I249" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J249" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-103</v>
+      <c r="I249" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J249" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15.75">
-      <c r="A250" s="8">
-        <v>8429991917852</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>257</v>
+      <c r="A250" s="9">
+        <v>8435414113497</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="C250" s="14"/>
-      <c r="D250" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E250" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F250" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G250" s="51" t="e">
+      <c r="D250" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E250" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F250" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G250" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15136,36 +15092,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I250" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J250" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-104</v>
+      <c r="I250" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J250" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-303 (36)</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="15.75">
       <c r="A251" s="8">
-        <v>8429991917845</v>
+        <v>5059340460253</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C251" s="14"/>
-      <c r="D251" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E251" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F251" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G251" s="51" t="e">
+      <c r="D251" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E251" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F251" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G251" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15173,36 +15129,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I251" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J251" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-105</v>
+      <c r="I251" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J251" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-302 (35)</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15.75">
       <c r="A252" s="8">
-        <v>5059340192154</v>
+        <v>3663602676713</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C252" s="14"/>
-      <c r="D252" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E252" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F252" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G252" s="51" t="e">
+      <c r="D252" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E252" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F252" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G252" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15210,36 +15166,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I252" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J252" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-106</v>
+      <c r="I252" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J252" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-301 (34)</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="15.75">
-      <c r="A253" s="9">
-        <v>8435414113497</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>260</v>
+      <c r="A253" s="8">
+        <v>8435609373194</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="C253" s="14"/>
-      <c r="D253" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E253" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F253" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G253" s="51" t="e">
+      <c r="D253" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E253" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F253" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G253" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15247,36 +15203,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I253" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J253" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-107</v>
+      <c r="I253" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J253" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15.75">
       <c r="A254" s="8">
-        <v>5059340460253</v>
+        <v>8435609383810</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>261</v>
       </c>
       <c r="C254" s="14"/>
-      <c r="D254" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E254" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F254" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G254" s="51" t="e">
+      <c r="D254" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E254" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F254" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G254" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15284,73 +15240,73 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I254" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J254" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-201</v>
+      <c r="I254" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J254" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15.75">
       <c r="A255" s="8">
-        <v>3663602676713</v>
+        <v>8435609383827</v>
       </c>
       <c r="B255" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E255" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F255" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G255" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H255" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I255" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J255" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15.75">
+      <c r="A256" s="9">
+        <v>8435609383834</v>
+      </c>
+      <c r="B256" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C255" s="14"/>
-      <c r="D255" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E255" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F255" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G255" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H255" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I255" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J255" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-202</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="15.75">
-      <c r="A256" s="8">
-        <v>8435609373194</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="C256" s="14"/>
-      <c r="D256" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E256" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F256" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G256" s="51" t="e">
+      <c r="D256" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E256" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F256" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G256" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15358,36 +15314,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I256" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J256" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-207</v>
+      <c r="I256" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J256" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15.75">
       <c r="A257" s="8">
-        <v>8435609383810</v>
+        <v>5059340721019</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>263</v>
       </c>
       <c r="C257" s="14"/>
-      <c r="D257" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E257" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F257" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G257" s="51" t="e">
+      <c r="D257" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E257" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F257" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G257" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15395,36 +15351,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I257" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J257" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-204</v>
+      <c r="I257" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J257" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-102 (22)</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15.75">
       <c r="A258" s="8">
-        <v>8435609383827</v>
+        <v>5059340346304</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C258" s="14"/>
-      <c r="D258" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E258" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F258" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G258" s="51" t="e">
+      <c r="D258" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E258" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F258" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G258" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15432,36 +15388,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I258" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J258" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-303</v>
+      <c r="I258" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J258" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-107 (27)</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15.75">
-      <c r="A259" s="9">
-        <v>8435609383834</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>264</v>
+      <c r="A259" s="8">
+        <v>8429991917890</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C259" s="14"/>
-      <c r="D259" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E259" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F259" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G259" s="51" t="e">
+      <c r="D259" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E259" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F259" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G259" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15469,36 +15425,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I259" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J259" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-206</v>
+      <c r="I259" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J259" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-105 (25)</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15.75">
       <c r="A260" s="8">
-        <v>5059340721019</v>
+        <v>3663602677420</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C260" s="14"/>
-      <c r="D260" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E260" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F260" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G260" s="51" t="e">
+      <c r="D260" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E260" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F260" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G260" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15506,36 +15462,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I260" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J260" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-301</v>
+      <c r="I260" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J260" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-101 (21)</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15.75">
       <c r="A261" s="8">
-        <v>5059340346304</v>
+        <v>8435609366134</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C261" s="14"/>
-      <c r="D261" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E261" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F261" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G261" s="51" t="e">
+      <c r="D261" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E261" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F261" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G261" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15543,36 +15499,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I261" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J261" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-302</v>
+      <c r="I261" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J261" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-106 (26)</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15.75">
       <c r="A262" s="8">
-        <v>8429991917890</v>
+        <v>8429991917876</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C262" s="14"/>
-      <c r="D262" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E262" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F262" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G262" s="51" t="e">
+      <c r="D262" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E262" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F262" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G262" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15580,36 +15536,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I262" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J262" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-303</v>
+      <c r="I262" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J262" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-103 (23)</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15.75">
       <c r="A263" s="8">
-        <v>3663602677420</v>
+        <v>8429991917883</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C263" s="14"/>
-      <c r="D263" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E263" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F263" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G263" s="51" t="e">
+      <c r="D263" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E263" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F263" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G263" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15617,36 +15573,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I263" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J263" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-304</v>
+      <c r="I263" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J263" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-104 (24)</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15.75">
-      <c r="A264" s="8">
-        <v>8435609366134</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>269</v>
+      <c r="A264" s="9">
+        <v>5059340875026</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C264" s="14"/>
-      <c r="D264" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E264" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F264" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G264" s="51" t="e">
+      <c r="D264" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E264" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F264" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G264" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15654,36 +15610,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I264" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J264" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-305</v>
+      <c r="I264" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J264" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-201 (28)</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15.75">
       <c r="A265" s="8">
-        <v>8429991917876</v>
+        <v>8435609363508</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C265" s="14"/>
-      <c r="D265" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E265" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F265" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G265" s="51" t="e">
+      <c r="D265" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E265" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F265" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G265" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15691,36 +15647,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I265" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J265" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-306</v>
+      <c r="I265" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J265" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-204 (31)</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15.75">
       <c r="A266" s="8">
-        <v>8429991917883</v>
+        <v>5063022553409</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C266" s="14"/>
-      <c r="D266" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E266" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F266" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G266" s="51" t="e">
+      <c r="D266" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E266" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F266" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G266" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15728,36 +15684,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I266" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J266" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-307</v>
+      <c r="I266" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J266" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-202 (29)</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15.75">
-      <c r="A267" s="9">
-        <v>5059340875026</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>272</v>
+      <c r="A267" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C267" s="14"/>
-      <c r="D267" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E267" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F267" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G267" s="51" t="e">
+      <c r="D267" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E267" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F267" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G267" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15765,36 +15721,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I267" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J267" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-308</v>
+      <c r="I267" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J267" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15.75">
       <c r="A268" s="8">
-        <v>8435609363508</v>
+        <v>5063022553416</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C268" s="14"/>
-      <c r="D268" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E268" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F268" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G268" s="51" t="e">
+      <c r="D268" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E268" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F268" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G268" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15802,36 +15758,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I268" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J268" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-401</v>
+      <c r="I268" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J268" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-405 (45)</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15.75">
       <c r="A269" s="8">
-        <v>5063022553409</v>
+        <v>5059340854274</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C269" s="14"/>
-      <c r="D269" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E269" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F269" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G269" s="51" t="e">
+      <c r="D269" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E269" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F269" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G269" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15839,36 +15795,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I269" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J269" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-402</v>
+      <c r="I269" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J269" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-506 (52)</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15.75">
       <c r="A270" s="8">
-        <v>5063022605108</v>
+        <v>5059340854243</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C270" s="14"/>
-      <c r="D270" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E270" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F270" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G270" s="51" t="e">
+      <c r="D270" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E270" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F270" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G270" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15876,36 +15832,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I270" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J270" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-106</v>
+      <c r="I270" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J270" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-504 (50)</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15.75">
       <c r="A271" s="8">
-        <v>5063022553416</v>
+        <v>8429991918231</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C271" s="14"/>
-      <c r="D271" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E271" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F271" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G271" s="51" t="e">
+      <c r="D271" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E271" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F271" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G271" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15913,36 +15869,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I271" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J271" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-404</v>
+      <c r="I271" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J271" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-401 (41)</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15.75">
-      <c r="A272" s="8">
-        <v>5059340854274</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>276</v>
+      <c r="A272" s="9">
+        <v>5063022655653</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="C272" s="14"/>
-      <c r="D272" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E272" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F272" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G272" s="51" t="e">
+      <c r="D272" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E272" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F272" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G272" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15950,36 +15906,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I272" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J272" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-405</v>
+      <c r="I272" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J272" s="13">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15.75">
       <c r="A273" s="8">
-        <v>5059340854243</v>
+        <v>5059340459929</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C273" s="14"/>
-      <c r="D273" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E273" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F273" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G273" s="51" t="e">
+      <c r="D273" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E273" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F273" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G273" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -15987,36 +15943,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I273" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J273" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-406</v>
+      <c r="I273" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J273" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-503 (49)</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15.75">
       <c r="A274" s="8">
-        <v>8429991918231</v>
+        <v>5059340854250</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C274" s="14"/>
-      <c r="D274" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E274" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F274" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G274" s="51" t="e">
+      <c r="D274" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E274" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F274" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G274" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16024,36 +15980,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I274" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J274" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-407</v>
+      <c r="I274" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J274" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-505 (51)</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15.75">
-      <c r="A275" s="9">
-        <v>5063022655653</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>279</v>
+      <c r="A275" s="8">
+        <v>8435414103009</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="C275" s="14"/>
-      <c r="D275" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E275" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F275" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G275" s="51" t="e">
+      <c r="D275" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E275" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F275" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G275" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16061,36 +16017,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I275" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J275" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-408</v>
+      <c r="I275" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J275" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-402 (42)</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15.75">
-      <c r="A276" s="46">
-        <v>5059340459929</v>
-      </c>
-      <c r="B276" s="47" t="s">
-        <v>280</v>
+      <c r="A276" s="8">
+        <v>8435414101784</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="C276" s="14"/>
-      <c r="D276" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E276" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F276" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G276" s="51" t="e">
+      <c r="D276" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E276" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F276" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G276" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16098,36 +16054,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I276" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J276" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-501</v>
+      <c r="I276" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J276" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-403 (43)</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15.75">
-      <c r="A277" s="46">
-        <v>5059340854250</v>
-      </c>
-      <c r="B277" s="47" t="s">
-        <v>281</v>
+      <c r="A277" s="8">
+        <v>8435414126558</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C277" s="14"/>
-      <c r="D277" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E277" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F277" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G277" s="51" t="e">
+      <c r="D277" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E277" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F277" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G277" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16135,36 +16091,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I277" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J277" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-502</v>
+      <c r="I277" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J277" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-404 (44)</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15.75">
-      <c r="A278" s="46">
-        <v>8435414103009</v>
-      </c>
-      <c r="B278" s="47" t="s">
-        <v>282</v>
+      <c r="A278" s="8">
+        <v>8435609365960</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C278" s="14"/>
-      <c r="D278" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E278" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F278" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G278" s="51" t="e">
+      <c r="D278" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E278" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F278" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G278" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16172,36 +16128,36 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I278" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J278" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-503</v>
+      <c r="I278" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J278" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-406 (46)</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15.75">
-      <c r="A279" s="46">
-        <v>8435414101784</v>
-      </c>
-      <c r="B279" s="47" t="s">
-        <v>253</v>
+      <c r="A279" s="9">
+        <v>8435609365977</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="C279" s="14"/>
-      <c r="D279" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E279" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F279" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G279" s="51" t="e">
+      <c r="D279" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E279" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F279" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G279" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16209,124 +16165,13 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I279" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J279" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-304</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="15.75">
-      <c r="A280" s="46">
-        <v>8435414126558</v>
-      </c>
-      <c r="B280" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="C280" s="14"/>
-      <c r="D280" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E280" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F280" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G280" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H280" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I280" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J280" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>24-05-305</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" ht="15.75">
-      <c r="A281" s="46">
-        <v>8435609365960</v>
-      </c>
-      <c r="B281" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="C281" s="14"/>
-      <c r="D281" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E281" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F281" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G281" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H281" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I281" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J281" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-506</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" ht="15.75">
-      <c r="A282" s="48">
-        <v>8435609365977</v>
-      </c>
-      <c r="B282" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="C282" s="14"/>
-      <c r="D282" s="51" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E282" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F282" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G282" s="51" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H282" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I282" s="52" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J282" s="53" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-507</v>
+      <c r="I279" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="J279" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-501 (47)</v>
       </c>
     </row>
   </sheetData>
@@ -18002,17 +17847,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24194B37-EADF-445E-ADDF-4E32977FA578}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:B117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18028,7 +17873,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" hidden="1">
       <c r="A2" s="8">
         <v>5059340719535</v>
       </c>
@@ -18039,7 +17884,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" hidden="1">
       <c r="A3" s="8">
         <v>5059340719658</v>
       </c>
@@ -18050,7 +17895,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" hidden="1">
       <c r="A4" s="8">
         <v>5059340460208</v>
       </c>
@@ -18061,7 +17906,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" hidden="1">
       <c r="A5" s="8">
         <v>5059340781969</v>
       </c>
@@ -18072,7 +17917,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" hidden="1">
       <c r="A6" s="8">
         <v>5036581065768</v>
       </c>
@@ -18083,7 +17928,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" hidden="1">
       <c r="A7" s="8">
         <v>5059340719542</v>
       </c>
@@ -18094,7 +17939,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" hidden="1">
       <c r="A8" s="8">
         <v>8435414126275</v>
       </c>
@@ -18105,7 +17950,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" hidden="1">
       <c r="A9" s="8">
         <v>5036581064877</v>
       </c>
@@ -18116,7 +17961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" hidden="1">
       <c r="A10" s="8">
         <v>5059340719559</v>
       </c>
@@ -18127,7 +17972,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75" hidden="1">
       <c r="A11" s="8">
         <v>5059340269535</v>
       </c>
@@ -18138,7 +17983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" hidden="1">
       <c r="A12" s="8">
         <v>5036581064310</v>
       </c>
@@ -18149,7 +17994,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" hidden="1">
       <c r="A13" s="8">
         <v>5036581063887</v>
       </c>
@@ -18160,7 +18005,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" hidden="1">
       <c r="A14" s="8">
         <v>3663602848349</v>
       </c>
@@ -18171,7 +18016,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" hidden="1">
       <c r="A15" s="8">
         <v>5036581064679</v>
       </c>
@@ -18182,7 +18027,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" hidden="1">
       <c r="A16" s="8">
         <v>5059340433233</v>
       </c>
@@ -18193,7 +18038,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" hidden="1">
       <c r="A17" s="8">
         <v>8435414126282</v>
       </c>
@@ -18204,7 +18049,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" hidden="1">
       <c r="A18" s="8">
         <v>3663602679332</v>
       </c>
@@ -18215,7 +18060,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" hidden="1">
       <c r="A19" s="8">
         <v>8435414127845</v>
       </c>
@@ -18226,7 +18071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" hidden="1">
       <c r="A20" s="8">
         <v>8429178156050</v>
       </c>
@@ -18237,7 +18082,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" hidden="1">
       <c r="A21" s="8">
         <v>8429178398283</v>
       </c>
@@ -18248,7 +18093,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" hidden="1">
       <c r="A22" s="8">
         <v>8435609380802</v>
       </c>
@@ -18259,7 +18104,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.75" hidden="1">
       <c r="A23" s="8">
         <v>8429178840003</v>
       </c>
@@ -18270,7 +18115,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.75" hidden="1">
       <c r="A24" s="8">
         <v>8432712278026</v>
       </c>
@@ -18281,7 +18126,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.75" hidden="1">
       <c r="A25" s="8">
         <v>5059340433240</v>
       </c>
@@ -18292,7 +18137,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.75" hidden="1">
       <c r="A26" s="8">
         <v>5059340460383</v>
       </c>
@@ -18303,7 +18148,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.75" hidden="1">
       <c r="A27" s="8">
         <v>5059340720968</v>
       </c>
@@ -18314,7 +18159,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" hidden="1">
       <c r="A28" s="8">
         <v>8435609330777</v>
       </c>
@@ -18325,7 +18170,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.75" hidden="1">
       <c r="A29" s="8">
         <v>8429991953478</v>
       </c>
@@ -18336,7 +18181,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.75" hidden="1">
       <c r="A30" s="8">
         <v>5059340720951</v>
       </c>
@@ -18347,7 +18192,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3" ht="15.75" hidden="1">
       <c r="A31" s="8">
         <v>5063022645289</v>
       </c>
@@ -18358,7 +18203,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15.75" hidden="1">
       <c r="A32" s="8">
         <v>8429991953577</v>
       </c>
@@ -18369,7 +18214,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.75" hidden="1">
       <c r="A33" s="8">
         <v>5059340870663</v>
       </c>
@@ -18380,7 +18225,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15.75" hidden="1">
       <c r="A34" s="8">
         <v>3663602678366</v>
       </c>
@@ -18391,7 +18236,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3" ht="15.75" hidden="1">
       <c r="A35" s="9">
         <v>5059340719610</v>
       </c>
@@ -18402,7 +18247,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
+    <row r="36" spans="1:3" ht="15.75" hidden="1">
       <c r="A36" s="8">
         <v>5059340720982</v>
       </c>
@@ -18413,7 +18258,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15.75" hidden="1">
       <c r="A37" s="8">
         <v>5059340720975</v>
       </c>
@@ -18424,7 +18269,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15.75" hidden="1">
       <c r="A38" s="8">
         <v>8435414120211</v>
       </c>
@@ -18435,7 +18280,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.75" hidden="1">
       <c r="A39" s="8">
         <v>8435414118669</v>
       </c>
@@ -18446,7 +18291,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.75" hidden="1">
       <c r="A40" s="8">
         <v>5036581058319</v>
       </c>
@@ -18457,7 +18302,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15.75" hidden="1">
       <c r="A41" s="9">
         <v>5036581058326</v>
       </c>
@@ -18468,7 +18313,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15.75" hidden="1">
       <c r="A42" s="9">
         <v>8435609317396</v>
       </c>
@@ -18479,7 +18324,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15.75" hidden="1">
       <c r="A43" s="22">
         <v>8435609378458</v>
       </c>
@@ -18490,7 +18335,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:3" ht="15.75" hidden="1">
       <c r="A44" s="9">
         <v>5059340194042</v>
       </c>
@@ -18501,7 +18346,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:3" ht="15.75" hidden="1">
       <c r="A45" s="9">
         <v>5063022085641</v>
       </c>
@@ -18512,7 +18357,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3" ht="15.75" hidden="1">
       <c r="A46" s="9">
         <v>5063022047830</v>
       </c>
@@ -18523,7 +18368,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3" ht="15.75" hidden="1">
       <c r="A47" s="9">
         <v>3663602997436</v>
       </c>
@@ -18534,7 +18379,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3" ht="15.75" hidden="1">
       <c r="A48" s="9">
         <v>5063022047847</v>
       </c>
@@ -18545,7 +18390,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
+    <row r="49" spans="1:3" ht="15.75" hidden="1">
       <c r="A49" s="9">
         <v>5059340391441</v>
       </c>
@@ -18556,7 +18401,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75">
+    <row r="50" spans="1:3" ht="15.75" hidden="1">
       <c r="A50" s="9">
         <v>5063022611239</v>
       </c>
@@ -18567,7 +18412,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:3" ht="15.75" hidden="1">
       <c r="A51" s="9">
         <v>5059340221700</v>
       </c>
@@ -18578,7 +18423,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
+    <row r="52" spans="1:3" ht="15.75" hidden="1">
       <c r="A52" s="9">
         <v>5059340969626</v>
       </c>
@@ -18589,7 +18434,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75">
+    <row r="53" spans="1:3" ht="15.75" hidden="1">
       <c r="A53" s="9">
         <v>5059340357461</v>
       </c>
@@ -18600,7 +18445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75">
+    <row r="54" spans="1:3" ht="15.75" hidden="1">
       <c r="A54" s="9">
         <v>5059340969664</v>
       </c>
@@ -18611,7 +18456,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75">
+    <row r="55" spans="1:3" ht="15.75" hidden="1">
       <c r="A55" s="9">
         <v>5059340969633</v>
       </c>
@@ -18622,7 +18467,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75">
+    <row r="56" spans="1:3" ht="15.75" hidden="1">
       <c r="A56" s="9">
         <v>5059340357454</v>
       </c>
@@ -18633,7 +18478,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75">
+    <row r="57" spans="1:3" ht="15.75" hidden="1">
       <c r="A57" s="9">
         <v>5059340969640</v>
       </c>
@@ -18644,7 +18489,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75">
+    <row r="58" spans="1:3" ht="15.75" hidden="1">
       <c r="A58" s="9">
         <v>5059340969657</v>
       </c>
@@ -18662,7 +18507,7 @@
       <c r="B59" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="43" t="s">
         <v>545</v>
       </c>
     </row>
@@ -18673,7 +18518,7 @@
       <c r="B60" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="43" t="s">
         <v>546</v>
       </c>
     </row>
@@ -18684,7 +18529,7 @@
       <c r="B61" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="43" t="s">
         <v>547</v>
       </c>
     </row>
@@ -18695,7 +18540,7 @@
       <c r="B62" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="43" t="s">
         <v>548</v>
       </c>
     </row>
@@ -18706,7 +18551,7 @@
       <c r="B63" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="43" t="s">
         <v>549</v>
       </c>
     </row>
@@ -18717,9 +18562,7 @@
       <c r="B64" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>550</v>
-      </c>
+      <c r="C64" s="27"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="8">
@@ -18728,8 +18571,8 @@
       <c r="B65" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>551</v>
+      <c r="C65" s="43" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18739,8 +18582,8 @@
       <c r="B66" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="27" t="s">
-        <v>552</v>
+      <c r="C66" s="43" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18750,558 +18593,507 @@
       <c r="B67" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="34" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75">
+      <c r="A68" s="9">
+        <v>3663602678397</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="43" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75">
-      <c r="A68" s="8">
-        <v>3663602678311</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="27" t="s">
+    <row r="69" spans="1:3" ht="15.75">
+      <c r="A69" s="8">
+        <v>5059340460246</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="A69" s="9">
-        <v>3663602678397</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="8">
-        <v>5059340460246</v>
+        <v>8435414127852</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="8">
-        <v>8435414127852</v>
+        <v>5059340460260</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="27" t="s">
-        <v>557</v>
+      <c r="C71" s="43" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="8">
-        <v>5059340460260</v>
+        <v>8435609378526</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="27" t="s">
-        <v>558</v>
-      </c>
+      <c r="C72" s="34"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="8">
-        <v>8435609378526</v>
+        <v>8429178842496</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>559</v>
+      <c r="C73" s="43" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="8">
-        <v>8429178842496</v>
+        <v>8435414127869</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>247</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
-      <c r="A75" s="8">
-        <v>8435414127869</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="9">
+        <v>8435609373194</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="27" t="s">
-        <v>561</v>
-      </c>
+      <c r="C75" s="27"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
-      <c r="A76" s="9">
-        <v>8435609373194</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="8">
+        <v>8429178398481</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="27" t="s">
-        <v>562</v>
+      <c r="C76" s="43" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="8">
-        <v>8429178398481</v>
+        <v>8429178988972</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="27" t="s">
-        <v>563</v>
+      <c r="C77" s="43" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="8">
-        <v>8429178988972</v>
+        <v>8435609383827</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="27" t="s">
-        <v>564</v>
-      </c>
+      <c r="C78" s="27"/>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="8">
-        <v>8435609383827</v>
+        <v>3663602678311</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="27" t="s">
-        <v>565</v>
+      <c r="C79" s="34" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="8">
-        <v>8435414101784</v>
+        <v>3663602679349</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
-      <c r="A81" s="9">
-        <v>8435414126558</v>
-      </c>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="8">
+        <v>8429991917562</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="27" t="s">
-        <v>567</v>
-      </c>
+      <c r="C81" s="27"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="8">
-        <v>3663602678311</v>
+        <v>8429991917852</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>568</v>
+        <v>255</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="8">
-        <v>3663602679349</v>
+        <v>8429991917845</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>569</v>
+        <v>256</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="8">
-        <v>8429991917562</v>
+        <v>5059340192154</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>570</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C84" s="27"/>
     </row>
     <row r="85" spans="1:3" ht="15.75">
-      <c r="A85" s="8">
-        <v>8429991917852</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>571</v>
+      <c r="A85" s="9">
+        <v>8435414113497</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="8">
-        <v>8429991917845</v>
+        <v>5059340460253</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>572</v>
+        <v>259</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="8">
-        <v>5059340192154</v>
+        <v>3663602676713</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>573</v>
+        <v>260</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
-      <c r="A88" s="9">
-        <v>8435414113497</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>574</v>
+      <c r="A88" s="8">
+        <v>8435609373194</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="8">
-        <v>5059340460253</v>
+        <v>8435609383810</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="27" t="s">
-        <v>575</v>
-      </c>
+      <c r="C89" s="27"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="8">
-        <v>3663602676713</v>
+        <v>8435609383827</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75">
+      <c r="A91" s="9">
+        <v>8435609383834</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75">
-      <c r="A91" s="8">
-        <v>8435609373194</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>577</v>
-      </c>
+      <c r="C91" s="27"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="8">
-        <v>8435609383810</v>
+        <v>5059340721019</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>578</v>
+      <c r="C92" s="34" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="8">
-        <v>8435609383827</v>
+        <v>5059340346304</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>579</v>
+        <v>264</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
-      <c r="A94" s="9">
-        <v>8435609383834</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>580</v>
+      <c r="A94" s="8">
+        <v>8429991917890</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="8">
-        <v>5059340721019</v>
+        <v>3663602677420</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="8">
-        <v>5059340346304</v>
+        <v>8435609366134</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>582</v>
+        <v>267</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
       <c r="A97" s="8">
-        <v>8429991917890</v>
+        <v>8429991917876</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>583</v>
+        <v>268</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="8">
-        <v>3663602677420</v>
+        <v>8429991917883</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>584</v>
+        <v>269</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
-      <c r="A99" s="8">
-        <v>8435609366134</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>585</v>
+      <c r="A99" s="9">
+        <v>5059340875026</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
       <c r="A100" s="8">
-        <v>8429991917876</v>
+        <v>8435609363508</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>586</v>
+        <v>271</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="8">
-        <v>8429991917883</v>
+        <v>5063022553409</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>587</v>
+        <v>272</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
-      <c r="A102" s="9">
-        <v>5059340875026</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>588</v>
+      <c r="A102" s="8">
+        <v>5063022605108</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
       <c r="A103" s="8">
-        <v>8435609363508</v>
+        <v>5063022553416</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C103" s="27" t="s">
-        <v>589</v>
+      <c r="C103" s="34" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="8">
-        <v>5063022553409</v>
+        <v>5059340854274</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C104" s="27" t="s">
-        <v>590</v>
+      <c r="C104" s="34" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="8">
-        <v>5063022605108</v>
+        <v>5059340854243</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>591</v>
+        <v>275</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
       <c r="A106" s="8">
-        <v>5063022553416</v>
+        <v>8429991918231</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>592</v>
+        <v>276</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
-      <c r="A107" s="8">
-        <v>5059340854274</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>593</v>
-      </c>
+      <c r="A107" s="9">
+        <v>5063022655653</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" s="27"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="8">
-        <v>5059340854243</v>
+        <v>5059340459929</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>594</v>
+        <v>278</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
       <c r="A109" s="8">
-        <v>8429991918231</v>
+        <v>5059340854250</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>595</v>
+        <v>279</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
-      <c r="A110" s="9">
-        <v>5063022655653</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>596</v>
+      <c r="A110" s="8">
+        <v>8435414103009</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
-      <c r="A111" s="46">
-        <v>5059340459929</v>
-      </c>
-      <c r="B111" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" s="50" t="s">
-        <v>597</v>
+      <c r="A111" s="8">
+        <v>8435414101784</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75">
-      <c r="A112" s="46">
-        <v>5059340854250</v>
-      </c>
-      <c r="B112" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="C112" s="50" t="s">
-        <v>598</v>
+      <c r="A112" s="8">
+        <v>8435414126558</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75">
-      <c r="A113" s="46">
-        <v>8435414103009</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="C113" s="50" t="s">
-        <v>599</v>
+      <c r="A113" s="8">
+        <v>8435609365960</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75">
-      <c r="A114" s="46">
-        <v>8435414101784</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="50" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75">
-      <c r="A115" s="46">
-        <v>8435414126558</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="50" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75">
-      <c r="A116" s="46">
-        <v>8435609365960</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" s="50" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75">
-      <c r="A117" s="48">
+      <c r="A114" s="9">
         <v>8435609365977</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B114" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C117" s="50" t="s">
-        <v>603</v>
+      <c r="C114" s="34" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -19350,16 +19142,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19367,16 +19159,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19384,16 +19176,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19401,16 +19193,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19418,16 +19210,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19435,16 +19227,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19452,16 +19244,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19472,13 +19264,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19486,16 +19278,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19503,16 +19295,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19520,16 +19312,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19537,16 +19329,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19554,16 +19346,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19571,16 +19363,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19588,16 +19380,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19605,16 +19397,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19622,16 +19414,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19639,16 +19431,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19656,16 +19448,16 @@
         <v>8435414109278</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19673,16 +19465,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19690,16 +19482,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19707,16 +19499,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19724,16 +19516,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19741,16 +19533,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19758,16 +19550,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19775,16 +19567,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19792,16 +19584,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19809,16 +19601,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19826,16 +19618,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19846,13 +19638,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19860,16 +19652,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19877,16 +19669,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19894,16 +19686,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19911,16 +19703,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19928,16 +19720,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19945,16 +19737,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19962,16 +19754,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19979,16 +19771,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19996,16 +19788,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20013,16 +19805,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20030,16 +19822,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20047,16 +19839,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20064,16 +19856,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20081,16 +19873,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20098,16 +19890,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20115,16 +19907,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20132,16 +19924,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20149,16 +19941,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20166,16 +19958,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20183,16 +19975,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20200,16 +19992,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20217,16 +20009,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20234,16 +20026,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20251,16 +20043,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20268,16 +20060,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20285,16 +20077,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20302,16 +20094,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20319,16 +20111,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20336,16 +20128,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20353,16 +20145,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20373,13 +20165,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20387,16 +20179,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20407,13 +20199,13 @@
         <v>351</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20421,16 +20213,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20438,16 +20230,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20455,16 +20247,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20472,16 +20264,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20489,16 +20281,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20506,16 +20298,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20523,16 +20315,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20540,16 +20332,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20560,13 +20352,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20574,16 +20366,16 @@
         <v>3663602848349</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20594,13 +20386,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20611,13 +20403,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20625,16 +20417,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20642,16 +20434,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20659,16 +20451,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20676,16 +20468,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20696,13 +20488,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20710,16 +20502,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20727,16 +20519,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20744,16 +20536,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20761,16 +20553,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D85" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20778,16 +20570,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D86" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20795,16 +20587,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D87" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E87" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20812,16 +20604,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D88" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E88" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20829,16 +20621,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D89" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20846,16 +20638,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D90" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E90" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20863,16 +20655,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D91" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20880,16 +20672,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D92" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20897,16 +20689,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20914,16 +20706,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20931,16 +20723,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20948,16 +20740,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20965,16 +20757,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20985,13 +20777,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -21002,13 +20794,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -21019,13 +20811,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -21036,13 +20828,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -21050,16 +20842,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -21067,16 +20859,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -21084,16 +20876,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -21101,16 +20893,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -21118,16 +20910,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -21135,16 +20927,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -21152,16 +20944,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -21169,16 +20961,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -21186,16 +20978,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -21203,16 +20995,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -21220,16 +21012,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21237,16 +21029,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21254,16 +21046,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21271,16 +21063,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21291,13 +21083,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21308,13 +21100,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21325,13 +21117,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21342,13 +21134,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21356,16 +21148,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21373,16 +21165,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21390,16 +21182,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21407,16 +21199,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21427,13 +21219,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21444,13 +21236,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21461,13 +21253,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21478,13 +21270,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21492,16 +21284,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21509,16 +21301,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21526,16 +21318,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21546,13 +21338,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21560,16 +21352,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21580,13 +21372,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21597,13 +21389,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21614,13 +21406,13 @@
         <v>317</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21631,13 +21423,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21645,16 +21437,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D137" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E137" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21662,16 +21454,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D138" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E138" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21679,16 +21471,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D139" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E139" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21696,16 +21488,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D140" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E140" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21713,16 +21505,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D141" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E141" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21733,13 +21525,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21747,16 +21539,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21764,16 +21556,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21784,13 +21576,13 @@
         <v>456</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21798,16 +21590,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21815,16 +21607,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21835,13 +21627,13 @@
         <v>454</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21849,16 +21641,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21869,13 +21661,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21886,13 +21678,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21903,13 +21695,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21917,16 +21709,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21937,13 +21729,13 @@
         <v>331</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21951,16 +21743,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21968,16 +21760,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21985,16 +21777,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -22002,16 +21794,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -22019,16 +21811,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -22036,16 +21828,16 @@
         <v>5059340221700</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -22053,16 +21845,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -22073,13 +21865,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -22087,16 +21879,16 @@
         <v>5059340357454</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -22104,16 +21896,16 @@
         <v>5059340357461</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -22124,13 +21916,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -22141,13 +21933,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -22158,13 +21950,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -22175,13 +21967,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -22192,13 +21984,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -22209,13 +22001,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -22226,13 +22018,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D171" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E171" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22243,13 +22035,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D172" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E172" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22260,13 +22052,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D173" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E173" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22274,16 +22066,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22291,16 +22083,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22308,16 +22100,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22325,16 +22117,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22342,16 +22134,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22362,13 +22154,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22379,13 +22171,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22396,13 +22188,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22410,16 +22202,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22430,13 +22222,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22444,16 +22236,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22461,16 +22253,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22481,13 +22273,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22495,16 +22287,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22515,13 +22307,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22529,16 +22321,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22546,16 +22338,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22566,13 +22358,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22583,13 +22375,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22600,13 +22392,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22617,13 +22409,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D194" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E194" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E194" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22634,13 +22426,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D195" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E195" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="E195" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22651,13 +22443,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22665,16 +22457,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22682,16 +22474,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22702,13 +22494,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22716,16 +22508,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22733,16 +22525,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22750,16 +22542,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22770,13 +22562,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22787,13 +22579,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22804,13 +22596,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22818,16 +22610,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22838,13 +22630,13 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22855,13 +22647,13 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22872,13 +22664,13 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D209" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="E209" s="27" t="s">
         <v>606</v>
-      </c>
-      <c r="E209" s="27" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22889,13 +22681,13 @@
         <v>10</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134AFF1C-03DD-48AD-9416-54B8A0D536ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F3C604-C41B-46B0-A0A5-14FB4EC5DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="760">
   <si>
     <t>EAN</t>
   </si>
@@ -3750,24 +3750,54 @@
     <t>22-15-103</t>
   </si>
   <si>
+    <t>24-05-101 (1)</t>
+  </si>
+  <si>
+    <t>24-05-102 (2)</t>
+  </si>
+  <si>
+    <t>24-05-103 (3)</t>
+  </si>
+  <si>
+    <t>24-05-104 (4)</t>
+  </si>
+  <si>
+    <t>24-05-105 (5)</t>
+  </si>
+  <si>
+    <t>24-05-106 (6)</t>
+  </si>
+  <si>
+    <t>24-05-107 (7)</t>
+  </si>
+  <si>
+    <t>24-05-201 (8)</t>
+  </si>
+  <si>
+    <t>24-05-202 (9)</t>
+  </si>
+  <si>
+    <t>24-05-203 (10)</t>
+  </si>
+  <si>
     <t>24-05-204 (11)</t>
   </si>
   <si>
+    <t>24-05-205 (12)</t>
+  </si>
+  <si>
+    <t>24-05-206 (13)</t>
+  </si>
+  <si>
+    <t>24-05-301 (14)</t>
+  </si>
+  <si>
     <t>24-05-302 (15)</t>
   </si>
   <si>
     <t>24-05-303 (16)</t>
   </si>
   <si>
-    <t>24-05-205 (12)</t>
-  </si>
-  <si>
-    <t>24-05-206 (13)</t>
-  </si>
-  <si>
-    <t>24-05-301 (14)</t>
-  </si>
-  <si>
     <t>24-05-304 (17)</t>
   </si>
   <si>
@@ -3777,115 +3807,106 @@
     <t>24-05-306 (19)</t>
   </si>
   <si>
-    <t>24-05-101 (1)</t>
-  </si>
-  <si>
-    <t>24-05-102 (2)</t>
-  </si>
-  <si>
-    <t>24-05-203 (10)</t>
-  </si>
-  <si>
-    <t>24-05-201 (8)</t>
-  </si>
-  <si>
-    <t>24-05-104 (4)</t>
-  </si>
-  <si>
-    <t>24-05-106 (6)</t>
-  </si>
-  <si>
-    <t>24-05-105 (5)</t>
+    <t>24-05-307 (20)</t>
+  </si>
+  <si>
+    <t>36-05-101 (21)</t>
+  </si>
+  <si>
+    <t>36-05-102 (22)</t>
+  </si>
+  <si>
+    <t>36-05-103 (23)</t>
+  </si>
+  <si>
+    <t>36-05-104 (24)</t>
+  </si>
+  <si>
+    <t>36-05-105 (25)</t>
+  </si>
+  <si>
+    <t>36-05-106 (26)</t>
+  </si>
+  <si>
+    <t>36-05-107 (27)</t>
+  </si>
+  <si>
+    <t>36-05-201 (28)</t>
+  </si>
+  <si>
+    <t>36-05-202 (29)</t>
+  </si>
+  <si>
+    <t>36-05-203 (30)</t>
+  </si>
+  <si>
+    <t>36-05-204 (31)</t>
+  </si>
+  <si>
+    <t>36-05-205 (32)</t>
+  </si>
+  <si>
+    <t>36-05-206 (33)</t>
+  </si>
+  <si>
+    <t>36-05-301 (34)</t>
+  </si>
+  <si>
+    <t>36-05-302 (35)</t>
+  </si>
+  <si>
+    <t>36-05-303 (36)</t>
+  </si>
+  <si>
+    <t>36-05-304 (37)</t>
+  </si>
+  <si>
+    <t>36-05-305 (38)</t>
+  </si>
+  <si>
+    <t>36-05-306 (39)</t>
+  </si>
+  <si>
+    <t>36-05-307 (40)</t>
+  </si>
+  <si>
+    <t>36-05-401 (41)</t>
+  </si>
+  <si>
+    <t>36-05-402 (42)</t>
+  </si>
+  <si>
+    <t>36-05-403 (43)</t>
+  </si>
+  <si>
+    <t>36-05-404 (44)</t>
+  </si>
+  <si>
+    <t>36-05-405 (45)</t>
+  </si>
+  <si>
+    <t>36-05-406 (46)</t>
+  </si>
+  <si>
+    <t>36-05-501 (47)</t>
   </si>
   <si>
     <t>36-05-502 (48)</t>
   </si>
   <si>
-    <t>24-05-103 (3)</t>
-  </si>
-  <si>
-    <t>36-05-307 (40)</t>
-  </si>
-  <si>
-    <t>36-05-306 (39)</t>
-  </si>
-  <si>
-    <t>36-05-303 (36)</t>
-  </si>
-  <si>
-    <t>36-05-302 (35)</t>
-  </si>
-  <si>
-    <t>36-05-301 (34)</t>
-  </si>
-  <si>
-    <t>36-05-304 (37)</t>
-  </si>
-  <si>
-    <t>36-05-102 (22)</t>
-  </si>
-  <si>
-    <t>36-05-107 (27)</t>
-  </si>
-  <si>
-    <t>36-05-105 (25)</t>
-  </si>
-  <si>
-    <t>36-05-101 (21)</t>
-  </si>
-  <si>
-    <t>36-05-106 (26)</t>
-  </si>
-  <si>
-    <t>36-05-103 (23)</t>
-  </si>
-  <si>
-    <t>36-05-104 (24)</t>
-  </si>
-  <si>
-    <t>36-05-201 (28)</t>
-  </si>
-  <si>
-    <t>36-05-204 (31)</t>
-  </si>
-  <si>
-    <t>36-05-202 (29)</t>
-  </si>
-  <si>
-    <t>36-05-203 (30)</t>
-  </si>
-  <si>
-    <t>36-05-405 (45)</t>
+    <t>36-05-503 (49)</t>
+  </si>
+  <si>
+    <t>36-05-504 (50)</t>
+  </si>
+  <si>
+    <t>36-05-505 (51)</t>
   </si>
   <si>
     <t>36-05-506 (52)</t>
   </si>
   <si>
-    <t>36-05-504 (50)</t>
-  </si>
-  <si>
-    <t>36-05-401 (41)</t>
-  </si>
-  <si>
-    <t>36-05-503 (49)</t>
-  </si>
-  <si>
-    <t>36-05-505 (51)</t>
-  </si>
-  <si>
-    <t>36-05-402 (42)</t>
-  </si>
-  <si>
-    <t>36-05-403 (43)</t>
-  </si>
-  <si>
-    <t>36-05-404 (44)</t>
-  </si>
-  <si>
-    <t>36-05-406 (46)</t>
-  </si>
-  <si>
-    <t>36-05-501 (47)</t>
+    <t>36-05-507 (53)</t>
   </si>
   <si>
     <t>FOREST 19X57</t>
@@ -5137,8 +5158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J279" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J279" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J276" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J276" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5182,14 +5203,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C114" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="A1:C114" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C111" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:C111" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter val="*RODAPIE*"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C111">
+    <sortCondition ref="C1:C111"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D54CE6D5-6B76-45A2-B172-C1221D6E1C19}" name="EAN" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{373C3AE8-423B-402A-96BE-FCD9A215BAE7}" name="descrpcion_es" dataDxfId="9"/>
@@ -5513,10 +5537,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD233"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -14319,9 +14343,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J229" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J229" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-203 (30)</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15.75">
@@ -14615,9 +14639,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J237" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J237" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-202 (9)</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15.75">
@@ -14726,9 +14750,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J240" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J240" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-304 (37)</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15.75">
@@ -14837,9 +14861,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J243" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J243" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-206 (33)</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15.75">
@@ -14876,7 +14900,7 @@
       </c>
       <c r="J244" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-502 (48)</v>
+        <v>36-05-503 (49)</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15.75">
@@ -14948,9 +14972,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J246" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J246" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-406 (46)</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.75">
@@ -15059,9 +15083,9 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J249" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J249" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-305 (38)</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15.75">
@@ -15177,10 +15201,10 @@
     </row>
     <row r="253" spans="1:10" ht="15.75">
       <c r="A253" s="8">
-        <v>8435609373194</v>
+        <v>8435609383810</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C253" s="14"/>
       <c r="D253" s="14" t="str">
@@ -15207,17 +15231,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J253" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J253" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>24-05-107 (7)</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15.75">
-      <c r="A254" s="8">
-        <v>8435609383810</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>261</v>
+      <c r="A254" s="9">
+        <v>8435609383834</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="C254" s="14"/>
       <c r="D254" s="14" t="str">
@@ -15244,17 +15268,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J254" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J254" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-205 (32)</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15.75">
       <c r="A255" s="8">
-        <v>8435609383827</v>
+        <v>5059340721019</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C255" s="14"/>
       <c r="D255" s="14" t="str">
@@ -15281,17 +15305,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J255" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J255" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-102 (22)</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.75">
-      <c r="A256" s="9">
-        <v>8435609383834</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>262</v>
+      <c r="A256" s="8">
+        <v>5059340346304</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C256" s="14"/>
       <c r="D256" s="14" t="str">
@@ -15318,17 +15342,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J256" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J256" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-107 (27)</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15.75">
       <c r="A257" s="8">
-        <v>5059340721019</v>
+        <v>8429991917890</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C257" s="14"/>
       <c r="D257" s="14" t="str">
@@ -15357,15 +15381,15 @@
       </c>
       <c r="J257" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-102 (22)</v>
+        <v>36-05-105 (25)</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15.75">
       <c r="A258" s="8">
-        <v>5059340346304</v>
+        <v>3663602677420</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C258" s="14"/>
       <c r="D258" s="14" t="str">
@@ -15394,15 +15418,15 @@
       </c>
       <c r="J258" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-107 (27)</v>
+        <v>36-05-101 (21)</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15.75">
       <c r="A259" s="8">
-        <v>8429991917890</v>
+        <v>8435609366134</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C259" s="14"/>
       <c r="D259" s="14" t="str">
@@ -15431,15 +15455,15 @@
       </c>
       <c r="J259" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-105 (25)</v>
+        <v>36-05-106 (26)</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15.75">
       <c r="A260" s="8">
-        <v>3663602677420</v>
+        <v>8429991917876</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C260" s="14"/>
       <c r="D260" s="14" t="str">
@@ -15468,15 +15492,15 @@
       </c>
       <c r="J260" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-101 (21)</v>
+        <v>36-05-103 (23)</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15.75">
       <c r="A261" s="8">
-        <v>8435609366134</v>
+        <v>8429991917883</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C261" s="14"/>
       <c r="D261" s="14" t="str">
@@ -15505,15 +15529,15 @@
       </c>
       <c r="J261" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-106 (26)</v>
+        <v>36-05-104 (24)</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15.75">
-      <c r="A262" s="8">
-        <v>8429991917876</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>268</v>
+      <c r="A262" s="9">
+        <v>5059340875026</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C262" s="14"/>
       <c r="D262" s="14" t="str">
@@ -15542,15 +15566,15 @@
       </c>
       <c r="J262" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-103 (23)</v>
+        <v>36-05-201 (28)</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15.75">
       <c r="A263" s="8">
-        <v>8429991917883</v>
+        <v>8435609363508</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C263" s="14"/>
       <c r="D263" s="14" t="str">
@@ -15579,15 +15603,15 @@
       </c>
       <c r="J263" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-104 (24)</v>
+        <v>36-05-204 (31)</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15.75">
-      <c r="A264" s="9">
-        <v>5059340875026</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>270</v>
+      <c r="A264" s="8">
+        <v>5063022553409</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C264" s="14"/>
       <c r="D264" s="14" t="str">
@@ -15616,15 +15640,15 @@
       </c>
       <c r="J264" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-201 (28)</v>
+        <v>36-05-202 (29)</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15.75">
       <c r="A265" s="8">
-        <v>8435609363508</v>
+        <v>5063022553416</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C265" s="14"/>
       <c r="D265" s="14" t="str">
@@ -15653,15 +15677,15 @@
       </c>
       <c r="J265" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-204 (31)</v>
+        <v>36-05-405 (45)</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15.75">
       <c r="A266" s="8">
-        <v>5063022553409</v>
+        <v>5059340854274</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C266" s="14"/>
       <c r="D266" s="14" t="str">
@@ -15690,15 +15714,15 @@
       </c>
       <c r="J266" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-202 (29)</v>
+        <v>36-05-507 (53)</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15.75">
       <c r="A267" s="8">
-        <v>5063022605108</v>
+        <v>5059340854243</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C267" s="14"/>
       <c r="D267" s="14" t="str">
@@ -15725,17 +15749,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J267" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J267" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-505 (51)</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15.75">
       <c r="A268" s="8">
-        <v>5063022553416</v>
+        <v>8429991918231</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C268" s="14"/>
       <c r="D268" s="14" t="str">
@@ -15764,15 +15788,15 @@
       </c>
       <c r="J268" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-405 (45)</v>
+        <v>36-05-401 (41)</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15.75">
-      <c r="A269" s="8">
-        <v>5059340854274</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>274</v>
+      <c r="A269" s="9">
+        <v>5063022655653</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="C269" s="14"/>
       <c r="D269" s="14" t="str">
@@ -15801,15 +15825,15 @@
       </c>
       <c r="J269" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-506 (52)</v>
+        <v>24-05-307 (20)</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15.75">
       <c r="A270" s="8">
-        <v>5059340854243</v>
+        <v>5059340459929</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C270" s="14"/>
       <c r="D270" s="14" t="str">
@@ -15843,10 +15867,10 @@
     </row>
     <row r="271" spans="1:10" ht="15.75">
       <c r="A271" s="8">
-        <v>8429991918231</v>
+        <v>5059340854250</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C271" s="14"/>
       <c r="D271" s="14" t="str">
@@ -15875,15 +15899,15 @@
       </c>
       <c r="J271" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-401 (41)</v>
+        <v>36-05-506 (52)</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15.75">
-      <c r="A272" s="9">
-        <v>5063022655653</v>
-      </c>
-      <c r="B272" s="10" t="s">
-        <v>277</v>
+      <c r="A272" s="8">
+        <v>8435414103009</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="C272" s="14"/>
       <c r="D272" s="14" t="str">
@@ -15910,17 +15934,17 @@
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="J272" s="13">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>0</v>
+      <c r="J272" s="13" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>36-05-402 (42)</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15.75">
       <c r="A273" s="8">
-        <v>5059340459929</v>
+        <v>8435414101784</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C273" s="14"/>
       <c r="D273" s="14" t="str">
@@ -15949,15 +15973,15 @@
       </c>
       <c r="J273" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-503 (49)</v>
+        <v>36-05-403 (43)</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15.75">
       <c r="A274" s="8">
-        <v>5059340854250</v>
+        <v>8435414126558</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C274" s="14"/>
       <c r="D274" s="14" t="str">
@@ -15986,15 +16010,15 @@
       </c>
       <c r="J274" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-505 (51)</v>
+        <v>36-05-404 (44)</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15.75">
       <c r="A275" s="8">
-        <v>8435414103009</v>
+        <v>8435609365960</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C275" s="14"/>
       <c r="D275" s="14" t="str">
@@ -16023,15 +16047,15 @@
       </c>
       <c r="J275" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-402 (42)</v>
+        <v>36-05-501 (47)</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15.75">
-      <c r="A276" s="8">
-        <v>8435414101784</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>281</v>
+      <c r="A276" s="9">
+        <v>8435609365977</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="C276" s="14"/>
       <c r="D276" s="14" t="str">
@@ -16060,118 +16084,7 @@
       </c>
       <c r="J276" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-403 (43)</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" ht="15.75">
-      <c r="A277" s="8">
-        <v>8435414126558</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E277" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F277" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G277" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H277" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I277" s="16" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J277" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-404 (44)</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" ht="15.75">
-      <c r="A278" s="8">
-        <v>8435609365960</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E278" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F278" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G278" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H278" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I278" s="16" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J278" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-406 (46)</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" ht="15.75">
-      <c r="A279" s="9">
-        <v>8435609365977</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E279" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F279" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G279" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H279" s="15" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="I279" s="16" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="J279" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>36-05-501 (47)</v>
+        <v>36-05-502 (48)</v>
       </c>
     </row>
   </sheetData>
@@ -17847,17 +17760,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24194B37-EADF-445E-ADDF-4E32977FA578}">
-  <dimension ref="A1:C114"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18502,54 +18418,54 @@
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="8">
-        <v>5059340459837</v>
+        <v>5059340460246</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="8">
-        <v>5059340721064</v>
+        <v>8435414127852</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
       <c r="A61" s="8">
-        <v>5063022645296</v>
+        <v>3663602679349</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="27" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="8">
-        <v>8435609345634</v>
+        <v>8435414127869</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="27" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="8">
-        <v>8435609347652</v>
+        <v>8429178988972</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>549</v>
@@ -18557,413 +18473,431 @@
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="8">
-        <v>5063022605108</v>
+        <v>8429178398481</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="27"/>
+        <v>249</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="8">
-        <v>8429991918248</v>
+        <v>8435609383810</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>550</v>
+        <v>261</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="8">
-        <v>8429991957162</v>
+        <v>8429178842496</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
       <c r="A67" s="8">
-        <v>5059340870724</v>
+        <v>8435609378526</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="9">
-        <v>3663602678397</v>
+        <v>5059340460260</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="8">
-        <v>5059340460246</v>
+        <v>5059340459837</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>554</v>
+        <v>232</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="8">
-        <v>8435414127852</v>
+        <v>8435609345634</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>555</v>
+        <v>235</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="8">
-        <v>5059340460260</v>
+        <v>8435609347652</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="8">
-        <v>8435609378526</v>
+        <v>8429991918248</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="34"/>
+        <v>238</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="8">
-        <v>8429178842496</v>
+        <v>5059340721064</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="8">
-        <v>8435414127869</v>
+        <v>5063022645296</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>558</v>
+        <v>234</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="9">
-        <v>8435609373194</v>
+        <v>8429991957162</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="27"/>
+        <v>239</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="8">
-        <v>8429178398481</v>
+        <v>5059340870724</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>559</v>
+        <v>240</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="8">
-        <v>8429178988972</v>
+        <v>3663602678397</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="8">
-        <v>8435609383827</v>
+        <v>5063022655653</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="27"/>
+        <v>277</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="8">
-        <v>3663602678311</v>
+        <v>3663602677420</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>561</v>
+        <v>266</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="8">
-        <v>3663602679349</v>
+        <v>5059340721019</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>562</v>
+        <v>263</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="8">
-        <v>8429991917562</v>
+        <v>8429991917876</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="27"/>
+        <v>268</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="8">
-        <v>8429991917852</v>
+        <v>8429991917883</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="8">
-        <v>8429991917845</v>
+        <v>8429991917890</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="8">
-        <v>5059340192154</v>
+        <v>8435609366134</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="9">
-        <v>8435414113497</v>
+        <v>5059340346304</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="8">
-        <v>5059340460253</v>
+        <v>5059340875026</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="8">
-        <v>3663602676713</v>
+        <v>5063022553409</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="8">
-        <v>8435609373194</v>
+        <v>5063022605108</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="8">
-        <v>8435609383810</v>
+        <v>8435609363508</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C89" s="27"/>
+        <v>271</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="8">
-        <v>8435609383827</v>
+        <v>8435609383834</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="27"/>
+        <v>262</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
       <c r="A91" s="9">
-        <v>8435609383834</v>
+        <v>8435609383827</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C91" s="27"/>
+        <v>251</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="8">
-        <v>5059340721019</v>
+        <v>3663602676713</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="8">
-        <v>5059340346304</v>
+        <v>5059340460253</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="8">
-        <v>8429991917890</v>
+        <v>8435414113497</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="8">
-        <v>3663602677420</v>
+        <v>8435609373194</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>572</v>
+        <v>248</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="8">
-        <v>8435609366134</v>
+        <v>5059340192154</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>573</v>
+        <v>257</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
       <c r="A97" s="8">
-        <v>8429991917876</v>
+        <v>8429991917845</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="8">
-        <v>8429991917883</v>
+        <v>8429991917852</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="9">
-        <v>5059340875026</v>
+        <v>8429991918231</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
       <c r="A100" s="8">
-        <v>8435609363508</v>
+        <v>8435414103009</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="8">
-        <v>5063022553409</v>
+        <v>8435414101784</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="8">
-        <v>5063022605108</v>
+        <v>8435414126558</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -18974,50 +18908,52 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="8">
-        <v>5059340854274</v>
+        <v>8429991917562</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>581</v>
+        <v>254</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="8">
-        <v>5059340854243</v>
+        <v>8435609365960</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
       <c r="A106" s="8">
-        <v>8429991918231</v>
+        <v>8435609365977</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
-      <c r="A107" s="9">
-        <v>5063022655653</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C107" s="27"/>
+      <c r="A107" s="8">
+        <v>3663602678311</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="8">
@@ -19027,77 +18963,45 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
       <c r="A109" s="8">
-        <v>5059340854250</v>
+        <v>5059340854243</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="8">
-        <v>8435414103009</v>
+        <v>5059340854250</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
-      <c r="A111" s="8">
-        <v>8435414101784</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>281</v>
+      <c r="A111" s="9">
+        <v>5059340854274</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75">
-      <c r="A112" s="8">
-        <v>8435414126558</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75">
-      <c r="A113" s="8">
-        <v>8435609365960</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75">
-      <c r="A114" s="9">
-        <v>8435609365977</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -19142,16 +19046,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19159,16 +19063,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19176,16 +19080,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19193,16 +19097,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>593</v>
-      </c>
       <c r="E5" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19210,16 +19114,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19227,16 +19131,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19244,16 +19148,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>604</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19264,13 +19168,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19278,16 +19182,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19295,16 +19199,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19312,16 +19216,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19329,16 +19233,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19346,16 +19250,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19363,16 +19267,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19380,16 +19284,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19397,16 +19301,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19414,16 +19318,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19431,16 +19335,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19448,16 +19352,16 @@
         <v>8435414109278</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19465,16 +19369,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19482,16 +19386,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19499,16 +19403,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19516,16 +19420,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19533,16 +19437,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19550,16 +19454,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19567,16 +19471,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19584,16 +19488,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19601,16 +19505,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>619</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19618,16 +19522,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19638,13 +19542,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19652,16 +19556,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19669,16 +19573,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19686,16 +19590,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19703,16 +19607,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19720,16 +19624,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19737,16 +19641,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19754,16 +19658,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19771,16 +19675,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19788,16 +19692,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19805,16 +19709,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19822,16 +19726,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19839,16 +19743,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19856,16 +19760,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19873,16 +19777,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19890,16 +19794,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19907,16 +19811,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19924,16 +19828,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>639</v>
-      </c>
       <c r="D48" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19941,16 +19845,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -19958,16 +19862,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -19975,16 +19879,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -19992,16 +19896,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20009,16 +19913,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20026,16 +19930,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20043,16 +19947,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20060,16 +19964,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20077,16 +19981,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20094,16 +19998,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20111,16 +20015,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20128,16 +20032,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20145,16 +20049,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20165,13 +20069,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20179,16 +20083,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20199,13 +20103,13 @@
         <v>351</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20213,16 +20117,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20230,16 +20134,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20247,16 +20151,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20264,16 +20168,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20281,16 +20185,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20298,16 +20202,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20315,16 +20219,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20332,16 +20236,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20352,13 +20256,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20366,16 +20270,16 @@
         <v>3663602848349</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20386,13 +20290,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20403,13 +20307,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20417,16 +20321,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20434,16 +20338,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20451,16 +20355,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20468,16 +20372,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20488,13 +20392,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20502,16 +20406,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20519,16 +20423,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20536,16 +20440,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>670</v>
-      </c>
       <c r="D84" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20553,16 +20457,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20570,16 +20474,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20587,16 +20491,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20604,16 +20508,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20621,16 +20525,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20638,16 +20542,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20655,16 +20559,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20672,16 +20576,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20689,16 +20593,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20706,16 +20610,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20723,16 +20627,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20740,16 +20644,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20757,16 +20661,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20777,13 +20681,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20794,13 +20698,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20811,13 +20715,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20828,13 +20732,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20842,16 +20746,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20859,16 +20763,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20876,16 +20780,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20893,16 +20797,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20910,16 +20814,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20927,16 +20831,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20944,16 +20848,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -20961,16 +20865,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20978,16 +20882,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20995,16 +20899,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -21012,16 +20916,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21029,16 +20933,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21046,16 +20950,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21063,16 +20967,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21083,13 +20987,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21100,13 +21004,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21117,13 +21021,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21134,13 +21038,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21148,16 +21052,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21165,16 +21069,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21182,16 +21086,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21199,16 +21103,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21219,13 +21123,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21236,13 +21140,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21253,13 +21157,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21270,13 +21174,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21284,16 +21188,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21301,16 +21205,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21318,16 +21222,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21338,13 +21242,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21352,16 +21256,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C132" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="C132" s="25" t="s">
-        <v>706</v>
-      </c>
       <c r="D132" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21372,13 +21276,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21389,13 +21293,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21406,13 +21310,13 @@
         <v>317</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21423,13 +21327,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21437,16 +21341,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21454,16 +21358,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21471,16 +21375,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21488,16 +21392,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21505,16 +21409,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21525,13 +21429,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21539,16 +21443,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21556,16 +21460,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21576,13 +21480,13 @@
         <v>456</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21590,16 +21494,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21607,16 +21511,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21627,13 +21531,13 @@
         <v>454</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21641,16 +21545,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21661,13 +21565,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21678,13 +21582,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21695,13 +21599,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21709,16 +21613,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21729,13 +21633,13 @@
         <v>331</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21743,16 +21647,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21760,16 +21664,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21777,16 +21681,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21794,16 +21698,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -21811,16 +21715,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -21828,16 +21732,16 @@
         <v>5059340221700</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -21845,16 +21749,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -21865,13 +21769,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -21879,16 +21783,16 @@
         <v>5059340357454</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -21896,16 +21800,16 @@
         <v>5059340357461</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -21916,13 +21820,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -21933,13 +21837,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -21950,13 +21854,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -21967,13 +21871,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -21984,13 +21888,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -22001,13 +21905,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -22018,13 +21922,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22035,13 +21939,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22052,13 +21956,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22066,16 +21970,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22083,16 +21987,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22100,16 +22004,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22117,16 +22021,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="C177" s="25" t="s">
-        <v>731</v>
-      </c>
       <c r="D177" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22134,16 +22038,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22154,13 +22058,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22171,13 +22075,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22188,13 +22092,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22202,16 +22106,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22222,13 +22126,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22236,16 +22140,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22253,16 +22157,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22273,13 +22177,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22287,16 +22191,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22307,13 +22211,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22321,16 +22225,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22338,16 +22242,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22358,13 +22262,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22375,13 +22279,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22392,13 +22296,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22409,13 +22313,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22426,13 +22330,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22443,13 +22347,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22457,16 +22361,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22474,16 +22378,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="C198" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="C198" s="25" t="s">
-        <v>741</v>
-      </c>
       <c r="D198" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22494,13 +22398,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22508,16 +22412,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22525,16 +22429,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22542,16 +22446,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22562,13 +22466,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22579,13 +22483,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22596,13 +22500,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22610,16 +22514,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22630,13 +22534,13 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22647,13 +22551,13 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22664,13 +22568,13 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22681,13 +22585,13 @@
         <v>10</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F3C604-C41B-46B0-A0A5-14FB4EC5DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46B1F1B-CE45-438E-B721-71D8E99FF666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="762">
   <si>
     <t>EAN</t>
   </si>
@@ -1204,6 +1204,9 @@
     <t xml:space="preserve">RODAPIE ARAS COTTO 8X33 4 U </t>
   </si>
   <si>
+    <t xml:space="preserve">PAVIMENTO SEGOVIA COTTO 33X33 C3 </t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -1709,6 +1712,9 @@
   </si>
   <si>
     <t>28-01-102</t>
+  </si>
+  <si>
+    <t>28-01-201</t>
   </si>
   <si>
     <t>AZ. OCTAVIO 30X90 MADERA NATURAL</t>
@@ -4607,7 +4613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4691,6 +4697,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5158,8 +5178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J276" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J276" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J277" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J277" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5191,8 +5211,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}" name="ALMACEN" displayName="ALMACEN" ref="A1:C149" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="A1:C149" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}" name="ALMACEN" displayName="ALMACEN" ref="A1:C150" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A1:C150" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3A65B69D-D98E-4AEB-961F-5593E79CA067}" name="EAN" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{469CD1D5-7294-47E9-B0FB-BA7DD9CCC96D}" name="descrpcion_es" dataDxfId="15"/>
@@ -5224,8 +5244,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E210" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E210" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E211" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E211" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{988177E9-8B74-4DA8-8D93-E60B539BC797}" name="EAN" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9354D9B3-F652-4D41-B841-C67C7F44B562}" name="descrpcion_es" dataDxfId="3"/>
@@ -5537,10 +5557,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H285" sqref="H285"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277:B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16087,6 +16107,43 @@
         <v>36-05-502 (48)</v>
       </c>
     </row>
+    <row r="277" spans="1:10" ht="15.75">
+      <c r="A277" s="12">
+        <v>8429178985018</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="46" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E277" s="46" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 11</v>
+      </c>
+      <c r="F277" s="46" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 1</v>
+      </c>
+      <c r="G277" s="46" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 3</v>
+      </c>
+      <c r="H277" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I277" s="47" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J277" s="48" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-01-201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
@@ -16098,10 +16155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD18BE2-0DBC-4BB4-8FBE-BFB232B0B51D}">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="A150" sqref="A150:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16118,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16126,10 +16183,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16140,7 +16197,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16151,7 +16208,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16162,7 +16219,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16173,7 +16230,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16184,7 +16241,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16195,7 +16252,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16206,7 +16263,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16214,10 +16271,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16228,7 +16285,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16239,7 +16296,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16247,10 +16304,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16261,7 +16318,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16272,7 +16329,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16283,7 +16340,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16294,7 +16351,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16305,7 +16362,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -16316,7 +16373,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16327,7 +16384,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -16338,7 +16395,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16349,7 +16406,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16357,10 +16414,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16371,7 +16428,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -16382,7 +16439,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16393,7 +16450,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16404,7 +16461,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16415,7 +16472,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16423,10 +16480,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16437,7 +16494,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16445,10 +16502,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16459,7 +16516,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16470,7 +16527,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16481,7 +16538,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16492,7 +16549,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16503,7 +16560,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16514,7 +16571,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16525,7 +16582,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16536,7 +16593,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16547,7 +16604,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16555,10 +16612,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16569,7 +16626,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16580,7 +16637,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -16591,7 +16648,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -16602,7 +16659,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -16613,7 +16670,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -16624,7 +16681,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -16635,7 +16692,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -16646,7 +16703,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16657,7 +16714,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16668,7 +16725,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16679,7 +16736,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16690,7 +16747,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16701,7 +16758,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16712,7 +16769,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16720,10 +16777,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16731,10 +16788,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -16742,10 +16799,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -16753,10 +16810,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -16764,10 +16821,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -16778,7 +16835,7 @@
         <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -16789,7 +16846,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -16800,7 +16857,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -16811,7 +16868,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -16822,7 +16879,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -16830,10 +16887,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -16841,10 +16898,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -16852,10 +16909,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -16866,7 +16923,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -16877,7 +16934,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -16888,7 +16945,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -16899,7 +16956,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -16910,7 +16967,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -16921,7 +16978,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -16932,7 +16989,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -16943,7 +17000,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -16954,7 +17011,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -16965,7 +17022,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -16973,10 +17030,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -16987,7 +17044,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -16998,7 +17055,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17009,7 +17066,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17020,7 +17077,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17028,10 +17085,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17039,10 +17096,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17050,10 +17107,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17061,10 +17118,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17075,7 +17132,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17086,7 +17143,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17097,7 +17154,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17108,7 +17165,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17119,7 +17176,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17130,7 +17187,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17141,7 +17198,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17152,7 +17209,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17163,7 +17220,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -17174,7 +17231,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17185,7 +17242,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17196,7 +17253,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17207,7 +17264,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17218,7 +17275,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17229,7 +17286,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17240,7 +17297,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17251,7 +17308,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -17262,7 +17319,7 @@
         <v>180</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -17273,7 +17330,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17284,7 +17341,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17295,7 +17352,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -17306,7 +17363,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17317,7 +17374,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17328,7 +17385,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17339,7 +17396,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17350,7 +17407,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17361,7 +17418,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17372,7 +17429,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17383,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17394,7 +17451,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17405,7 +17462,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17416,7 +17473,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17427,7 +17484,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -17438,7 +17495,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17449,7 +17506,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17460,7 +17517,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -17471,7 +17528,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -17482,7 +17539,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -17493,7 +17550,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -17504,7 +17561,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -17515,7 +17572,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -17526,7 +17583,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -17537,7 +17594,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17548,7 +17605,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -17559,7 +17616,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -17570,7 +17627,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17581,7 +17638,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -17592,7 +17649,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -17603,7 +17660,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -17614,7 +17671,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -17625,7 +17682,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17636,7 +17693,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17647,7 +17704,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17658,7 +17715,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17669,7 +17726,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17680,7 +17737,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17691,7 +17748,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17702,7 +17759,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17713,7 +17770,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17724,7 +17781,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -17735,7 +17792,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -17746,7 +17803,18 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="28">
+        <v>8429178985018</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -17765,8 +17833,8 @@
   </sheetPr>
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -17786,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" hidden="1">
@@ -17794,10 +17862,10 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" hidden="1">
@@ -17805,10 +17873,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" hidden="1">
@@ -17819,7 +17887,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" hidden="1">
@@ -17830,7 +17898,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" hidden="1">
@@ -17838,10 +17906,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" hidden="1">
@@ -17852,7 +17920,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" hidden="1">
@@ -17860,10 +17928,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" hidden="1">
@@ -17871,10 +17939,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" hidden="1">
@@ -17885,7 +17953,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" hidden="1">
@@ -17896,7 +17964,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" hidden="1">
@@ -17904,10 +17972,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" hidden="1">
@@ -17918,7 +17986,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" hidden="1">
@@ -17926,10 +17994,10 @@
         <v>3663602848349</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" hidden="1">
@@ -17937,10 +18005,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" hidden="1">
@@ -17948,10 +18016,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" hidden="1">
@@ -17959,10 +18027,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" hidden="1">
@@ -17970,10 +18038,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" hidden="1">
@@ -17981,10 +18049,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" hidden="1">
@@ -17992,10 +18060,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" hidden="1">
@@ -18003,10 +18071,10 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" hidden="1">
@@ -18014,10 +18082,10 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" hidden="1">
@@ -18025,10 +18093,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" hidden="1">
@@ -18036,10 +18104,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" hidden="1">
@@ -18047,10 +18115,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" hidden="1">
@@ -18058,10 +18126,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" hidden="1">
@@ -18069,10 +18137,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" hidden="1">
@@ -18080,10 +18148,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" hidden="1">
@@ -18091,10 +18159,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" hidden="1">
@@ -18102,10 +18170,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" hidden="1">
@@ -18113,10 +18181,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" hidden="1">
@@ -18124,10 +18192,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" hidden="1">
@@ -18135,10 +18203,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" hidden="1">
@@ -18146,10 +18214,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" hidden="1">
@@ -18157,10 +18225,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" hidden="1">
@@ -18168,10 +18236,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" hidden="1">
@@ -18179,10 +18247,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" hidden="1">
@@ -18190,10 +18258,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" hidden="1">
@@ -18201,10 +18269,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" hidden="1">
@@ -18212,10 +18280,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" hidden="1">
@@ -18223,10 +18291,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" hidden="1">
@@ -18237,7 +18305,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" hidden="1">
@@ -18248,7 +18316,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" hidden="1">
@@ -18259,7 +18327,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" hidden="1">
@@ -18270,7 +18338,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" hidden="1">
@@ -18281,7 +18349,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" hidden="1">
@@ -18292,7 +18360,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" hidden="1">
@@ -18303,7 +18371,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" hidden="1">
@@ -18314,7 +18382,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" hidden="1">
@@ -18325,7 +18393,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" hidden="1">
@@ -18336,7 +18404,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" hidden="1">
@@ -18347,7 +18415,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" hidden="1">
@@ -18358,7 +18426,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" hidden="1">
@@ -18369,7 +18437,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" hidden="1">
@@ -18380,7 +18448,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" hidden="1">
@@ -18391,7 +18459,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" hidden="1">
@@ -18402,7 +18470,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" hidden="1">
@@ -18413,7 +18481,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
@@ -18424,7 +18492,7 @@
         <v>242</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
@@ -18435,7 +18503,7 @@
         <v>243</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
@@ -18446,7 +18514,7 @@
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -18457,7 +18525,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
@@ -18468,7 +18536,7 @@
         <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
@@ -18479,7 +18547,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
@@ -18490,7 +18558,7 @@
         <v>261</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18501,7 +18569,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18512,7 +18580,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
@@ -18523,7 +18591,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
@@ -18534,7 +18602,7 @@
         <v>232</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
@@ -18545,7 +18613,7 @@
         <v>235</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
@@ -18556,7 +18624,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
@@ -18567,7 +18635,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
@@ -18578,7 +18646,7 @@
         <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
@@ -18589,7 +18657,7 @@
         <v>234</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
@@ -18600,7 +18668,7 @@
         <v>239</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
@@ -18611,7 +18679,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
@@ -18622,7 +18690,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
@@ -18633,7 +18701,7 @@
         <v>277</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
@@ -18644,7 +18712,7 @@
         <v>266</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
@@ -18655,7 +18723,7 @@
         <v>263</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
@@ -18666,7 +18734,7 @@
         <v>268</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
@@ -18677,7 +18745,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
@@ -18688,7 +18756,7 @@
         <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
@@ -18699,7 +18767,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
@@ -18710,7 +18778,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
@@ -18721,7 +18789,7 @@
         <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
@@ -18732,7 +18800,7 @@
         <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
@@ -18743,7 +18811,7 @@
         <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
@@ -18754,7 +18822,7 @@
         <v>271</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
@@ -18765,7 +18833,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -18776,7 +18844,7 @@
         <v>251</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
@@ -18787,7 +18855,7 @@
         <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
@@ -18798,7 +18866,7 @@
         <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
@@ -18809,7 +18877,7 @@
         <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -18820,7 +18888,7 @@
         <v>248</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -18831,7 +18899,7 @@
         <v>257</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
@@ -18842,7 +18910,7 @@
         <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
@@ -18853,7 +18921,7 @@
         <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
@@ -18864,7 +18932,7 @@
         <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
@@ -18875,7 +18943,7 @@
         <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
@@ -18886,7 +18954,7 @@
         <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
@@ -18897,7 +18965,7 @@
         <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -18908,7 +18976,7 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
@@ -18919,7 +18987,7 @@
         <v>254</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -18930,7 +18998,7 @@
         <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
@@ -18941,7 +19009,7 @@
         <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
@@ -18952,7 +19020,7 @@
         <v>252</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
@@ -18963,7 +19031,7 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
@@ -18974,7 +19042,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
@@ -18985,7 +19053,7 @@
         <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
@@ -18996,7 +19064,7 @@
         <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -19010,10 +19078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210:E210"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19046,16 +19114,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19063,16 +19131,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19080,16 +19148,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19097,16 +19165,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19114,16 +19182,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19131,16 +19199,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19148,16 +19216,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19168,13 +19236,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19182,16 +19250,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19199,16 +19267,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19216,16 +19284,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19233,16 +19301,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19250,16 +19318,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19267,16 +19335,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19284,16 +19352,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19301,16 +19369,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19318,16 +19386,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19335,16 +19403,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19352,16 +19420,16 @@
         <v>8435414109278</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19369,16 +19437,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19386,16 +19454,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19403,16 +19471,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19420,16 +19488,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>626</v>
-      </c>
       <c r="D24" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19437,16 +19505,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19454,16 +19522,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19471,16 +19539,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19488,16 +19556,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19505,16 +19573,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19522,16 +19590,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19542,13 +19610,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D31" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19556,16 +19624,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19573,16 +19641,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19590,16 +19658,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19607,16 +19675,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19624,16 +19692,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19641,16 +19709,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19658,16 +19726,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19675,16 +19743,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19692,16 +19760,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19709,16 +19777,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19726,16 +19794,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19743,16 +19811,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>646</v>
-      </c>
       <c r="D43" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19760,16 +19828,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19777,16 +19845,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19794,16 +19862,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19811,16 +19879,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19828,16 +19896,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19845,16 +19913,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -19862,16 +19930,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D50" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -19879,16 +19947,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D51" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -19896,16 +19964,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -19913,16 +19981,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -19930,16 +19998,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -19947,16 +20015,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -19964,16 +20032,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -19981,16 +20049,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -19998,16 +20066,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20015,16 +20083,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20032,16 +20100,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20049,16 +20117,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20069,13 +20137,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20083,16 +20151,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20100,16 +20168,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20117,16 +20185,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20134,16 +20202,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20151,16 +20219,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D67" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="E67" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20168,16 +20236,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D68" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="E68" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20185,16 +20253,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D69" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="E69" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20202,16 +20270,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20219,16 +20287,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20236,16 +20304,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20256,13 +20324,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20270,16 +20338,16 @@
         <v>3663602848349</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20290,13 +20358,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20307,13 +20375,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20321,16 +20389,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20338,16 +20406,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>677</v>
-      </c>
       <c r="D78" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20355,16 +20423,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20372,16 +20440,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20392,13 +20460,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20406,16 +20474,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20423,16 +20491,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20440,16 +20508,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20457,16 +20525,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20474,16 +20542,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20491,16 +20559,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20508,16 +20576,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20525,16 +20593,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20542,16 +20610,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20559,16 +20627,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20576,16 +20644,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20593,16 +20661,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20610,16 +20678,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20627,16 +20695,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20644,16 +20712,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D96" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20661,16 +20729,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D97" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E97" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20681,13 +20749,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D98" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20698,13 +20766,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20715,13 +20783,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20732,13 +20800,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20746,16 +20814,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20763,16 +20831,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20780,16 +20848,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20797,16 +20865,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20814,16 +20882,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20831,16 +20899,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20848,16 +20916,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -20865,16 +20933,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20882,16 +20950,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20899,16 +20967,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -20916,16 +20984,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -20933,16 +21001,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -20950,16 +21018,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -20967,16 +21035,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -20987,13 +21055,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21004,13 +21072,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21021,13 +21089,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21038,13 +21106,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21052,16 +21120,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21069,16 +21137,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21086,16 +21154,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>715</v>
       </c>
-      <c r="C122" s="25" t="s">
-        <v>713</v>
-      </c>
       <c r="D122" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21103,16 +21171,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21123,13 +21191,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21140,13 +21208,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21157,13 +21225,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21174,13 +21242,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21188,16 +21256,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21205,16 +21273,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21222,16 +21290,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21242,13 +21310,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21256,16 +21324,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21276,13 +21344,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21293,13 +21361,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21307,16 +21375,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21327,13 +21395,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21341,16 +21409,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21358,16 +21426,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21375,16 +21443,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21392,16 +21460,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21409,16 +21477,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21429,13 +21497,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D142" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E142" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21443,16 +21511,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D143" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E143" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21460,16 +21528,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D144" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E144" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21477,16 +21545,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D145" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E145" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21494,16 +21562,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21511,16 +21579,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21528,16 +21596,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21545,16 +21613,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21565,13 +21633,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21582,13 +21650,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21599,13 +21667,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21613,16 +21681,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21630,16 +21698,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21647,16 +21715,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21664,16 +21732,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21681,16 +21749,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21698,16 +21766,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -21715,16 +21783,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -21732,16 +21800,16 @@
         <v>5059340221700</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -21749,16 +21817,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -21769,13 +21837,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -21783,16 +21851,16 @@
         <v>5059340357454</v>
       </c>
       <c r="B163" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C163" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="C163" s="25" t="s">
-        <v>738</v>
-      </c>
       <c r="D163" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -21800,16 +21868,16 @@
         <v>5059340357461</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -21820,13 +21888,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -21837,13 +21905,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -21854,13 +21922,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -21871,13 +21939,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -21888,13 +21956,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -21905,13 +21973,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -21922,13 +21990,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -21939,13 +22007,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -21956,13 +22024,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -21970,16 +22038,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D174" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E174" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -21987,16 +22055,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D175" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E175" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22004,16 +22072,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D176" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E176" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22021,16 +22089,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22038,16 +22106,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22058,13 +22126,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22075,13 +22143,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22092,13 +22160,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22106,16 +22174,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22126,13 +22194,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22140,16 +22208,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22157,16 +22225,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="C185" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="C185" s="25" t="s">
-        <v>748</v>
-      </c>
       <c r="D185" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22177,13 +22245,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22191,16 +22259,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22211,13 +22279,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22225,16 +22293,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22242,16 +22310,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22262,13 +22330,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22279,13 +22347,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22296,13 +22364,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22313,13 +22381,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22330,13 +22398,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22347,13 +22415,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D196" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E196" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22361,16 +22429,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D197" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E197" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="E197" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22378,16 +22446,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22398,13 +22466,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22412,16 +22480,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22429,16 +22497,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22446,16 +22514,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22466,13 +22534,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22483,13 +22551,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22500,13 +22568,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22514,16 +22582,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22534,13 +22602,13 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22551,13 +22619,13 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22568,13 +22636,13 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22585,13 +22653,30 @@
         <v>10</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>601</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="16.5">
+      <c r="A211" s="50">
+        <v>8429178985018</v>
+      </c>
+      <c r="B211" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E211" s="27" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46B1F1B-CE45-438E-B721-71D8E99FF666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77513FD1-4531-4002-8F55-EAB62367E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="762">
   <si>
     <t>EAN</t>
   </si>
@@ -1207,6 +1207,9 @@
     <t xml:space="preserve">PAVIMENTO SEGOVIA COTTO 33X33 C3 </t>
   </si>
   <si>
+    <t>PAVIMENTO COUNTRY NATURAL MATE 22X84</t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -3988,9 +3991,6 @@
   </si>
   <si>
     <t>#A PAV. NORWEGIO GRIS 30X60</t>
-  </si>
-  <si>
-    <t>#A PAV. MONACO 22,5X90</t>
   </si>
   <si>
     <t>WOODPROJECT 20X120</t>
@@ -4613,7 +4613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4698,6 +4698,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4705,13 +4711,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5178,8 +5177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J277" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J277" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J278" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J278" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5244,8 +5243,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E211" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E211" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E212" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E212" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{988177E9-8B74-4DA8-8D93-E60B539BC797}" name="EAN" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9354D9B3-F652-4D41-B841-C67C7F44B562}" name="descrpcion_es" dataDxfId="3"/>
@@ -5557,10 +5556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:B277"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278:B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9206,31 +9205,31 @@
       </c>
       <c r="D94" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E94" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>RACK 13</v>
-      </c>
-      <c r="F94" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>MODULO 2</v>
-      </c>
-      <c r="G94" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 5</v>
+        <v>NO</v>
+      </c>
+      <c r="E94" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H94" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I94" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J94" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-04-302</v>
+      <c r="J94" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75">
@@ -12232,31 +12231,31 @@
       <c r="C172" s="14"/>
       <c r="D172" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E172" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>RACK 13</v>
-      </c>
-      <c r="F172" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>MODULO 2</v>
-      </c>
-      <c r="G172" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 5</v>
+        <v>NO</v>
+      </c>
+      <c r="E172" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F172" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G172" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H172" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I172" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J172" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-04-302</v>
+      <c r="J172" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75">
@@ -16115,33 +16114,70 @@
         <v>285</v>
       </c>
       <c r="C277" s="14"/>
-      <c r="D277" s="46" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E277" s="46" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>RACK 11</v>
-      </c>
-      <c r="F277" s="46" t="str">
+      <c r="D277" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E277" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 10</v>
+      </c>
+      <c r="F277" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
         <v>MODULO 1</v>
       </c>
-      <c r="G277" s="46" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 3</v>
+      <c r="G277" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 4</v>
       </c>
       <c r="H277" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="I277" s="47" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J277" s="48" t="str">
+      <c r="I277" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J277" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-01-201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="15.75">
+      <c r="A278" s="12">
+        <v>8425925948268</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="48" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E278" s="48" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 13</v>
+      </c>
+      <c r="F278" s="48" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 2</v>
+      </c>
+      <c r="G278" s="48" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 5</v>
+      </c>
+      <c r="H278" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I278" s="49" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J278" s="50" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-04-302</v>
       </c>
     </row>
   </sheetData>
@@ -16157,13 +16193,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD18BE2-0DBC-4BB4-8FBE-BFB232B0B51D}">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:B150"/>
+    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16175,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16183,10 +16219,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16197,7 +16233,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16208,7 +16244,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16219,7 +16255,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16230,7 +16266,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16241,7 +16277,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16252,7 +16288,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16263,7 +16299,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16271,10 +16307,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16285,7 +16321,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16296,7 +16332,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16304,10 +16340,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16318,7 +16354,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16329,7 +16365,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16340,7 +16376,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16351,7 +16387,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16362,7 +16398,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -16373,7 +16409,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16384,7 +16420,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -16395,7 +16431,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16406,7 +16442,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16414,10 +16450,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16428,7 +16464,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -16439,7 +16475,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16450,7 +16486,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16461,7 +16497,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16472,7 +16508,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16480,10 +16516,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16494,7 +16530,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16502,10 +16538,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16516,7 +16552,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16527,7 +16563,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16538,7 +16574,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16549,7 +16585,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16560,7 +16596,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16571,7 +16607,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16582,7 +16618,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16593,7 +16629,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16604,7 +16640,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16612,10 +16648,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16626,7 +16662,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16637,7 +16673,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -16648,7 +16684,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -16659,7 +16695,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -16670,7 +16706,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -16681,7 +16717,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -16692,7 +16728,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -16703,7 +16739,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16714,7 +16750,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16725,7 +16761,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16736,7 +16772,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16747,7 +16783,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16758,7 +16794,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16769,7 +16805,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16777,10 +16813,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16788,10 +16824,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -16799,10 +16835,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -16810,10 +16846,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -16821,10 +16857,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -16835,7 +16871,7 @@
         <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -16846,7 +16882,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -16857,7 +16893,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -16868,7 +16904,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -16879,7 +16915,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -16887,10 +16923,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -16898,10 +16934,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -16909,10 +16945,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -16923,7 +16959,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -16934,7 +16970,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -16945,7 +16981,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -16956,7 +16992,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -16967,7 +17003,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -16978,7 +17014,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -16989,7 +17025,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17000,7 +17036,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17011,7 +17047,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17022,7 +17058,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17030,10 +17066,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17044,7 +17080,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17055,7 +17091,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17066,7 +17102,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17077,7 +17113,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17085,10 +17121,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17096,10 +17132,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17107,10 +17143,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17118,10 +17154,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17132,7 +17168,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17143,7 +17179,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17154,7 +17190,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17165,7 +17201,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17176,7 +17212,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17187,7 +17223,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17198,7 +17234,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17209,7 +17245,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17220,7 +17256,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -17231,7 +17267,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17242,7 +17278,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17253,7 +17289,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17264,7 +17300,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17275,7 +17311,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17286,7 +17322,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17297,7 +17333,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17308,18 +17344,18 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="28">
-        <v>8435414109278</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>180</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75">
+      <c r="A105" s="12">
+        <v>8425925948268</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -17330,7 +17366,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17341,7 +17377,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17352,7 +17388,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -17363,7 +17399,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17374,7 +17410,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17385,7 +17421,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17396,7 +17432,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17407,7 +17443,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17418,7 +17454,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17429,7 +17465,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17440,7 +17476,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17451,7 +17487,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17462,7 +17498,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17473,7 +17509,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17484,7 +17520,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -17495,7 +17531,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17506,7 +17542,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17517,7 +17553,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -17528,7 +17564,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -17539,7 +17575,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -17550,7 +17586,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -17561,7 +17597,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -17572,7 +17608,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -17583,7 +17619,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -17594,7 +17630,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17605,7 +17641,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -17616,7 +17652,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -17627,7 +17663,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17638,7 +17674,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -17649,7 +17685,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -17660,7 +17696,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -17671,7 +17707,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -17682,7 +17718,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17693,7 +17729,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17704,7 +17740,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17715,7 +17751,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17726,7 +17762,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17737,7 +17773,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17748,7 +17784,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17759,7 +17795,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17770,7 +17806,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17781,7 +17817,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -17792,7 +17828,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -17803,7 +17839,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -17813,8 +17849,8 @@
       <c r="B150" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C150" s="49" t="s">
-        <v>455</v>
+      <c r="C150" s="31" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -17854,7 +17890,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" hidden="1">
@@ -17862,10 +17898,10 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" hidden="1">
@@ -17873,10 +17909,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" hidden="1">
@@ -17887,7 +17923,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" hidden="1">
@@ -17898,7 +17934,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" hidden="1">
@@ -17906,10 +17942,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" hidden="1">
@@ -17920,7 +17956,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" hidden="1">
@@ -17928,10 +17964,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" hidden="1">
@@ -17939,10 +17975,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" hidden="1">
@@ -17953,7 +17989,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" hidden="1">
@@ -17964,7 +18000,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" hidden="1">
@@ -17972,10 +18008,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" hidden="1">
@@ -17986,7 +18022,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" hidden="1">
@@ -17994,10 +18030,10 @@
         <v>3663602848349</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" hidden="1">
@@ -18005,10 +18041,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" hidden="1">
@@ -18016,10 +18052,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" hidden="1">
@@ -18027,10 +18063,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" hidden="1">
@@ -18038,10 +18074,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" hidden="1">
@@ -18049,10 +18085,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" hidden="1">
@@ -18060,10 +18096,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" hidden="1">
@@ -18071,10 +18107,10 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" hidden="1">
@@ -18082,10 +18118,10 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" hidden="1">
@@ -18093,10 +18129,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" hidden="1">
@@ -18104,10 +18140,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" hidden="1">
@@ -18115,10 +18151,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" hidden="1">
@@ -18126,10 +18162,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" hidden="1">
@@ -18137,10 +18173,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" hidden="1">
@@ -18148,10 +18184,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" hidden="1">
@@ -18159,10 +18195,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" hidden="1">
@@ -18170,10 +18206,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" hidden="1">
@@ -18181,10 +18217,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" hidden="1">
@@ -18192,10 +18228,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" hidden="1">
@@ -18203,10 +18239,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" hidden="1">
@@ -18214,10 +18250,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" hidden="1">
@@ -18225,10 +18261,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" hidden="1">
@@ -18236,10 +18272,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" hidden="1">
@@ -18247,10 +18283,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" hidden="1">
@@ -18258,10 +18294,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" hidden="1">
@@ -18269,10 +18305,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" hidden="1">
@@ -18280,10 +18316,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" hidden="1">
@@ -18291,10 +18327,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" hidden="1">
@@ -18305,7 +18341,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" hidden="1">
@@ -18316,7 +18352,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" hidden="1">
@@ -18327,7 +18363,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" hidden="1">
@@ -18338,7 +18374,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" hidden="1">
@@ -18349,7 +18385,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" hidden="1">
@@ -18360,7 +18396,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" hidden="1">
@@ -18371,7 +18407,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" hidden="1">
@@ -18382,7 +18418,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" hidden="1">
@@ -18393,7 +18429,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" hidden="1">
@@ -18404,7 +18440,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" hidden="1">
@@ -18415,7 +18451,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" hidden="1">
@@ -18426,7 +18462,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" hidden="1">
@@ -18437,7 +18473,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" hidden="1">
@@ -18448,7 +18484,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" hidden="1">
@@ -18459,7 +18495,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" hidden="1">
@@ -18470,7 +18506,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" hidden="1">
@@ -18481,7 +18517,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
@@ -18492,7 +18528,7 @@
         <v>242</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
@@ -18503,7 +18539,7 @@
         <v>243</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
@@ -18514,7 +18550,7 @@
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -18525,7 +18561,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
@@ -18536,7 +18572,7 @@
         <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
@@ -18547,7 +18583,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
@@ -18558,7 +18594,7 @@
         <v>261</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18569,7 +18605,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18580,7 +18616,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
@@ -18591,7 +18627,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
@@ -18602,7 +18638,7 @@
         <v>232</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
@@ -18613,7 +18649,7 @@
         <v>235</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
@@ -18624,7 +18660,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
@@ -18635,7 +18671,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
@@ -18646,7 +18682,7 @@
         <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
@@ -18657,7 +18693,7 @@
         <v>234</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
@@ -18668,7 +18704,7 @@
         <v>239</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
@@ -18679,7 +18715,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
@@ -18690,7 +18726,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
@@ -18701,7 +18737,7 @@
         <v>277</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
@@ -18712,7 +18748,7 @@
         <v>266</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
@@ -18723,7 +18759,7 @@
         <v>263</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
@@ -18734,7 +18770,7 @@
         <v>268</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
@@ -18745,7 +18781,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
@@ -18756,7 +18792,7 @@
         <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
@@ -18767,7 +18803,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
@@ -18778,7 +18814,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
@@ -18789,7 +18825,7 @@
         <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
@@ -18800,7 +18836,7 @@
         <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
@@ -18811,7 +18847,7 @@
         <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
@@ -18822,7 +18858,7 @@
         <v>271</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
@@ -18833,7 +18869,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -18844,7 +18880,7 @@
         <v>251</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
@@ -18855,7 +18891,7 @@
         <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
@@ -18866,7 +18902,7 @@
         <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
@@ -18877,7 +18913,7 @@
         <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -18888,7 +18924,7 @@
         <v>248</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -18899,7 +18935,7 @@
         <v>257</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
@@ -18910,7 +18946,7 @@
         <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
@@ -18921,7 +18957,7 @@
         <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
@@ -18932,7 +18968,7 @@
         <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
@@ -18943,7 +18979,7 @@
         <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
@@ -18954,7 +18990,7 @@
         <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
@@ -18965,7 +19001,7 @@
         <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -18976,7 +19012,7 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
@@ -18987,7 +19023,7 @@
         <v>254</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -18998,7 +19034,7 @@
         <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
@@ -19009,7 +19045,7 @@
         <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
@@ -19020,7 +19056,7 @@
         <v>252</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
@@ -19031,7 +19067,7 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
@@ -19042,7 +19078,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
@@ -19053,7 +19089,7 @@
         <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
@@ -19064,7 +19100,7 @@
         <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -19078,10 +19114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="I211" sqref="I211"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19114,16 +19150,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19131,16 +19167,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19148,16 +19184,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19165,16 +19201,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>609</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19182,16 +19218,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19199,16 +19235,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>612</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19216,16 +19252,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19236,13 +19272,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19250,16 +19286,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19267,16 +19303,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>616</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19284,16 +19320,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19301,16 +19337,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19318,16 +19354,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19335,16 +19371,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19352,16 +19388,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19369,16 +19405,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19386,16 +19422,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19403,33 +19439,33 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="12">
+        <v>8425925948268</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="24">
-        <v>8435414109278</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>601</v>
-      </c>
       <c r="D20" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19440,13 +19476,13 @@
         <v>626</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19460,10 +19496,10 @@
         <v>628</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19477,10 +19513,10 @@
         <v>628</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19494,10 +19530,10 @@
         <v>628</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19511,10 +19547,10 @@
         <v>628</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19528,10 +19564,10 @@
         <v>628</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19545,10 +19581,10 @@
         <v>628</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19562,10 +19598,10 @@
         <v>628</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19579,10 +19615,10 @@
         <v>628</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19596,10 +19632,10 @@
         <v>628</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19613,10 +19649,10 @@
         <v>628</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19630,10 +19666,10 @@
         <v>628</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19647,10 +19683,10 @@
         <v>628</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19664,10 +19700,10 @@
         <v>628</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19681,10 +19717,10 @@
         <v>641</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19698,10 +19734,10 @@
         <v>628</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19715,10 +19751,10 @@
         <v>628</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19732,10 +19768,10 @@
         <v>628</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19749,10 +19785,10 @@
         <v>628</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19766,10 +19802,10 @@
         <v>628</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19783,10 +19819,10 @@
         <v>648</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19800,10 +19836,10 @@
         <v>648</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19817,10 +19853,10 @@
         <v>648</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19834,10 +19870,10 @@
         <v>648</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19851,10 +19887,10 @@
         <v>648</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19868,10 +19904,10 @@
         <v>648</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19885,10 +19921,10 @@
         <v>648</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19902,10 +19938,10 @@
         <v>648</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19919,10 +19955,10 @@
         <v>648</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -19936,10 +19972,10 @@
         <v>648</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -19953,10 +19989,10 @@
         <v>648</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -19970,10 +20006,10 @@
         <v>648</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -19987,10 +20023,10 @@
         <v>648</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20004,10 +20040,10 @@
         <v>648</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20021,10 +20057,10 @@
         <v>648</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20038,10 +20074,10 @@
         <v>641</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20055,10 +20091,10 @@
         <v>641</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20072,10 +20108,10 @@
         <v>641</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20089,10 +20125,10 @@
         <v>641</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20106,10 +20142,10 @@
         <v>641</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20123,10 +20159,10 @@
         <v>641</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20140,10 +20176,10 @@
         <v>641</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20157,10 +20193,10 @@
         <v>641</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20168,16 +20204,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>641</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20191,10 +20227,10 @@
         <v>641</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20208,10 +20244,10 @@
         <v>641</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20225,10 +20261,10 @@
         <v>641</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20242,10 +20278,10 @@
         <v>641</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20259,10 +20295,10 @@
         <v>641</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20276,10 +20312,10 @@
         <v>641</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20293,10 +20329,10 @@
         <v>641</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20310,10 +20346,10 @@
         <v>641</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20327,10 +20363,10 @@
         <v>641</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20344,10 +20380,10 @@
         <v>679</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20361,10 +20397,10 @@
         <v>679</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20378,10 +20414,10 @@
         <v>679</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20395,10 +20431,10 @@
         <v>679</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20412,10 +20448,10 @@
         <v>679</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20429,10 +20465,10 @@
         <v>679</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20446,10 +20482,10 @@
         <v>679</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20463,10 +20499,10 @@
         <v>679</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20480,10 +20516,10 @@
         <v>679</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20497,10 +20533,10 @@
         <v>679</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20514,10 +20550,10 @@
         <v>679</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20531,10 +20567,10 @@
         <v>679</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20548,10 +20584,10 @@
         <v>679</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20565,10 +20601,10 @@
         <v>679</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20582,10 +20618,10 @@
         <v>679</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20599,10 +20635,10 @@
         <v>679</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20616,10 +20652,10 @@
         <v>679</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20633,10 +20669,10 @@
         <v>679</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20650,10 +20686,10 @@
         <v>679</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20667,10 +20703,10 @@
         <v>679</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20684,10 +20720,10 @@
         <v>679</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20701,10 +20737,10 @@
         <v>679</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20718,10 +20754,10 @@
         <v>679</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20735,10 +20771,10 @@
         <v>679</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20752,10 +20788,10 @@
         <v>679</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20769,10 +20805,10 @@
         <v>679</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20786,10 +20822,10 @@
         <v>679</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20803,10 +20839,10 @@
         <v>679</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20820,10 +20856,10 @@
         <v>679</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20837,10 +20873,10 @@
         <v>679</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20854,10 +20890,10 @@
         <v>679</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20871,10 +20907,10 @@
         <v>679</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20888,10 +20924,10 @@
         <v>679</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20905,10 +20941,10 @@
         <v>679</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20922,10 +20958,10 @@
         <v>679</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -20939,10 +20975,10 @@
         <v>679</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20956,10 +20992,10 @@
         <v>679</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20973,10 +21009,10 @@
         <v>679</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -20990,10 +21026,10 @@
         <v>679</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21007,10 +21043,10 @@
         <v>679</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21024,10 +21060,10 @@
         <v>679</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21041,10 +21077,10 @@
         <v>679</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21058,10 +21094,10 @@
         <v>679</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21075,10 +21111,10 @@
         <v>679</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21092,10 +21128,10 @@
         <v>679</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21109,10 +21145,10 @@
         <v>679</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21126,10 +21162,10 @@
         <v>715</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21143,10 +21179,10 @@
         <v>715</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21160,10 +21196,10 @@
         <v>715</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21177,10 +21213,10 @@
         <v>715</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21194,10 +21230,10 @@
         <v>715</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21211,10 +21247,10 @@
         <v>715</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21228,10 +21264,10 @@
         <v>715</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21245,10 +21281,10 @@
         <v>715</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21262,10 +21298,10 @@
         <v>715</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21279,10 +21315,10 @@
         <v>715</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21296,10 +21332,10 @@
         <v>715</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21313,10 +21349,10 @@
         <v>715</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21330,10 +21366,10 @@
         <v>715</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21347,10 +21383,10 @@
         <v>715</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21364,10 +21400,10 @@
         <v>715</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21375,16 +21411,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>715</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21398,10 +21434,10 @@
         <v>715</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21415,10 +21451,10 @@
         <v>715</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21432,10 +21468,10 @@
         <v>715</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21449,10 +21485,10 @@
         <v>715</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21466,10 +21502,10 @@
         <v>715</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21483,10 +21519,10 @@
         <v>715</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21500,10 +21536,10 @@
         <v>715</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21517,10 +21553,10 @@
         <v>715</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21534,10 +21570,10 @@
         <v>715</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21545,16 +21581,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C145" s="25" t="s">
         <v>715</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21568,10 +21604,10 @@
         <v>715</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21585,10 +21621,10 @@
         <v>715</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21596,16 +21632,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C148" s="25" t="s">
         <v>715</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21619,10 +21655,10 @@
         <v>715</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21636,10 +21672,10 @@
         <v>715</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21653,10 +21689,10 @@
         <v>715</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21670,10 +21706,10 @@
         <v>715</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21687,10 +21723,10 @@
         <v>715</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21698,16 +21734,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>715</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21721,10 +21757,10 @@
         <v>715</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21738,10 +21774,10 @@
         <v>715</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21755,10 +21791,10 @@
         <v>715</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21772,10 +21808,10 @@
         <v>715</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -21789,10 +21825,10 @@
         <v>715</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -21806,10 +21842,10 @@
         <v>740</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -21823,10 +21859,10 @@
         <v>740</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -21840,10 +21876,10 @@
         <v>740</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -21857,10 +21893,10 @@
         <v>740</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -21874,10 +21910,10 @@
         <v>740</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -21891,10 +21927,10 @@
         <v>740</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -21908,10 +21944,10 @@
         <v>740</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -21925,10 +21961,10 @@
         <v>740</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -21942,10 +21978,10 @@
         <v>740</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -21959,10 +21995,10 @@
         <v>740</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -21976,10 +22012,10 @@
         <v>740</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -21993,10 +22029,10 @@
         <v>740</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22010,10 +22046,10 @@
         <v>740</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22027,10 +22063,10 @@
         <v>740</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22044,10 +22080,10 @@
         <v>740</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22061,10 +22097,10 @@
         <v>740</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22078,10 +22114,10 @@
         <v>740</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22095,10 +22131,10 @@
         <v>740</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22112,10 +22148,10 @@
         <v>740</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22129,10 +22165,10 @@
         <v>740</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22146,10 +22182,10 @@
         <v>740</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22163,10 +22199,10 @@
         <v>740</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22180,10 +22216,10 @@
         <v>750</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22197,10 +22233,10 @@
         <v>750</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22214,10 +22250,10 @@
         <v>750</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22231,10 +22267,10 @@
         <v>750</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22248,10 +22284,10 @@
         <v>750</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22265,10 +22301,10 @@
         <v>750</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22282,10 +22318,10 @@
         <v>750</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22299,10 +22335,10 @@
         <v>750</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22316,10 +22352,10 @@
         <v>750</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22333,10 +22369,10 @@
         <v>750</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22350,10 +22386,10 @@
         <v>750</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22367,10 +22403,10 @@
         <v>750</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22384,10 +22420,10 @@
         <v>750</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22401,10 +22437,10 @@
         <v>750</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22418,10 +22454,10 @@
         <v>750</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22435,10 +22471,10 @@
         <v>750</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22452,10 +22488,10 @@
         <v>750</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22469,10 +22505,10 @@
         <v>750</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22486,10 +22522,10 @@
         <v>750</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22503,10 +22539,10 @@
         <v>750</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22520,10 +22556,10 @@
         <v>750</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22537,10 +22573,10 @@
         <v>750</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22554,10 +22590,10 @@
         <v>750</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22571,10 +22607,10 @@
         <v>750</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22588,10 +22624,10 @@
         <v>750</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22605,10 +22641,10 @@
         <v>750</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22622,10 +22658,10 @@
         <v>750</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22639,10 +22675,10 @@
         <v>715</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22656,28 +22692,35 @@
         <v>679</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E210" s="45" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="16.5">
+      <c r="A211" s="46">
+        <v>8429178985018</v>
+      </c>
+      <c r="B211" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="D211" s="27" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="16.5">
-      <c r="A211" s="50">
-        <v>8429178985018</v>
-      </c>
-      <c r="B211" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>602</v>
-      </c>
       <c r="E211" s="27" t="s">
-        <v>611</v>
-      </c>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75">
+      <c r="A212" s="26"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77513FD1-4531-4002-8F55-EAB62367E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C689FD7-2CD9-42DB-A6CE-FB0B45FBC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -4613,7 +4613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4704,13 +4704,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5223,13 +5216,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}" name="SELF" displayName="SELF" ref="A1:C111" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="A1:C111" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*RODAPIE*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C111" xr:uid="{8875C8A0-D233-484E-906D-451B9A52086F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C111">
     <sortCondition ref="C1:C111"/>
   </sortState>
@@ -5558,8 +5545,8 @@
   </sheetPr>
   <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278:B278"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13296,7 +13283,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.75">
       <c r="A201" s="9">
-        <v>5059340221700</v>
+        <v>5063022712677</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>209</v>
@@ -13370,7 +13357,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75">
       <c r="A203" s="9">
-        <v>5059340357461</v>
+        <v>5063022712653</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>211</v>
@@ -13481,7 +13468,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75">
       <c r="A206" s="9">
-        <v>5059340357454</v>
+        <v>5063022712707</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>214</v>
@@ -16151,19 +16138,19 @@
         <v>286</v>
       </c>
       <c r="C278" s="14"/>
-      <c r="D278" s="48" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E278" s="48" t="str">
+      <c r="D278" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E278" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
         <v>RACK 13</v>
       </c>
-      <c r="F278" s="48" t="str">
+      <c r="F278" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
         <v>MODULO 2</v>
       </c>
-      <c r="G278" s="48" t="str">
+      <c r="G278" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>FILA 5</v>
       </c>
@@ -16171,11 +16158,11 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="I278" s="49" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J278" s="50" t="str">
+      <c r="I278" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J278" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-04-302</v>
       </c>
@@ -17869,8 +17856,8 @@
   </sheetPr>
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -17893,7 +17880,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" hidden="1">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="8">
         <v>5059340719535</v>
       </c>
@@ -17904,7 +17891,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" hidden="1">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="8">
         <v>5059340719658</v>
       </c>
@@ -17915,7 +17902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" hidden="1">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="8">
         <v>5059340460208</v>
       </c>
@@ -17926,7 +17913,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" hidden="1">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="8">
         <v>5059340781969</v>
       </c>
@@ -17937,7 +17924,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" hidden="1">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="8">
         <v>5036581065768</v>
       </c>
@@ -17948,7 +17935,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" hidden="1">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="8">
         <v>5059340719542</v>
       </c>
@@ -17959,7 +17946,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" hidden="1">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="8">
         <v>8435414126275</v>
       </c>
@@ -17970,7 +17957,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" hidden="1">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="8">
         <v>5036581064877</v>
       </c>
@@ -17981,7 +17968,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" hidden="1">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="8">
         <v>5059340719559</v>
       </c>
@@ -17992,7 +17979,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" hidden="1">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="8">
         <v>5059340269535</v>
       </c>
@@ -18003,7 +17990,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" hidden="1">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="8">
         <v>5036581064310</v>
       </c>
@@ -18014,7 +18001,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" hidden="1">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="8">
         <v>5036581063887</v>
       </c>
@@ -18025,7 +18012,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" hidden="1">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="8">
         <v>3663602848349</v>
       </c>
@@ -18036,7 +18023,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" hidden="1">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="8">
         <v>5036581064679</v>
       </c>
@@ -18047,7 +18034,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" hidden="1">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="8">
         <v>5059340433233</v>
       </c>
@@ -18058,7 +18045,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" hidden="1">
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="8">
         <v>8435414126282</v>
       </c>
@@ -18069,7 +18056,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" hidden="1">
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="8">
         <v>3663602679332</v>
       </c>
@@ -18080,7 +18067,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" hidden="1">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="8">
         <v>8435414127845</v>
       </c>
@@ -18091,7 +18078,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" hidden="1">
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="8">
         <v>8429178156050</v>
       </c>
@@ -18102,7 +18089,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" hidden="1">
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="8">
         <v>8429178398283</v>
       </c>
@@ -18113,7 +18100,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" hidden="1">
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="8">
         <v>8435609380802</v>
       </c>
@@ -18124,7 +18111,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" hidden="1">
+    <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="8">
         <v>8429178840003</v>
       </c>
@@ -18135,7 +18122,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" hidden="1">
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="8">
         <v>8432712278026</v>
       </c>
@@ -18146,7 +18133,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" hidden="1">
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="8">
         <v>5059340433240</v>
       </c>
@@ -18157,7 +18144,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" hidden="1">
+    <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="8">
         <v>5059340460383</v>
       </c>
@@ -18168,7 +18155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" hidden="1">
+    <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="8">
         <v>5059340720968</v>
       </c>
@@ -18179,7 +18166,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" hidden="1">
+    <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="8">
         <v>8435609330777</v>
       </c>
@@ -18190,7 +18177,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" hidden="1">
+    <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="8">
         <v>8429991953478</v>
       </c>
@@ -18201,7 +18188,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" hidden="1">
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="8">
         <v>5059340720951</v>
       </c>
@@ -18212,7 +18199,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" hidden="1">
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="8">
         <v>5063022645289</v>
       </c>
@@ -18223,7 +18210,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" hidden="1">
+    <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="8">
         <v>8429991953577</v>
       </c>
@@ -18234,7 +18221,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" hidden="1">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="8">
         <v>5059340870663</v>
       </c>
@@ -18245,7 +18232,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" hidden="1">
+    <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="8">
         <v>3663602678366</v>
       </c>
@@ -18256,7 +18243,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" hidden="1">
+    <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="9">
         <v>5059340719610</v>
       </c>
@@ -18267,7 +18254,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" hidden="1">
+    <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="8">
         <v>5059340720982</v>
       </c>
@@ -18278,7 +18265,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" hidden="1">
+    <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="8">
         <v>5059340720975</v>
       </c>
@@ -18289,7 +18276,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" hidden="1">
+    <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="8">
         <v>8435414120211</v>
       </c>
@@ -18300,7 +18287,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" hidden="1">
+    <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="8">
         <v>8435414118669</v>
       </c>
@@ -18311,7 +18298,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" hidden="1">
+    <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="8">
         <v>5036581058319</v>
       </c>
@@ -18322,7 +18309,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" hidden="1">
+    <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="9">
         <v>5036581058326</v>
       </c>
@@ -18333,7 +18320,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" hidden="1">
+    <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="9">
         <v>8435609317396</v>
       </c>
@@ -18344,7 +18331,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" hidden="1">
+    <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="22">
         <v>8435609378458</v>
       </c>
@@ -18355,7 +18342,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" hidden="1">
+    <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="9">
         <v>5059340194042</v>
       </c>
@@ -18366,7 +18353,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" hidden="1">
+    <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="9">
         <v>5063022085641</v>
       </c>
@@ -18377,7 +18364,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" hidden="1">
+    <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="9">
         <v>5063022047830</v>
       </c>
@@ -18388,7 +18375,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" hidden="1">
+    <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="9">
         <v>3663602997436</v>
       </c>
@@ -18399,7 +18386,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" hidden="1">
+    <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="9">
         <v>5063022047847</v>
       </c>
@@ -18410,7 +18397,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" hidden="1">
+    <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="9">
         <v>5059340391441</v>
       </c>
@@ -18421,7 +18408,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" hidden="1">
+    <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="9">
         <v>5063022611239</v>
       </c>
@@ -18432,9 +18419,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" hidden="1">
+    <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="9">
-        <v>5059340221700</v>
+        <v>5063022712677</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>209</v>
@@ -18443,7 +18430,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" hidden="1">
+    <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="9">
         <v>5059340969626</v>
       </c>
@@ -18454,9 +18441,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" hidden="1">
+    <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="9">
-        <v>5059340357461</v>
+        <v>5063022712653</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>211</v>
@@ -18465,7 +18452,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" hidden="1">
+    <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="9">
         <v>5059340969664</v>
       </c>
@@ -18476,7 +18463,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" hidden="1">
+    <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="9">
         <v>5059340969633</v>
       </c>
@@ -18487,9 +18474,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" hidden="1">
+    <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="9">
-        <v>5059340357454</v>
+        <v>5063022712707</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>214</v>
@@ -18498,7 +18485,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" hidden="1">
+    <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="9">
         <v>5059340969640</v>
       </c>
@@ -18509,7 +18496,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" hidden="1">
+    <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="9">
         <v>5059340969657</v>
       </c>
@@ -19116,8 +19103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21833,7 +21820,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="24">
-        <v>5059340221700</v>
+        <v>5063022712677</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>739</v>
@@ -21884,7 +21871,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="24">
-        <v>5059340357454</v>
+        <v>5063022712707</v>
       </c>
       <c r="B163" s="25" t="s">
         <v>742</v>
@@ -21901,7 +21888,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="24">
-        <v>5059340357461</v>
+        <v>5063022712653</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>743</v>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C689FD7-2CD9-42DB-A6CE-FB0B45FBC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604AF263-31C7-4C5B-BE77-1F8439F6B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="763">
   <si>
     <t>EAN</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>PAVIMENTO COUNTRY NATURAL MATE 22X84</t>
+  </si>
+  <si>
+    <t>AZULEJO BL ALEXANDRINA MATE 25X40</t>
   </si>
   <si>
     <t>ubicacion</t>
@@ -4613,7 +4616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4704,6 +4707,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5170,8 +5180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J278" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J278" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J279" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J279" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5543,10 +5553,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5906,7 +5916,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="12">
-        <v>3663602848349</v>
+        <v>5036581064259</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
@@ -16165,6 +16175,43 @@
       <c r="J278" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-04-302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15.75">
+      <c r="A279" s="12">
+        <v>5063022639653</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="48" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E279" s="48" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F279" s="48" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G279" s="48" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H279" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="I279" s="49" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J279" s="50" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -16198,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16206,10 +16253,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16220,7 +16267,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16231,7 +16278,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16242,7 +16289,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16253,7 +16300,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16264,7 +16311,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16275,7 +16322,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16286,7 +16333,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16294,10 +16341,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16308,7 +16355,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16319,7 +16366,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16327,10 +16374,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16341,7 +16388,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16352,7 +16399,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16363,7 +16410,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16374,7 +16421,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16385,7 +16432,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -16396,7 +16443,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16407,7 +16454,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -16418,7 +16465,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16429,7 +16476,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16437,10 +16484,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16451,7 +16498,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -16462,7 +16509,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16473,7 +16520,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16484,7 +16531,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16495,7 +16542,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16503,10 +16550,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16517,7 +16564,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16525,10 +16572,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16539,7 +16586,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16550,7 +16597,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16561,7 +16608,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16572,7 +16619,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16583,7 +16630,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16594,7 +16641,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16605,7 +16652,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16616,7 +16663,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16627,7 +16674,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16635,10 +16682,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16649,7 +16696,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16660,7 +16707,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -16671,7 +16718,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -16682,7 +16729,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -16693,7 +16740,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -16704,7 +16751,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -16715,7 +16762,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -16726,7 +16773,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16737,7 +16784,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16748,7 +16795,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16759,7 +16806,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16770,7 +16817,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16781,7 +16828,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16792,7 +16839,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16800,10 +16847,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16811,10 +16858,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -16822,10 +16869,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -16833,10 +16880,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -16844,10 +16891,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -16858,7 +16905,7 @@
         <v>179</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -16869,7 +16916,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -16880,7 +16927,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -16891,7 +16938,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -16902,7 +16949,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -16910,10 +16957,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -16921,10 +16968,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -16932,10 +16979,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -16946,7 +16993,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -16957,7 +17004,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -16968,7 +17015,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -16979,7 +17026,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -16990,7 +17037,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17001,7 +17048,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17012,7 +17059,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17023,7 +17070,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17034,7 +17081,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17045,7 +17092,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17053,10 +17100,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17067,7 +17114,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17078,7 +17125,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17089,7 +17136,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17100,7 +17147,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17108,10 +17155,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17119,10 +17166,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17130,10 +17177,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17141,10 +17188,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17155,7 +17202,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17166,7 +17213,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17177,7 +17224,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17188,7 +17235,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17199,7 +17246,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17210,7 +17257,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17221,7 +17268,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17232,7 +17279,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17243,7 +17290,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -17254,7 +17301,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17265,7 +17312,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17276,7 +17323,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17287,7 +17334,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17298,7 +17345,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17309,7 +17356,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17320,7 +17367,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17331,7 +17378,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -17342,7 +17389,7 @@
         <v>286</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -17353,7 +17400,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17364,7 +17411,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17375,7 +17422,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -17386,7 +17433,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17397,7 +17444,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17408,7 +17455,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17419,7 +17466,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17430,7 +17477,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17441,7 +17488,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17452,7 +17499,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17463,7 +17510,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17474,7 +17521,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17485,7 +17532,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17496,7 +17543,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17507,7 +17554,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -17518,7 +17565,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17529,7 +17576,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17540,7 +17587,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -17551,7 +17598,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -17562,7 +17609,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -17573,7 +17620,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -17584,7 +17631,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -17595,7 +17642,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -17606,7 +17653,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -17617,7 +17664,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17628,7 +17675,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -17639,7 +17686,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -17650,7 +17697,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17661,7 +17708,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -17672,7 +17719,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -17683,7 +17730,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -17694,7 +17741,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -17705,7 +17752,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17716,7 +17763,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17727,7 +17774,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17738,7 +17785,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17749,7 +17796,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17760,7 +17807,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17771,7 +17818,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17782,7 +17829,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17793,7 +17840,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17804,7 +17851,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -17815,7 +17862,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -17826,7 +17873,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -17837,7 +17884,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -17856,8 +17903,8 @@
   </sheetPr>
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -17877,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -17885,10 +17932,10 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -17896,10 +17943,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -17910,7 +17957,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -17921,7 +17968,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -17929,10 +17976,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -17943,7 +17990,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -17951,10 +17998,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -17962,10 +18009,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -17976,7 +18023,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -17987,7 +18034,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
@@ -17995,10 +18042,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
@@ -18009,18 +18056,18 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="8">
-        <v>3663602848349</v>
+        <v>5036581064259</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
@@ -18028,10 +18075,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -18039,10 +18086,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -18050,10 +18097,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
@@ -18061,10 +18108,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -18072,10 +18119,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -18083,10 +18130,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -18094,10 +18141,10 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -18105,10 +18152,10 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -18116,10 +18163,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -18127,10 +18174,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -18138,10 +18185,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -18149,10 +18196,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
@@ -18160,10 +18207,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
@@ -18171,10 +18218,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
@@ -18182,10 +18229,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
@@ -18193,10 +18240,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
@@ -18204,10 +18251,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
@@ -18215,10 +18262,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
@@ -18226,10 +18273,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
@@ -18237,10 +18284,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
@@ -18248,10 +18295,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
@@ -18259,10 +18306,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
@@ -18270,10 +18317,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
@@ -18281,10 +18328,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
@@ -18292,10 +18339,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
@@ -18303,10 +18350,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75">
@@ -18314,10 +18361,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
@@ -18328,7 +18375,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
@@ -18339,7 +18386,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -18350,7 +18397,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
@@ -18361,7 +18408,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
@@ -18372,7 +18419,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -18383,7 +18430,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
@@ -18394,7 +18441,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
@@ -18405,7 +18452,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
@@ -18416,7 +18463,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
@@ -18427,7 +18474,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
@@ -18438,7 +18485,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75">
@@ -18449,7 +18496,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
@@ -18460,7 +18507,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75">
@@ -18471,7 +18518,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
@@ -18482,7 +18529,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
@@ -18493,7 +18540,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75">
@@ -18504,7 +18551,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
@@ -18515,7 +18562,7 @@
         <v>242</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
@@ -18526,7 +18573,7 @@
         <v>243</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
@@ -18537,7 +18584,7 @@
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -18548,7 +18595,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
@@ -18559,7 +18606,7 @@
         <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
@@ -18570,7 +18617,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
@@ -18581,7 +18628,7 @@
         <v>261</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18592,7 +18639,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18603,7 +18650,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
@@ -18614,7 +18661,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
@@ -18625,7 +18672,7 @@
         <v>232</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
@@ -18636,7 +18683,7 @@
         <v>235</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
@@ -18647,7 +18694,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
@@ -18658,7 +18705,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
@@ -18669,7 +18716,7 @@
         <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
@@ -18680,7 +18727,7 @@
         <v>234</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
@@ -18691,7 +18738,7 @@
         <v>239</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
@@ -18702,7 +18749,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
@@ -18713,7 +18760,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
@@ -18724,7 +18771,7 @@
         <v>277</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
@@ -18735,7 +18782,7 @@
         <v>266</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
@@ -18746,7 +18793,7 @@
         <v>263</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
@@ -18757,7 +18804,7 @@
         <v>268</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
@@ -18768,7 +18815,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
@@ -18779,7 +18826,7 @@
         <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
@@ -18790,7 +18837,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
@@ -18801,7 +18848,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
@@ -18812,7 +18859,7 @@
         <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
@@ -18823,7 +18870,7 @@
         <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
@@ -18834,7 +18881,7 @@
         <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
@@ -18845,7 +18892,7 @@
         <v>271</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
@@ -18856,7 +18903,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -18867,7 +18914,7 @@
         <v>251</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
@@ -18878,7 +18925,7 @@
         <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
@@ -18889,7 +18936,7 @@
         <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
@@ -18900,7 +18947,7 @@
         <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -18911,7 +18958,7 @@
         <v>248</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -18922,7 +18969,7 @@
         <v>257</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
@@ -18933,7 +18980,7 @@
         <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
@@ -18944,7 +18991,7 @@
         <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
@@ -18955,7 +19002,7 @@
         <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
@@ -18966,7 +19013,7 @@
         <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
@@ -18977,7 +19024,7 @@
         <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
@@ -18988,7 +19035,7 @@
         <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -18999,7 +19046,7 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
@@ -19010,7 +19057,7 @@
         <v>254</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -19021,7 +19068,7 @@
         <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
@@ -19032,7 +19079,7 @@
         <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
@@ -19043,7 +19090,7 @@
         <v>252</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
@@ -19054,7 +19101,7 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
@@ -19065,7 +19112,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
@@ -19076,7 +19123,7 @@
         <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
@@ -19087,7 +19134,7 @@
         <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -19103,8 +19150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19137,16 +19184,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19154,16 +19201,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19171,16 +19218,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19188,16 +19235,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19205,16 +19252,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19222,16 +19269,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>613</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19239,16 +19286,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19259,13 +19306,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19273,16 +19320,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19290,16 +19337,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>617</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19307,16 +19354,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19324,16 +19371,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19341,16 +19388,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19358,16 +19405,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19375,16 +19422,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19392,16 +19439,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19409,16 +19456,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19426,16 +19473,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -19446,13 +19493,13 @@
         <v>286</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19460,16 +19507,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19477,16 +19524,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19494,16 +19541,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>628</v>
-      </c>
       <c r="D23" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19511,16 +19558,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19528,16 +19575,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19545,16 +19592,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19562,16 +19609,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19579,16 +19626,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19596,16 +19643,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19613,16 +19660,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19633,13 +19680,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19647,16 +19694,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19664,16 +19711,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19681,16 +19728,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19698,16 +19745,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19715,16 +19762,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19732,16 +19779,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19749,16 +19796,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19766,16 +19813,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19783,16 +19830,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19800,16 +19847,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19817,16 +19864,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>648</v>
-      </c>
       <c r="D42" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19834,16 +19881,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19851,16 +19898,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19868,16 +19915,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19885,16 +19932,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19902,16 +19949,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19919,16 +19966,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19936,16 +19983,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -19953,16 +20000,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -19970,16 +20017,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -19987,16 +20034,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20004,16 +20051,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20021,16 +20068,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20038,16 +20085,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20055,16 +20102,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20072,16 +20119,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20089,16 +20136,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20106,16 +20153,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20123,16 +20170,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20140,16 +20187,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20160,13 +20207,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20174,16 +20221,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20191,16 +20238,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20208,16 +20255,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20225,16 +20272,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20242,16 +20289,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20259,16 +20306,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20276,16 +20323,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20293,16 +20340,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20310,16 +20357,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20327,16 +20374,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20347,30 +20394,30 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="24">
-        <v>3663602848349</v>
+        <v>5036581064259</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20381,13 +20428,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20398,13 +20445,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20412,16 +20459,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>679</v>
-      </c>
       <c r="D77" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20429,16 +20476,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20446,16 +20493,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20463,16 +20510,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20483,13 +20530,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20497,16 +20544,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20514,16 +20561,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20531,16 +20578,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20548,16 +20595,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20565,16 +20612,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20582,16 +20629,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20599,16 +20646,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20616,16 +20663,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20633,16 +20680,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20650,16 +20697,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20667,16 +20714,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20684,16 +20731,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20701,16 +20748,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20718,16 +20765,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20735,16 +20782,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20752,16 +20799,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20772,13 +20819,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20789,13 +20836,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20806,13 +20853,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20823,13 +20870,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20837,16 +20884,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20854,16 +20901,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20871,16 +20918,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20888,16 +20935,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20905,16 +20952,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20922,16 +20969,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20939,16 +20986,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -20956,16 +21003,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20973,16 +21020,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20990,16 +21037,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -21007,16 +21054,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21024,16 +21071,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21041,16 +21088,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21058,16 +21105,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21078,13 +21125,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21095,13 +21142,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21112,13 +21159,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21129,13 +21176,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21143,16 +21190,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21160,16 +21207,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="C121" s="25" t="s">
-        <v>715</v>
-      </c>
       <c r="D121" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21177,16 +21224,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21194,16 +21241,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21214,13 +21261,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21231,13 +21278,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21248,13 +21295,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21265,13 +21312,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21279,16 +21326,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21296,16 +21343,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21313,16 +21360,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21333,13 +21380,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21347,16 +21394,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21367,13 +21414,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21384,13 +21431,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21398,16 +21445,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21418,13 +21465,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21432,16 +21479,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21449,16 +21496,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21466,16 +21513,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21483,16 +21530,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21500,16 +21547,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21520,13 +21567,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21534,16 +21581,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21551,16 +21598,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21568,16 +21615,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21585,16 +21632,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21602,16 +21649,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21619,16 +21666,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21636,16 +21683,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21656,13 +21703,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21673,13 +21720,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21690,13 +21737,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21704,16 +21751,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21721,16 +21768,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21738,16 +21785,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21755,16 +21802,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21772,16 +21819,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21789,16 +21836,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -21806,16 +21853,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -21823,16 +21870,16 @@
         <v>5063022712677</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -21840,16 +21887,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C161" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="C161" s="25" t="s">
-        <v>740</v>
-      </c>
       <c r="D161" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -21860,13 +21907,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -21874,16 +21921,16 @@
         <v>5063022712707</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -21891,16 +21938,16 @@
         <v>5063022712653</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -21911,13 +21958,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -21928,13 +21975,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -21945,13 +21992,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -21962,13 +22009,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -21979,13 +22026,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -21996,13 +22043,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -22013,13 +22060,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22030,13 +22077,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22047,13 +22094,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22061,16 +22108,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22078,16 +22125,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22095,16 +22142,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22112,16 +22159,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22129,16 +22176,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22149,13 +22196,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22166,13 +22213,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22183,13 +22230,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22197,16 +22244,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22217,13 +22264,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22231,16 +22278,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="C184" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="C184" s="25" t="s">
-        <v>750</v>
-      </c>
       <c r="D184" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22248,16 +22295,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22268,13 +22315,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22282,16 +22329,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22302,13 +22349,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22316,16 +22363,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22333,16 +22380,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22353,13 +22400,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22370,13 +22417,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22387,13 +22434,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22404,13 +22451,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22421,13 +22468,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22438,13 +22485,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22452,16 +22499,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22469,16 +22516,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22489,13 +22536,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22503,16 +22550,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22520,16 +22567,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22537,16 +22584,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22557,13 +22604,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22574,13 +22621,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22591,13 +22638,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22605,16 +22652,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22625,13 +22672,13 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22642,13 +22689,13 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22659,13 +22706,13 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22676,13 +22723,13 @@
         <v>10</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16.5">
@@ -22693,13 +22740,13 @@
         <v>285</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75">

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{604AF263-31C7-4C5B-BE77-1F8439F6B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{253E453C-95BB-42EC-8A38-F0F4F502BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="767">
   <si>
     <t>EAN</t>
   </si>
@@ -1213,6 +1213,15 @@
     <t>AZULEJO BL ALEXANDRINA MATE 25X40</t>
   </si>
   <si>
+    <t>LAMA CLICK AURALIA SPC 6.5MM ROBLE BLANCO</t>
+  </si>
+  <si>
+    <t>LAMA CLICK AURALIA SPC 6.5MM ROBLE RUSTICO</t>
+  </si>
+  <si>
+    <t>LAMA CLICK AURALIA SPC 6.5MM ROBLE MIEL</t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -1721,6 +1730,9 @@
   </si>
   <si>
     <t>28-01-201</t>
+  </si>
+  <si>
+    <t>28-01-203</t>
   </si>
   <si>
     <t>AZ. OCTAVIO 30X90 MADERA NATURAL</t>
@@ -4408,7 +4420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4537,6 +4549,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4616,7 +4634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4707,6 +4725,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4714,6 +4734,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5180,8 +5214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J279" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J279" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J282" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J282" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5213,8 +5247,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}" name="ALMACEN" displayName="ALMACEN" ref="A1:C150" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="A1:C150" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}" name="ALMACEN" displayName="ALMACEN" ref="A1:C151" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A1:C151" xr:uid="{E092D5E8-DDBA-4DC5-B48F-DE814A493E02}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3A65B69D-D98E-4AEB-961F-5593E79CA067}" name="EAN" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{469CD1D5-7294-47E9-B0FB-BA7DD9CCC96D}" name="descrpcion_es" dataDxfId="15"/>
@@ -5553,10 +5587,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282:B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6800,15 +6834,15 @@
       </c>
       <c r="H32" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I32" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J32" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-11-102</v>
+      <c r="J32" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
@@ -11051,15 +11085,15 @@
       </c>
       <c r="H141" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I141" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J141" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-08-301</v>
+      <c r="J141" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75">
@@ -12207,15 +12241,15 @@
       </c>
       <c r="H171" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I171" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J171" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-08-301</v>
+      <c r="J171" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75">
@@ -16185,19 +16219,19 @@
         <v>287</v>
       </c>
       <c r="C279" s="14"/>
-      <c r="D279" s="48" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E279" s="48" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F279" s="48" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G279" s="48" t="e">
+      <c r="D279" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E279" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F279" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G279" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16205,13 +16239,124 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="I279" s="49" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J279" s="50" t="e">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>#N/A</v>
+      <c r="I279" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J279" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15.75">
+      <c r="A280" s="39">
+        <v>5063022712738</v>
+      </c>
+      <c r="B280" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C280" s="54"/>
+      <c r="D280" s="55" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E280" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F280" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G280" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H280" s="56" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I280" s="57" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J280" s="58" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-11-102</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15.75">
+      <c r="A281" s="39">
+        <v>5063022756800</v>
+      </c>
+      <c r="B281" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C281" s="54"/>
+      <c r="D281" s="55" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E281" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F281" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G281" s="55" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H281" s="56" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I281" s="57" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J281" s="58" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-08-301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15.75">
+      <c r="A282" s="39">
+        <v>5063022756817</v>
+      </c>
+      <c r="B282" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="50" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E282" s="50" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F282" s="50" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G282" s="50" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H282" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I282" s="51" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J282" s="52" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-01-203</v>
       </c>
     </row>
   </sheetData>
@@ -16225,10 +16370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD18BE2-0DBC-4BB4-8FBE-BFB232B0B51D}">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:B105"/>
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16245,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16253,10 +16398,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16267,7 +16412,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16278,7 +16423,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16289,7 +16434,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16300,7 +16445,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16311,7 +16456,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16322,7 +16467,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16333,7 +16478,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16341,10 +16486,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16355,7 +16500,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16366,7 +16511,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16374,10 +16519,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16388,7 +16533,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16399,7 +16544,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16410,7 +16555,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16421,7 +16566,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16432,7 +16577,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -16443,7 +16588,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16454,7 +16599,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -16465,7 +16610,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16476,7 +16621,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16484,10 +16629,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16498,18 +16643,18 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3">
-        <v>8435414120945</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>5063022712738</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16520,7 +16665,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16531,7 +16676,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16542,7 +16687,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16550,10 +16695,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16564,7 +16709,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16572,10 +16717,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16586,7 +16731,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16597,7 +16742,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16608,7 +16753,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16619,7 +16764,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16630,7 +16775,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16641,7 +16786,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16652,7 +16797,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16663,7 +16808,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16674,7 +16819,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16682,10 +16827,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16696,7 +16841,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16707,7 +16852,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -16718,7 +16863,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -16729,7 +16874,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -16740,7 +16885,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -16751,7 +16896,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -16762,7 +16907,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -16773,7 +16918,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16784,7 +16929,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16795,7 +16940,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16806,7 +16951,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16817,7 +16962,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16828,7 +16973,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16839,7 +16984,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16847,10 +16992,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16858,10 +17003,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -16869,10 +17014,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -16880,10 +17025,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -16891,21 +17036,21 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3">
-        <v>3663602678465</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>5063022756800</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>289</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -16916,7 +17061,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -16927,7 +17072,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -16938,7 +17083,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -16949,7 +17094,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -16957,10 +17102,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -16968,10 +17113,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -16979,10 +17124,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -16993,7 +17138,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17004,7 +17149,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17015,7 +17160,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17026,7 +17171,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17037,7 +17182,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17048,7 +17193,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17059,7 +17204,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17070,7 +17215,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17081,7 +17226,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17092,7 +17237,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17100,10 +17245,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17114,7 +17259,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17125,7 +17270,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17136,7 +17281,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17147,7 +17292,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17155,10 +17300,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17166,10 +17311,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17177,10 +17322,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17188,10 +17333,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17202,7 +17347,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17213,7 +17358,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17224,7 +17369,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17235,7 +17380,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17246,7 +17391,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17257,7 +17402,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17268,7 +17413,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17279,7 +17424,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17290,7 +17435,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -17301,7 +17446,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17312,7 +17457,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17323,7 +17468,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17334,7 +17479,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17345,7 +17490,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17356,7 +17501,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17367,7 +17512,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17378,7 +17523,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -17389,7 +17534,7 @@
         <v>286</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -17400,7 +17545,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17411,7 +17556,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17422,7 +17567,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -17433,7 +17578,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17444,7 +17589,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17455,7 +17600,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17466,7 +17611,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17477,7 +17622,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17488,7 +17633,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17499,7 +17644,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17510,7 +17655,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17521,7 +17666,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17532,7 +17677,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17543,7 +17688,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17554,7 +17699,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -17565,7 +17710,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17576,7 +17721,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17587,7 +17732,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -17598,7 +17743,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -17609,7 +17754,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -17620,7 +17765,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -17631,7 +17776,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -17642,7 +17787,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -17653,7 +17798,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -17664,7 +17809,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17675,7 +17820,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -17686,7 +17831,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -17697,7 +17842,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17708,7 +17853,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -17719,7 +17864,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -17730,7 +17875,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -17741,7 +17886,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -17752,7 +17897,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17763,7 +17908,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17774,7 +17919,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17785,7 +17930,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17796,7 +17941,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17807,7 +17952,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17818,7 +17963,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17829,7 +17974,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17840,7 +17985,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17851,7 +17996,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -17862,7 +18007,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -17873,7 +18018,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -17884,7 +18029,18 @@
         <v>285</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>457</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="28">
+        <v>5063022756817</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -17924,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -17932,10 +18088,10 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -17943,10 +18099,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -17957,7 +18113,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -17968,7 +18124,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -17976,10 +18132,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -17990,7 +18146,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -17998,10 +18154,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -18009,10 +18165,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -18023,7 +18179,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -18034,7 +18190,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
@@ -18042,10 +18198,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
@@ -18056,7 +18212,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
@@ -18064,10 +18220,10 @@
         <v>5036581064259</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
@@ -18075,10 +18231,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -18086,10 +18242,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -18097,10 +18253,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
@@ -18108,10 +18264,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -18119,10 +18275,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -18130,10 +18286,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -18141,10 +18297,10 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -18152,10 +18308,10 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -18163,10 +18319,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -18174,10 +18330,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -18185,10 +18341,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -18196,10 +18352,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
@@ -18207,10 +18363,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
@@ -18218,10 +18374,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
@@ -18229,10 +18385,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
@@ -18240,10 +18396,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
@@ -18251,10 +18407,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
@@ -18262,10 +18418,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
@@ -18273,10 +18429,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
@@ -18284,10 +18440,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
@@ -18295,10 +18451,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
@@ -18306,10 +18462,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
@@ -18317,10 +18473,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
@@ -18328,10 +18484,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
@@ -18339,10 +18495,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
@@ -18350,10 +18506,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75">
@@ -18361,10 +18517,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
@@ -18375,7 +18531,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
@@ -18386,7 +18542,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -18397,7 +18553,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
@@ -18408,7 +18564,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
@@ -18419,7 +18575,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -18430,7 +18586,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
@@ -18441,7 +18597,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
@@ -18452,7 +18608,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
@@ -18463,7 +18619,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
@@ -18474,7 +18630,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
@@ -18485,7 +18641,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75">
@@ -18496,7 +18652,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
@@ -18507,7 +18663,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75">
@@ -18518,7 +18674,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
@@ -18529,7 +18685,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
@@ -18540,7 +18696,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75">
@@ -18551,7 +18707,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
@@ -18562,7 +18718,7 @@
         <v>242</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
@@ -18573,7 +18729,7 @@
         <v>243</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
@@ -18584,7 +18740,7 @@
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -18595,7 +18751,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
@@ -18606,7 +18762,7 @@
         <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
@@ -18617,7 +18773,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
@@ -18628,7 +18784,7 @@
         <v>261</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18639,7 +18795,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18650,7 +18806,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
@@ -18661,7 +18817,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
@@ -18672,7 +18828,7 @@
         <v>232</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
@@ -18683,7 +18839,7 @@
         <v>235</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
@@ -18694,7 +18850,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
@@ -18705,7 +18861,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
@@ -18716,7 +18872,7 @@
         <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
@@ -18727,7 +18883,7 @@
         <v>234</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
@@ -18738,7 +18894,7 @@
         <v>239</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
@@ -18749,7 +18905,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
@@ -18760,7 +18916,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
@@ -18771,7 +18927,7 @@
         <v>277</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
@@ -18782,7 +18938,7 @@
         <v>266</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
@@ -18793,7 +18949,7 @@
         <v>263</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
@@ -18804,7 +18960,7 @@
         <v>268</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
@@ -18815,7 +18971,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
@@ -18826,7 +18982,7 @@
         <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
@@ -18837,7 +18993,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
@@ -18848,7 +19004,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
@@ -18859,7 +19015,7 @@
         <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
@@ -18870,7 +19026,7 @@
         <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
@@ -18881,7 +19037,7 @@
         <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
@@ -18892,7 +19048,7 @@
         <v>271</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
@@ -18903,7 +19059,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -18914,7 +19070,7 @@
         <v>251</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
@@ -18925,7 +19081,7 @@
         <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
@@ -18936,7 +19092,7 @@
         <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
@@ -18947,7 +19103,7 @@
         <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -18958,7 +19114,7 @@
         <v>248</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -18969,7 +19125,7 @@
         <v>257</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
@@ -18980,7 +19136,7 @@
         <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
@@ -18991,7 +19147,7 @@
         <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
@@ -19002,7 +19158,7 @@
         <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
@@ -19013,7 +19169,7 @@
         <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
@@ -19024,7 +19180,7 @@
         <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
@@ -19035,7 +19191,7 @@
         <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -19046,7 +19202,7 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
@@ -19057,7 +19213,7 @@
         <v>254</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -19068,7 +19224,7 @@
         <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
@@ -19079,7 +19235,7 @@
         <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
@@ -19090,7 +19246,7 @@
         <v>252</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
@@ -19101,7 +19257,7 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
@@ -19112,7 +19268,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
@@ -19123,7 +19279,7 @@
         <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
@@ -19134,7 +19290,7 @@
         <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -19184,16 +19340,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19201,16 +19357,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19218,16 +19374,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19235,16 +19391,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19252,16 +19408,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19269,16 +19425,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19286,16 +19442,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19306,13 +19462,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19320,16 +19476,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19337,16 +19493,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19354,16 +19510,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19371,16 +19527,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19388,16 +19544,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19405,16 +19561,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19422,16 +19578,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19439,16 +19595,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19456,16 +19612,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19473,16 +19629,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -19493,13 +19649,13 @@
         <v>286</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19507,16 +19663,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19524,16 +19680,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19541,16 +19697,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19558,16 +19714,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19575,16 +19731,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19592,16 +19748,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>629</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19609,16 +19765,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19626,16 +19782,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19643,16 +19799,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19660,16 +19816,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19680,13 +19836,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19694,16 +19850,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19711,16 +19867,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19728,16 +19884,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19745,16 +19901,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19762,16 +19918,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19779,16 +19935,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19796,16 +19952,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19813,16 +19969,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19830,16 +19986,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19847,16 +20003,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19864,16 +20020,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19881,16 +20037,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19898,16 +20054,16 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19915,16 +20071,16 @@
         <v>3663602677413</v>
       </c>
       <c r="B45" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>649</v>
-      </c>
       <c r="D45" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19932,16 +20088,16 @@
         <v>8435609317396</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19949,16 +20105,16 @@
         <v>8429991953577</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19966,16 +20122,16 @@
         <v>8429991798888</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19983,16 +20139,16 @@
         <v>8429991798901</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20000,16 +20156,16 @@
         <v>5059340460383</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20017,16 +20173,16 @@
         <v>5059340721040</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20034,16 +20190,16 @@
         <v>5059340720999</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20051,16 +20207,16 @@
         <v>8432712270556</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20068,16 +20224,16 @@
         <v>8435414101517</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20085,16 +20241,16 @@
         <v>8429991787479</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20102,16 +20258,16 @@
         <v>5059340720982</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20119,16 +20275,16 @@
         <v>5036581058319</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20136,16 +20292,16 @@
         <v>8429991787486</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20153,16 +20309,16 @@
         <v>8435433538134</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20170,16 +20326,16 @@
         <v>8435414118669</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20187,16 +20343,16 @@
         <v>8435414118645</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20207,13 +20363,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20221,16 +20377,16 @@
         <v>8435609351932</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20238,16 +20394,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20255,16 +20411,16 @@
         <v>8435433518471</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20272,16 +20428,16 @@
         <v>8435425577783</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20289,16 +20445,16 @@
         <v>8435433560159</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20306,16 +20462,16 @@
         <v>8435433560210</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20323,16 +20479,16 @@
         <v>8429991787493</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20340,16 +20496,16 @@
         <v>8429991787509</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20357,16 +20513,16 @@
         <v>8429991787516</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20374,16 +20530,16 @@
         <v>8435433538103</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20394,13 +20550,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20408,16 +20564,16 @@
         <v>5036581064259</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20428,13 +20584,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20445,13 +20601,13 @@
         <v>28</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20459,16 +20615,16 @@
         <v>8432712279436</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20476,16 +20632,16 @@
         <v>8432712279467</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20493,16 +20649,16 @@
         <v>8435414111127</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20510,16 +20666,16 @@
         <v>8435414124240</v>
       </c>
       <c r="B80" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>680</v>
-      </c>
       <c r="D80" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20530,13 +20686,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20544,16 +20700,16 @@
         <v>5036581063504</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20561,16 +20717,16 @@
         <v>5036581063542</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20578,16 +20734,16 @@
         <v>5036581063580</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20595,16 +20751,16 @@
         <v>5036581064679</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20612,16 +20768,16 @@
         <v>5036581064716</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20629,16 +20785,16 @@
         <v>5036581064723</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20646,16 +20802,16 @@
         <v>5036581064754</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20663,16 +20819,16 @@
         <v>5036581064686</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20680,16 +20836,16 @@
         <v>5063022089120</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20697,16 +20853,16 @@
         <v>5059340719634</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20714,16 +20870,16 @@
         <v>5059340719603</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20731,16 +20887,16 @@
         <v>5036581064310</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20748,16 +20904,16 @@
         <v>5036581064327</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20765,16 +20921,16 @@
         <v>8429991787660</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20782,16 +20938,16 @@
         <v>5036581065768</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20799,16 +20955,16 @@
         <v>5036581065775</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20819,13 +20975,13 @@
         <v>38</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20836,13 +20992,13 @@
         <v>64</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20853,13 +21009,13 @@
         <v>58</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20870,13 +21026,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20884,16 +21040,16 @@
         <v>5036581065744</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20901,16 +21057,16 @@
         <v>5036581065751</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20918,16 +21074,16 @@
         <v>5036581089542</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20935,16 +21091,16 @@
         <v>5036581089566</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20952,16 +21108,16 @@
         <v>5036581089597</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20969,16 +21125,16 @@
         <v>5036581089535</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20986,16 +21142,16 @@
         <v>5036581089559</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -21003,16 +21159,16 @@
         <v>5036581089580</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -21020,16 +21176,16 @@
         <v>8435433542377</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -21037,16 +21193,16 @@
         <v>8435433542438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -21054,16 +21210,16 @@
         <v>8435433544142</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21071,16 +21227,16 @@
         <v>8435433544173</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21088,16 +21244,16 @@
         <v>8429991787707</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21105,16 +21261,16 @@
         <v>8429991787714</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21125,13 +21281,13 @@
         <v>49</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21142,13 +21298,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21159,13 +21315,13 @@
         <v>43</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21176,13 +21332,13 @@
         <v>40</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21190,16 +21346,16 @@
         <v>5036581064877</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21207,16 +21363,16 @@
         <v>5036581064884</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21224,16 +21380,16 @@
         <v>8429991787653</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21241,16 +21397,16 @@
         <v>8435414126275</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21261,13 +21417,13 @@
         <v>72</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21278,13 +21434,13 @@
         <v>71</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21295,13 +21451,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21312,13 +21468,13 @@
         <v>65</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21326,16 +21482,16 @@
         <v>5036581065201</v>
       </c>
       <c r="B128" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="C128" s="25" t="s">
-        <v>716</v>
-      </c>
       <c r="D128" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21343,16 +21499,16 @@
         <v>5036581065218</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21360,16 +21516,16 @@
         <v>8429991787646</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21380,13 +21536,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21394,16 +21550,16 @@
         <v>8432712289541</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21414,13 +21570,13 @@
         <v>77</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21431,13 +21587,13 @@
         <v>76</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21445,16 +21601,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21465,13 +21621,13 @@
         <v>70</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21479,16 +21635,16 @@
         <v>5059340719610</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21496,16 +21652,16 @@
         <v>5059340719566</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21513,16 +21669,16 @@
         <v>5059340719511</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21530,16 +21686,16 @@
         <v>5063022525574</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21547,16 +21703,16 @@
         <v>8435433537328</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21567,13 +21723,13 @@
         <v>84</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21581,16 +21737,16 @@
         <v>8429991787622</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21598,16 +21754,16 @@
         <v>8429991792282</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21615,16 +21771,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21632,16 +21788,16 @@
         <v>5059340460277</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21649,16 +21805,16 @@
         <v>5059340460284</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21666,16 +21822,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21683,16 +21839,16 @@
         <v>8429991787639</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21703,13 +21859,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21720,13 +21876,13 @@
         <v>32</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21737,13 +21893,13 @@
         <v>75</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21751,16 +21907,16 @@
         <v>5059340854229</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21768,16 +21924,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21785,16 +21941,16 @@
         <v>8435414125100</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21802,16 +21958,16 @@
         <v>8435414125131</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21819,16 +21975,16 @@
         <v>8435414124189</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21836,16 +21992,16 @@
         <v>8435414122574</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -21853,16 +22009,16 @@
         <v>8435414122468</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -21870,16 +22026,16 @@
         <v>5063022712677</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -21887,16 +22043,16 @@
         <v>5063022611239</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -21907,13 +22063,13 @@
         <v>219</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -21921,16 +22077,16 @@
         <v>5063022712707</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -21938,16 +22094,16 @@
         <v>5063022712653</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -21958,13 +22114,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -21975,13 +22131,13 @@
         <v>220</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -21992,13 +22148,13 @@
         <v>217</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -22009,13 +22165,13 @@
         <v>223</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -22026,13 +22182,13 @@
         <v>221</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -22043,13 +22199,13 @@
         <v>222</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -22060,13 +22216,13 @@
         <v>227</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22077,13 +22233,13 @@
         <v>229</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22094,13 +22250,13 @@
         <v>228</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22108,16 +22264,16 @@
         <v>5059340969657</v>
       </c>
       <c r="B174" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="C174" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="C174" s="25" t="s">
-        <v>741</v>
-      </c>
       <c r="D174" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22125,16 +22281,16 @@
         <v>5059340969633</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22142,16 +22298,16 @@
         <v>5059340969640</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22159,16 +22315,16 @@
         <v>5059340969664</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22176,16 +22332,16 @@
         <v>5059340969626</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22196,13 +22352,13 @@
         <v>226</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22213,13 +22369,13 @@
         <v>225</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22230,13 +22386,13 @@
         <v>224</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22244,16 +22400,16 @@
         <v>3663602997436</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22264,13 +22420,13 @@
         <v>206</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22278,16 +22434,16 @@
         <v>5063022085658</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22295,16 +22451,16 @@
         <v>3663602997962</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22315,13 +22471,13 @@
         <v>191</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22329,16 +22485,16 @@
         <v>5063022606525</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22349,13 +22505,13 @@
         <v>190</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22363,16 +22519,16 @@
         <v>5059340194042</v>
       </c>
       <c r="B189" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C189" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="C189" s="25" t="s">
-        <v>751</v>
-      </c>
       <c r="D189" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22380,16 +22536,16 @@
         <v>5063022606068</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22400,13 +22556,13 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22417,13 +22573,13 @@
         <v>193</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22434,13 +22590,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22451,13 +22607,13 @@
         <v>194</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22468,13 +22624,13 @@
         <v>185</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22485,13 +22641,13 @@
         <v>204</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22499,16 +22655,16 @@
         <v>5063022085641</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22516,16 +22672,16 @@
         <v>5063022034496</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22536,13 +22692,13 @@
         <v>207</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22550,16 +22706,16 @@
         <v>5063022606020</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22567,16 +22723,16 @@
         <v>5063022606037</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22584,16 +22740,16 @@
         <v>5063022606013</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22604,13 +22760,13 @@
         <v>188</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22621,13 +22777,13 @@
         <v>187</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22638,13 +22794,13 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22652,16 +22808,16 @@
         <v>5059340194035</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22672,13 +22828,13 @@
         <v>183</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22689,13 +22845,13 @@
         <v>230</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22706,13 +22862,13 @@
         <v>143</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22723,13 +22879,13 @@
         <v>10</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16.5">
@@ -22740,13 +22896,13 @@
         <v>285</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75">

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253E453C-95BB-42EC-8A38-F0F4F502BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB1BA02-4C9E-4C7F-9C0B-1F5EE0832F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="EXISTENCIA TOTAL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="767">
   <si>
     <t>EAN</t>
   </si>
@@ -1222,6 +1222,9 @@
     <t>LAMA CLICK AURALIA SPC 6.5MM ROBLE MIEL</t>
   </si>
   <si>
+    <t>PAVIMENTO MALDO 30X60</t>
+  </si>
+  <si>
     <t>ubicacion</t>
   </si>
   <si>
@@ -4084,9 +4087,6 @@
   </si>
   <si>
     <t>DAMIAN BEIGE 45X45</t>
-  </si>
-  <si>
-    <t>STRUCTURED BEIGE 60X60</t>
   </si>
   <si>
     <t>PAV. ASSEN GRIS 45X45</t>
@@ -4634,7 +4634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4725,7 +4725,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4734,20 +4733,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5214,8 +5199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J282" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J282" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}" name="EXISTENCIA" displayName="EXISTENCIA" ref="A1:J283" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J283" xr:uid="{B316A91F-BC6A-408F-AA01-35561A65966D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6CD20384-3102-4E56-BA14-58859CA75225}" name="EAN" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{B5149655-3C4D-42C7-B824-E60428700228}" name="descrpcion_es" dataDxfId="28"/>
@@ -5587,10 +5572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282:B282"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283:B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9509,31 +9494,31 @@
       </c>
       <c r="D101" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E101" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>RACK 11</v>
-      </c>
-      <c r="F101" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>MODULO 1</v>
-      </c>
-      <c r="G101" s="14" t="str">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>FILA 2</v>
+        <v>NO</v>
+      </c>
+      <c r="E101" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H101" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
+        <v>NO</v>
       </c>
       <c r="I101" s="16" t="str">
         <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="J101" s="13" t="str">
-        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
-        <v>28-04-301</v>
+      <c r="J101" s="13" t="e">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75">
@@ -16252,35 +16237,35 @@
       <c r="A280" s="39">
         <v>5063022712738</v>
       </c>
-      <c r="B280" s="53" t="s">
+      <c r="B280" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="C280" s="54"/>
-      <c r="D280" s="55" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E280" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F280" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G280" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H280" s="56" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="I280" s="57" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J280" s="58" t="str">
+      <c r="C280" s="14"/>
+      <c r="D280" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E280" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F280" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G280" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H280" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I280" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J280" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-11-102</v>
       </c>
@@ -16289,35 +16274,35 @@
       <c r="A281" s="39">
         <v>5063022756800</v>
       </c>
-      <c r="B281" s="53" t="s">
+      <c r="B281" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C281" s="54"/>
-      <c r="D281" s="55" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E281" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F281" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G281" s="55" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H281" s="56" t="str">
-        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="I281" s="57" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J281" s="58" t="str">
+      <c r="C281" s="14"/>
+      <c r="D281" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E281" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F281" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G281" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H281" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I281" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J281" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-08-301</v>
       </c>
@@ -16326,23 +16311,23 @@
       <c r="A282" s="39">
         <v>5063022756817</v>
       </c>
-      <c r="B282" s="49" t="s">
+      <c r="B282" s="48" t="s">
         <v>290</v>
       </c>
       <c r="C282" s="14"/>
-      <c r="D282" s="50" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E282" s="50" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F282" s="50" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G282" s="50" t="e">
+      <c r="D282" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E282" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F282" s="14" t="e">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G282" s="14" t="e">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -16350,13 +16335,50 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="I282" s="51" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J282" s="52" t="str">
+      <c r="I282" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J282" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-01-203</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15.75">
+      <c r="A283" s="12">
+        <v>5063022655394</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C283" s="14"/>
+      <c r="D283" s="49" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E283" s="49" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 11</v>
+      </c>
+      <c r="F283" s="49" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 1</v>
+      </c>
+      <c r="G283" s="49" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 2</v>
+      </c>
+      <c r="H283" s="15" t="str">
+        <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="I283" s="50" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J283" s="51" t="str">
+        <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
+        <v>28-04-301</v>
       </c>
     </row>
   </sheetData>
@@ -16372,8 +16394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD18BE2-0DBC-4BB4-8FBE-BFB232B0B51D}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:B151"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16390,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16398,10 +16420,10 @@
         <v>5036581063542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16412,7 +16434,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16423,7 +16445,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16434,7 +16456,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16445,7 +16467,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16456,7 +16478,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16467,7 +16489,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16478,7 +16500,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16486,10 +16508,10 @@
         <v>5036581064327</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16500,7 +16522,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16511,7 +16533,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16519,10 +16541,10 @@
         <v>8435433544142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16533,7 +16555,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16544,7 +16566,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16555,7 +16577,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16566,7 +16588,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16577,7 +16599,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -16588,7 +16610,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16599,7 +16621,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -16610,7 +16632,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16621,7 +16643,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16629,10 +16651,10 @@
         <v>8435433542377</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16643,7 +16665,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -16654,7 +16676,7 @@
         <v>288</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16665,7 +16687,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16676,7 +16698,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16687,7 +16709,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16695,10 +16717,10 @@
         <v>8432712288582</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16709,7 +16731,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16717,10 +16739,10 @@
         <v>5036581064884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16731,7 +16753,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16742,7 +16764,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16753,7 +16775,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16764,7 +16786,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16775,7 +16797,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16786,7 +16808,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16797,7 +16819,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16808,7 +16830,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16819,7 +16841,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16827,10 +16849,10 @@
         <v>5059340854205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16841,7 +16863,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16852,7 +16874,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -16863,7 +16885,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -16874,7 +16896,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -16885,7 +16907,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -16896,7 +16918,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -16907,7 +16929,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -16918,7 +16940,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16929,7 +16951,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -16940,7 +16962,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -16951,7 +16973,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -16962,7 +16984,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -16973,7 +16995,7 @@
         <v>145</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -16984,7 +17006,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16992,10 +17014,10 @@
         <v>8435609351932</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -17003,10 +17025,10 @@
         <v>8435425577783</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -17014,10 +17036,10 @@
         <v>5059340721033</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -17025,10 +17047,10 @@
         <v>8435433538103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -17036,10 +17058,10 @@
         <v>8435433560210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -17050,7 +17072,7 @@
         <v>289</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -17061,7 +17083,7 @@
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -17072,7 +17094,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -17083,7 +17105,7 @@
         <v>130</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -17094,7 +17116,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17102,10 +17124,10 @@
         <v>8432712270556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17113,10 +17135,10 @@
         <v>8435609373682</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17124,10 +17146,10 @@
         <v>8429991784904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17138,7 +17160,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17149,7 +17171,7 @@
         <v>100</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17160,7 +17182,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17171,7 +17193,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17182,7 +17204,7 @@
         <v>107</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17193,7 +17215,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17204,7 +17226,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17215,7 +17237,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17226,7 +17248,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17237,7 +17259,7 @@
         <v>168</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17245,10 +17267,10 @@
         <v>3663602678298</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17259,7 +17281,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17270,7 +17292,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17281,7 +17303,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17292,7 +17314,7 @@
         <v>117</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17300,10 +17322,10 @@
         <v>5059340721026</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17311,10 +17333,10 @@
         <v>8429991798864</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17322,10 +17344,10 @@
         <v>8429991798901</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17333,10 +17355,10 @@
         <v>8429991798888</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17347,7 +17369,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17358,7 +17380,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17369,7 +17391,7 @@
         <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17380,7 +17402,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17391,7 +17413,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17402,7 +17424,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17413,7 +17435,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17424,7 +17446,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17435,7 +17457,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -17446,7 +17468,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17457,7 +17479,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17468,7 +17490,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17479,7 +17501,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17490,7 +17512,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17501,7 +17523,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17512,7 +17534,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17523,7 +17545,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -17534,18 +17556,18 @@
         <v>286</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="28">
-        <v>3663602677413</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>109</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75">
+      <c r="A106" s="12">
+        <v>5063022655394</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17556,7 +17578,7 @@
         <v>128</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17567,7 +17589,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
@@ -17578,7 +17600,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17589,7 +17611,7 @@
         <v>183</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17600,7 +17622,7 @@
         <v>184</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17611,7 +17633,7 @@
         <v>185</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17622,7 +17644,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17633,7 +17655,7 @@
         <v>187</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17644,7 +17666,7 @@
         <v>188</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17655,7 +17677,7 @@
         <v>189</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17666,7 +17688,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17677,7 +17699,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17688,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17699,7 +17721,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -17710,7 +17732,7 @@
         <v>194</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17721,7 +17743,7 @@
         <v>195</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17732,7 +17754,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -17743,7 +17765,7 @@
         <v>197</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -17754,7 +17776,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -17765,7 +17787,7 @@
         <v>199</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -17776,7 +17798,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -17787,7 +17809,7 @@
         <v>201</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -17798,7 +17820,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -17809,7 +17831,7 @@
         <v>218</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17820,7 +17842,7 @@
         <v>219</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -17831,7 +17853,7 @@
         <v>220</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -17842,7 +17864,7 @@
         <v>221</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17853,7 +17875,7 @@
         <v>222</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -17864,7 +17886,7 @@
         <v>223</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -17875,7 +17897,7 @@
         <v>224</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -17886,7 +17908,7 @@
         <v>225</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -17897,7 +17919,7 @@
         <v>226</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17908,7 +17930,7 @@
         <v>227</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17919,7 +17941,7 @@
         <v>228</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17930,7 +17952,7 @@
         <v>229</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17941,7 +17963,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17952,7 +17974,7 @@
         <v>90</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17963,7 +17985,7 @@
         <v>104</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17974,7 +17996,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17985,7 +18007,7 @@
         <v>159</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17996,7 +18018,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -18007,7 +18029,7 @@
         <v>182</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -18018,7 +18040,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -18029,7 +18051,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -18039,8 +18061,8 @@
       <c r="B151" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C151" s="48" t="s">
-        <v>461</v>
+      <c r="C151" s="31" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -18080,7 +18102,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -18088,10 +18110,10 @@
         <v>5059340719535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -18099,10 +18121,10 @@
         <v>5059340719658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -18113,7 +18135,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -18124,7 +18146,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -18132,10 +18154,10 @@
         <v>5036581065768</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -18146,7 +18168,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -18154,10 +18176,10 @@
         <v>8435414126275</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -18165,10 +18187,10 @@
         <v>5036581064877</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -18179,7 +18201,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -18190,7 +18212,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
@@ -18198,10 +18220,10 @@
         <v>5036581064310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
@@ -18212,7 +18234,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
@@ -18220,10 +18242,10 @@
         <v>5036581064259</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
@@ -18231,10 +18253,10 @@
         <v>5036581064679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -18242,10 +18264,10 @@
         <v>5059340433233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -18253,10 +18275,10 @@
         <v>8435414126282</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
@@ -18264,10 +18286,10 @@
         <v>3663602679332</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -18275,10 +18297,10 @@
         <v>8435414127845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -18286,10 +18308,10 @@
         <v>8429178156050</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -18297,10 +18319,10 @@
         <v>8429178398283</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -18308,10 +18330,10 @@
         <v>8435609380802</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -18319,10 +18341,10 @@
         <v>8429178840003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -18330,10 +18352,10 @@
         <v>8432712278026</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -18341,10 +18363,10 @@
         <v>5059340433240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -18352,10 +18374,10 @@
         <v>5059340460383</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
@@ -18363,10 +18385,10 @@
         <v>5059340720968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
@@ -18374,10 +18396,10 @@
         <v>8435609330777</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
@@ -18385,10 +18407,10 @@
         <v>8429991953478</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
@@ -18396,10 +18418,10 @@
         <v>5059340720951</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
@@ -18407,10 +18429,10 @@
         <v>5063022645289</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
@@ -18418,10 +18440,10 @@
         <v>8429991953577</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
@@ -18429,10 +18451,10 @@
         <v>5059340870663</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
@@ -18440,10 +18462,10 @@
         <v>3663602678366</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
@@ -18451,10 +18473,10 @@
         <v>5059340719610</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
@@ -18462,10 +18484,10 @@
         <v>5059340720982</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
@@ -18473,10 +18495,10 @@
         <v>5059340720975</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
@@ -18484,10 +18506,10 @@
         <v>8435414120211</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
@@ -18495,10 +18517,10 @@
         <v>8435414118669</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
@@ -18506,10 +18528,10 @@
         <v>5036581058319</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75">
@@ -18517,10 +18539,10 @@
         <v>5036581058326</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
@@ -18531,7 +18553,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
@@ -18542,7 +18564,7 @@
         <v>171</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -18553,7 +18575,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
@@ -18564,7 +18586,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
@@ -18575,7 +18597,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -18586,7 +18608,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
@@ -18597,7 +18619,7 @@
         <v>206</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
@@ -18608,7 +18630,7 @@
         <v>207</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
@@ -18619,7 +18641,7 @@
         <v>208</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
@@ -18630,7 +18652,7 @@
         <v>209</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
@@ -18641,7 +18663,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75">
@@ -18652,7 +18674,7 @@
         <v>211</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
@@ -18663,7 +18685,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75">
@@ -18674,7 +18696,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
@@ -18685,7 +18707,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
@@ -18696,7 +18718,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75">
@@ -18707,7 +18729,7 @@
         <v>216</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
@@ -18718,7 +18740,7 @@
         <v>242</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
@@ -18729,7 +18751,7 @@
         <v>243</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
@@ -18740,7 +18762,7 @@
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -18751,7 +18773,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
@@ -18762,7 +18784,7 @@
         <v>250</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
@@ -18773,7 +18795,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
@@ -18784,7 +18806,7 @@
         <v>261</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
@@ -18795,7 +18817,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -18806,7 +18828,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75">
@@ -18817,7 +18839,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
@@ -18828,7 +18850,7 @@
         <v>232</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75">
@@ -18839,7 +18861,7 @@
         <v>235</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
@@ -18850,7 +18872,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75">
@@ -18861,7 +18883,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
@@ -18872,7 +18894,7 @@
         <v>233</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
@@ -18883,7 +18905,7 @@
         <v>234</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
@@ -18894,7 +18916,7 @@
         <v>239</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75">
@@ -18905,7 +18927,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75">
@@ -18916,7 +18938,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
@@ -18927,7 +18949,7 @@
         <v>277</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
@@ -18938,7 +18960,7 @@
         <v>266</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75">
@@ -18949,7 +18971,7 @@
         <v>263</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
@@ -18960,7 +18982,7 @@
         <v>268</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
@@ -18971,7 +18993,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
@@ -18982,7 +19004,7 @@
         <v>265</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
@@ -18993,7 +19015,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
@@ -19004,7 +19026,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75">
@@ -19015,7 +19037,7 @@
         <v>270</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75">
@@ -19026,7 +19048,7 @@
         <v>272</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
@@ -19037,7 +19059,7 @@
         <v>237</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75">
@@ -19048,7 +19070,7 @@
         <v>271</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75">
@@ -19059,7 +19081,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -19070,7 +19092,7 @@
         <v>251</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75">
@@ -19081,7 +19103,7 @@
         <v>260</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75">
@@ -19092,7 +19114,7 @@
         <v>259</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75">
@@ -19103,7 +19125,7 @@
         <v>258</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -19114,7 +19136,7 @@
         <v>248</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -19125,7 +19147,7 @@
         <v>257</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
@@ -19136,7 +19158,7 @@
         <v>256</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75">
@@ -19147,7 +19169,7 @@
         <v>255</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75">
@@ -19158,7 +19180,7 @@
         <v>276</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
@@ -19169,7 +19191,7 @@
         <v>280</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75">
@@ -19180,7 +19202,7 @@
         <v>281</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75">
@@ -19191,7 +19213,7 @@
         <v>282</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
@@ -19202,7 +19224,7 @@
         <v>273</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75">
@@ -19213,7 +19235,7 @@
         <v>254</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75">
@@ -19224,7 +19246,7 @@
         <v>283</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
@@ -19235,7 +19257,7 @@
         <v>284</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75">
@@ -19246,7 +19268,7 @@
         <v>252</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75">
@@ -19257,7 +19279,7 @@
         <v>278</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
@@ -19268,7 +19290,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75">
@@ -19279,7 +19301,7 @@
         <v>279</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75">
@@ -19290,7 +19312,7 @@
         <v>274</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -19306,8 +19328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19340,16 +19362,16 @@
         <v>8432712278026</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19357,16 +19379,16 @@
         <v>8435414127845</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19374,16 +19396,16 @@
         <v>5059340433240</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19391,16 +19413,16 @@
         <v>8429178398283</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>615</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19408,16 +19430,16 @@
         <v>5059340433233</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19425,16 +19447,16 @@
         <v>8429991784881</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19442,16 +19464,16 @@
         <v>5063022022561</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -19462,13 +19484,13 @@
         <v>231</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19476,16 +19498,16 @@
         <v>8429991784904</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19493,16 +19515,16 @@
         <v>8429991784898</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>622</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19510,16 +19532,16 @@
         <v>8429178840003</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19527,16 +19549,16 @@
         <v>8435609373682</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19544,16 +19566,16 @@
         <v>8435609378458</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19561,16 +19583,16 @@
         <v>8429178156050</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19578,16 +19600,16 @@
         <v>8435414126282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19595,16 +19617,16 @@
         <v>8435609333921</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19612,16 +19634,16 @@
         <v>5059340433424</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19629,16 +19651,16 @@
         <v>3663602679332</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -19649,13 +19671,13 @@
         <v>286</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19663,16 +19685,16 @@
         <v>3663602675846</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19680,16 +19702,16 @@
         <v>5059340721002</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19697,16 +19719,16 @@
         <v>8435609330777</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>633</v>
-      </c>
       <c r="D23" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19714,16 +19736,16 @@
         <v>8429991798857</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19731,16 +19753,16 @@
         <v>5059340720968</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19748,16 +19770,16 @@
         <v>5063022605061</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19765,16 +19787,16 @@
         <v>5059340812311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19782,16 +19804,16 @@
         <v>8429991953478</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19799,16 +19821,16 @@
         <v>5059340269610</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19816,16 +19838,16 @@
         <v>5059340874937</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19836,13 +19858,13 @@
         <v>181</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19850,16 +19872,16 @@
         <v>5059340854212</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19867,16 +19889,16 @@
         <v>8429991793449</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19884,16 +19906,16 @@
         <v>5059340870663</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19901,16 +19923,16 @@
         <v>5059340854267</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19918,16 +19940,16 @@
         <v>3663602678298</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19935,16 +19957,16 @@
         <v>5059340459912</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19952,16 +19974,16 @@
         <v>5059340854236</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19969,16 +19991,16 @@
         <v>3663602678366</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19986,16 +20008,16 @@
         <v>3663602678465</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20003,16 +20025,16 @@
         <v>5059340720951</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20020,16 +20042,16 @@
         <v>5063022645289</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>653</v>
-      </c>
       <c r="D42" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20037,16 +20059,16 @@
         <v>8429991798864</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20054,33 +20076,33 @@
         <v>5059340721026</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="24">
-        <v>3663602677413</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>657</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="12">
+        <v>5063022655394</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20091,13 +20113,13 @@
         <v>658</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20108,13 +20130,13 @@
         <v>659</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20125,13 +20147,13 @@
         <v>660</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20142,13 +20164,13 @@
         <v>661</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20159,13 +20181,13 @@
         <v>662</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20176,13 +20198,13 @@
         <v>663</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20193,13 +20215,13 @@
         <v>664</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20210,13 +20232,13 @@
         <v>665</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20227,13 +20249,13 @@
         <v>666</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20244,13 +20266,13 @@
         <v>667</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20261,13 +20283,13 @@
         <v>668</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20278,13 +20300,13 @@
         <v>669</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20295,13 +20317,13 @@
         <v>670</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20312,13 +20334,13 @@
         <v>671</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20329,13 +20351,13 @@
         <v>672</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20346,13 +20368,13 @@
         <v>673</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20363,13 +20385,13 @@
         <v>151</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20380,13 +20402,13 @@
         <v>674</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20394,16 +20416,16 @@
         <v>5059340721033</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20414,13 +20436,13 @@
         <v>675</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20431,13 +20453,13 @@
         <v>676</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20448,13 +20470,13 @@
         <v>677</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20465,13 +20487,13 @@
         <v>678</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20482,13 +20504,13 @@
         <v>679</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20499,13 +20521,13 @@
         <v>680</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20516,13 +20538,13 @@
         <v>681</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20533,13 +20555,13 @@
         <v>682</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20550,13 +20572,13 @@
         <v>147</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20570,10 +20592,10 @@
         <v>684</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20587,10 +20609,10 @@
         <v>684</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -20604,10 +20626,10 @@
         <v>684</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20621,10 +20643,10 @@
         <v>684</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20638,10 +20660,10 @@
         <v>684</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -20655,10 +20677,10 @@
         <v>684</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -20672,10 +20694,10 @@
         <v>684</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -20689,10 +20711,10 @@
         <v>684</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -20706,10 +20728,10 @@
         <v>684</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -20723,10 +20745,10 @@
         <v>684</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -20740,10 +20762,10 @@
         <v>684</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -20757,10 +20779,10 @@
         <v>684</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -20774,10 +20796,10 @@
         <v>684</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -20791,10 +20813,10 @@
         <v>684</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -20808,10 +20830,10 @@
         <v>684</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -20825,10 +20847,10 @@
         <v>684</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -20842,10 +20864,10 @@
         <v>684</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -20859,10 +20881,10 @@
         <v>684</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20876,10 +20898,10 @@
         <v>684</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20893,10 +20915,10 @@
         <v>684</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20910,10 +20932,10 @@
         <v>684</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20927,10 +20949,10 @@
         <v>684</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20944,10 +20966,10 @@
         <v>684</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20961,10 +20983,10 @@
         <v>684</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20978,10 +21000,10 @@
         <v>684</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20995,10 +21017,10 @@
         <v>684</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -21012,10 +21034,10 @@
         <v>684</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -21029,10 +21051,10 @@
         <v>684</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -21046,10 +21068,10 @@
         <v>684</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -21063,10 +21085,10 @@
         <v>684</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -21080,10 +21102,10 @@
         <v>684</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -21097,10 +21119,10 @@
         <v>684</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -21114,10 +21136,10 @@
         <v>684</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -21131,10 +21153,10 @@
         <v>684</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -21148,10 +21170,10 @@
         <v>684</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -21165,10 +21187,10 @@
         <v>684</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -21182,10 +21204,10 @@
         <v>684</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -21199,10 +21221,10 @@
         <v>684</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -21216,10 +21238,10 @@
         <v>684</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -21233,10 +21255,10 @@
         <v>684</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -21250,10 +21272,10 @@
         <v>684</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -21267,10 +21289,10 @@
         <v>684</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -21284,10 +21306,10 @@
         <v>684</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -21301,10 +21323,10 @@
         <v>684</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21318,10 +21340,10 @@
         <v>684</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -21335,10 +21357,10 @@
         <v>684</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -21352,10 +21374,10 @@
         <v>720</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -21369,10 +21391,10 @@
         <v>720</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21386,10 +21408,10 @@
         <v>720</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21403,10 +21425,10 @@
         <v>720</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21420,10 +21442,10 @@
         <v>720</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21437,10 +21459,10 @@
         <v>720</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21454,10 +21476,10 @@
         <v>720</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21471,10 +21493,10 @@
         <v>720</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21488,10 +21510,10 @@
         <v>720</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21505,10 +21527,10 @@
         <v>720</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21522,10 +21544,10 @@
         <v>720</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -21539,10 +21561,10 @@
         <v>720</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -21556,10 +21578,10 @@
         <v>720</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -21573,10 +21595,10 @@
         <v>720</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -21590,10 +21612,10 @@
         <v>720</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21601,16 +21623,16 @@
         <v>8432712288582</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>720</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -21624,10 +21646,10 @@
         <v>720</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -21641,10 +21663,10 @@
         <v>720</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -21658,10 +21680,10 @@
         <v>720</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -21675,10 +21697,10 @@
         <v>720</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -21692,10 +21714,10 @@
         <v>720</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -21709,10 +21731,10 @@
         <v>720</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -21726,10 +21748,10 @@
         <v>720</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -21743,10 +21765,10 @@
         <v>720</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -21760,10 +21782,10 @@
         <v>720</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -21771,16 +21793,16 @@
         <v>5059340719658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C145" s="25" t="s">
         <v>720</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -21794,10 +21816,10 @@
         <v>720</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -21811,10 +21833,10 @@
         <v>720</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -21822,16 +21844,16 @@
         <v>5059340719535</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C148" s="25" t="s">
         <v>720</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -21845,10 +21867,10 @@
         <v>720</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -21862,10 +21884,10 @@
         <v>720</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -21879,10 +21901,10 @@
         <v>720</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -21896,10 +21918,10 @@
         <v>720</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -21913,10 +21935,10 @@
         <v>720</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -21924,16 +21946,16 @@
         <v>5059340854205</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>720</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -21947,10 +21969,10 @@
         <v>720</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -21964,10 +21986,10 @@
         <v>720</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -21981,10 +22003,10 @@
         <v>720</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -21998,10 +22020,10 @@
         <v>720</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -22015,10 +22037,10 @@
         <v>720</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -22032,10 +22054,10 @@
         <v>745</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -22049,10 +22071,10 @@
         <v>745</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -22066,10 +22088,10 @@
         <v>745</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -22083,10 +22105,10 @@
         <v>745</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -22100,10 +22122,10 @@
         <v>745</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -22117,10 +22139,10 @@
         <v>745</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -22134,10 +22156,10 @@
         <v>745</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -22151,10 +22173,10 @@
         <v>745</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -22168,10 +22190,10 @@
         <v>745</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -22185,10 +22207,10 @@
         <v>745</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -22202,10 +22224,10 @@
         <v>745</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -22219,10 +22241,10 @@
         <v>745</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22236,10 +22258,10 @@
         <v>745</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -22253,10 +22275,10 @@
         <v>745</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -22270,10 +22292,10 @@
         <v>745</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -22287,10 +22309,10 @@
         <v>745</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -22304,10 +22326,10 @@
         <v>745</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -22321,10 +22343,10 @@
         <v>745</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -22338,10 +22360,10 @@
         <v>745</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -22355,10 +22377,10 @@
         <v>745</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22372,10 +22394,10 @@
         <v>745</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -22389,10 +22411,10 @@
         <v>745</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22406,10 +22428,10 @@
         <v>755</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -22423,10 +22445,10 @@
         <v>755</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -22440,10 +22462,10 @@
         <v>755</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22457,10 +22479,10 @@
         <v>755</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22474,10 +22496,10 @@
         <v>755</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -22491,10 +22513,10 @@
         <v>755</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -22508,10 +22530,10 @@
         <v>755</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22525,10 +22547,10 @@
         <v>755</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22542,10 +22564,10 @@
         <v>755</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -22559,10 +22581,10 @@
         <v>755</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -22576,10 +22598,10 @@
         <v>755</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -22593,10 +22615,10 @@
         <v>755</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -22610,10 +22632,10 @@
         <v>755</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -22627,10 +22649,10 @@
         <v>755</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -22644,10 +22666,10 @@
         <v>755</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -22661,10 +22683,10 @@
         <v>755</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -22678,10 +22700,10 @@
         <v>755</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -22695,10 +22717,10 @@
         <v>755</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -22712,10 +22734,10 @@
         <v>755</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -22729,10 +22751,10 @@
         <v>755</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -22746,10 +22768,10 @@
         <v>755</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -22763,10 +22785,10 @@
         <v>755</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -22780,10 +22802,10 @@
         <v>755</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -22797,10 +22819,10 @@
         <v>755</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -22814,10 +22836,10 @@
         <v>755</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -22831,10 +22853,10 @@
         <v>755</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -22848,10 +22870,10 @@
         <v>755</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -22865,10 +22887,10 @@
         <v>720</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75">
@@ -22882,10 +22904,10 @@
         <v>684</v>
       </c>
       <c r="D210" s="45" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16.5">
@@ -22896,13 +22918,13 @@
         <v>285</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75">

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB1BA02-4C9E-4C7F-9C0B-1F5EE0832F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431B9561-C902-4F1D-A3F3-22A0A9DCAC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
@@ -4634,7 +4634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4726,13 +4726,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5574,8 +5567,8 @@
   </sheetPr>
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283:B283"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13643,9 +13636,9 @@
         <v>28-01-202</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15.75">
+    <row r="210" spans="1:10" ht="16.5">
       <c r="A210" s="39">
-        <v>5059340221717</v>
+        <v>5063022712745</v>
       </c>
       <c r="B210" s="41" t="s">
         <v>218</v>
@@ -13680,9 +13673,9 @@
         <v>28-01-301</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15.75">
+    <row r="211" spans="1:10" ht="16.5">
       <c r="A211" s="39">
-        <v>5059340357447</v>
+        <v>5063022712660</v>
       </c>
       <c r="B211" s="41" t="s">
         <v>219</v>
@@ -13717,9 +13710,9 @@
         <v>28-01-302</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15.75">
+    <row r="212" spans="1:10" ht="16.5">
       <c r="A212" s="39">
-        <v>5059340802602</v>
+        <v>5063022712721</v>
       </c>
       <c r="B212" s="41" t="s">
         <v>220</v>
@@ -16352,19 +16345,19 @@
         <v>291</v>
       </c>
       <c r="C283" s="14"/>
-      <c r="D283" s="49" t="str">
-        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="E283" s="49" t="str">
+      <c r="D283" s="14" t="str">
+        <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="E283" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
         <v>RACK 11</v>
       </c>
-      <c r="F283" s="49" t="str">
+      <c r="F283" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
         <v>MODULO 1</v>
       </c>
-      <c r="G283" s="49" t="str">
+      <c r="G283" s="14" t="str">
         <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
         <v>FILA 2</v>
       </c>
@@ -16372,11 +16365,11 @@
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="I283" s="50" t="str">
-        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="J283" s="51" t="str">
+      <c r="I283" s="16" t="str">
+        <f>IF(COUNTIF(SELF[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="J283" s="13" t="str">
         <f>IF(EXISTENCIA[[#This Row],[en_self]]="SI", VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SELF[],3,FALSE), VLOOKUP(EXISTENCIA[[#This Row],[EAN]],ALMACEN[],3,FALSE))</f>
         <v>28-04-301</v>
       </c>
@@ -16394,8 +16387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD18BE2-0DBC-4BB4-8FBE-BFB232B0B51D}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:B106"/>
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -17825,7 +17818,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="28">
-        <v>5059340221717</v>
+        <v>5063022712745</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>218</v>
@@ -17836,7 +17829,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="28">
-        <v>5059340357447</v>
+        <v>5063022712660</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>219</v>
@@ -17847,7 +17840,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="28">
-        <v>5059340802602</v>
+        <v>5063022712721</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>220</v>
@@ -19328,8 +19321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22079,7 +22072,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="24">
-        <v>5059340357447</v>
+        <v>5063022712660</v>
       </c>
       <c r="B162" s="25" t="s">
         <v>219</v>
@@ -22130,7 +22123,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="24">
-        <v>5059340221717</v>
+        <v>5063022712745</v>
       </c>
       <c r="B165" s="25" t="s">
         <v>218</v>
@@ -22147,7 +22140,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="24">
-        <v>5059340802602</v>
+        <v>5063022712721</v>
       </c>
       <c r="B166" s="25" t="s">
         <v>220</v>

--- a/ceramica_proyecto.xlsx
+++ b/ceramica_proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431B9561-C902-4F1D-A3F3-22A0A9DCAC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FA1878-B139-443F-8AC6-433A8D40BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6A0D054A-EA90-43D3-9946-5E896568E0A7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="767">
   <si>
     <t>EAN</t>
   </si>
@@ -5252,8 +5252,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E212" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E212" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}" name="SHOWROOM" displayName="SHOWROOM" ref="A1:E214" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E214" xr:uid="{04895F0D-CED9-49B0-B76F-B45DB5CC94A2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{988177E9-8B74-4DA8-8D93-E60B539BC797}" name="EAN" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9354D9B3-F652-4D41-B841-C67C7F44B562}" name="descrpcion_es" dataDxfId="3"/>
@@ -5567,8 +5567,8 @@
   </sheetPr>
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280:B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16236,19 +16236,19 @@
       <c r="C280" s="14"/>
       <c r="D280" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E280" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F280" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G280" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E280" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 03</v>
+      </c>
+      <c r="F280" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 2</v>
+      </c>
+      <c r="G280" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 3</v>
       </c>
       <c r="H280" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -16273,19 +16273,19 @@
       <c r="C281" s="14"/>
       <c r="D281" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E281" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F281" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G281" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E281" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 03</v>
+      </c>
+      <c r="F281" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 2</v>
+      </c>
+      <c r="G281" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 4</v>
       </c>
       <c r="H281" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -16310,19 +16310,19 @@
       <c r="C282" s="14"/>
       <c r="D282" s="14" t="str">
         <f>IF(COUNTIF(SHOWROOM[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="E282" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F282" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G282" s="14" t="e">
-        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
-        <v>#N/A</v>
+        <v>SI</v>
+      </c>
+      <c r="E282" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],3,FALSE)</f>
+        <v>RACK 03</v>
+      </c>
+      <c r="F282" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],4,FALSE)</f>
+        <v>MODULO 2</v>
+      </c>
+      <c r="G282" s="14" t="str">
+        <f>VLOOKUP(EXISTENCIA[[#This Row],[EAN]],SHOWROOM[],5,FALSE)</f>
+        <v>FILA 4</v>
       </c>
       <c r="H282" s="15" t="str">
         <f>IF(COUNTIF(ALMACEN[EAN],EXISTENCIA[[#This Row],[EAN]])&gt;0,"SI","NO")</f>
@@ -19319,10 +19319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD330A52-AB76-4016-8757-0329F27DD631}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213:E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22921,11 +22921,55 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75">
-      <c r="A212" s="26"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
+      <c r="A212" s="39">
+        <v>5063022712738</v>
+      </c>
+      <c r="B212" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="E212" s="27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75">
+      <c r="A213" s="39">
+        <v>5063022756800</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="E213" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75">
+      <c r="A214" s="39">
+        <v>5063022756817</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>613</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
